--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="109">
   <si>
     <t>CAMPO</t>
   </si>
@@ -65,9 +65,6 @@
     <t>DADOS DE SAÍDA</t>
   </si>
   <si>
-    <t>CT002</t>
-  </si>
-  <si>
     <t>Projeto de Teste</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t>Eduardo da hora lira</t>
-  </si>
-  <si>
-    <t>Berguisson ferreira</t>
   </si>
   <si>
     <t>SIB</t>
@@ -301,6 +295,87 @@
   </si>
   <si>
     <t>Senha foi alterada, digite novamente seus dados ou peça uma nova senha!</t>
+  </si>
+  <si>
+    <t>Usuario deve esta logado no sistema e o sistema esta conectado no Mercado de ações.</t>
+  </si>
+  <si>
+    <t>Atualizar cotações com sucesso.</t>
+  </si>
+  <si>
+    <t>dispare uma interrupção, a cada 5 minutos, indicando que as cotações devem ser atualizadas.</t>
+  </si>
+  <si>
+    <t>O sistema consulta as cotações das ações através da operadora do Mercado de Ações e atualiza o valor das ações, mantendo todo histórico dos valores das ações.</t>
+  </si>
+  <si>
+    <t>Testar requisito UC005 - Atualizar Cotações</t>
+  </si>
+  <si>
+    <t>Atualizar cotações SEM sucesso- DEVIDO AO TIMEOUT</t>
+  </si>
+  <si>
+    <t>Usuario deve esta logado no sistema e o sistema esta logado no Mercado de ações.</t>
+  </si>
+  <si>
+    <t>Atualizar cotações com sucesso- CANCELA OPERAÇÃO.</t>
+  </si>
+  <si>
+    <t>Cancele operação durante o disparo do relogio.</t>
+  </si>
+  <si>
+    <t>Em qualquer momento o usuário pode cancelar a operação. O caso de uso será encerrado.</t>
+  </si>
+  <si>
+    <t>Atualizar cotações com sucesso- DURANTE A CONSULTA CANCELE OPERAÇÃO.</t>
+  </si>
+  <si>
+    <t>Durante a consulta das cotações das ações será cancelado.</t>
+  </si>
+  <si>
+    <t>Em qualquer momento o usuário pode cancelar a operação. ocorrerá um timeout e o caso de uso será encerrado.</t>
+  </si>
+  <si>
+    <t>Atualizar cotações com sucesso- CANCELA OPERAÇÃO DURANTE O DISPARO DO RELOGIO.</t>
+  </si>
+  <si>
+    <t>Berguison ferreira</t>
+  </si>
+  <si>
+    <t>UC001</t>
+  </si>
+  <si>
+    <t>UC003</t>
+  </si>
+  <si>
+    <t>UC002</t>
+  </si>
+  <si>
+    <t>UC004</t>
+  </si>
+  <si>
+    <t>UC005</t>
+  </si>
+  <si>
+    <t>UC006</t>
+  </si>
+  <si>
+    <t>UC007</t>
+  </si>
+  <si>
+    <t>UC008</t>
+  </si>
+  <si>
+    <t>UC009</t>
+  </si>
+  <si>
+    <t>UC0010</t>
+  </si>
+  <si>
+    <t>UC0011</t>
+  </si>
+  <si>
+    <t>UC0012</t>
   </si>
 </sst>
 </file>
@@ -8589,7 +8664,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="28"/>
       <c r="E13" s="60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -8624,7 +8699,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="28"/>
       <c r="E16" s="61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="61"/>
@@ -8649,7 +8724,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="29"/>
@@ -8673,7 +8748,7 @@
       <c r="D20" s="28"/>
       <c r="E20" s="33"/>
       <c r="F20" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="29"/>
@@ -8686,7 +8761,7 @@
       <c r="D21" s="28"/>
       <c r="E21" s="33"/>
       <c r="F21" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="29"/>
@@ -8699,7 +8774,7 @@
       <c r="D22" s="28"/>
       <c r="E22" s="33"/>
       <c r="F22" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="29"/>
@@ -8712,7 +8787,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="33"/>
       <c r="F23" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="29"/>
@@ -8725,7 +8800,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="33"/>
       <c r="F24" s="35" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="29"/>
@@ -8874,11 +8949,11 @@
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -8908,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="82"/>
@@ -9162,28 +9237,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="85"/>
       <c r="E2" s="78"/>
       <c r="F2" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="I2" s="92" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="67"/>
       <c r="K2" s="67"/>
       <c r="L2" s="74"/>
       <c r="M2" s="71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
@@ -9420,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="88"/>
@@ -10406,20 +10481,20 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="33.75">
-      <c r="A7" s="62">
-        <v>1</v>
+      <c r="A7" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
@@ -10660,10 +10735,10 @@
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
       <c r="D8" s="100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="96">
         <v>18333</v>
@@ -10672,16 +10747,16 @@
         <v>131313</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -11403,19 +11478,19 @@
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51">
       <c r="A11" s="62" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
@@ -11660,28 +11735,28 @@
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
       <c r="D12" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="93" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>38</v>
       </c>
       <c r="G12" s="93">
         <v>131313</v>
       </c>
       <c r="H12" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" s="95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -12402,20 +12477,20 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="51">
-      <c r="A15" s="62">
-        <v>3</v>
+      <c r="A15" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="50"/>
@@ -12660,28 +12735,28 @@
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
       <c r="D16" s="48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="101">
         <v>18333</v>
       </c>
       <c r="G16" s="101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I16" s="95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -13402,20 +13477,20 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="51">
-      <c r="A19" s="62">
-        <v>4</v>
+      <c r="A19" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
@@ -13660,10 +13735,10 @@
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
       <c r="D20" s="48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="102">
         <v>18333</v>
@@ -13672,16 +13747,16 @@
         <v>131313</v>
       </c>
       <c r="H20" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I20" s="95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -14402,20 +14477,20 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" ht="12.75" customHeight="1">
-      <c r="A23" s="62">
-        <v>5</v>
+      <c r="A23" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="50"/>
@@ -14435,10 +14510,10 @@
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
       <c r="D24" s="48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F24" s="102">
         <v>18333</v>
@@ -14447,16 +14522,16 @@
         <v>131313</v>
       </c>
       <c r="H24" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I24" s="95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
       <c r="L24" s="51"/>
       <c r="M24" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
@@ -14502,20 +14577,20 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:242" ht="51">
-      <c r="A27" s="62">
-        <v>6</v>
+      <c r="A27" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
@@ -14535,28 +14610,28 @@
       <c r="B28" s="63"/>
       <c r="C28" s="63"/>
       <c r="D28" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="102" t="s">
-        <v>50</v>
-      </c>
       <c r="G28" s="103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I28" s="103" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="51"/>
       <c r="M28" s="52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
@@ -14602,20 +14677,20 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:242" ht="12.75" customHeight="1">
-      <c r="A31" s="62">
-        <v>7</v>
+      <c r="A31" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50"/>
@@ -14635,10 +14710,10 @@
       <c r="B32" s="63"/>
       <c r="C32" s="63"/>
       <c r="D32" s="48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F32" s="93">
         <v>18333</v>
@@ -14647,16 +14722,16 @@
         <v>131313</v>
       </c>
       <c r="H32" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I32" s="95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
       <c r="L32" s="51"/>
       <c r="M32" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N32" s="53"/>
       <c r="O32" s="53"/>
@@ -14702,20 +14777,20 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="51">
-      <c r="A35" s="62">
-        <v>8</v>
+      <c r="A35" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="50"/>
@@ -14735,10 +14810,10 @@
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
       <c r="D36" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="93">
         <v>18333</v>
@@ -14747,16 +14822,16 @@
         <v>131313</v>
       </c>
       <c r="H36" s="93" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I36" s="95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
       <c r="L36" s="51"/>
       <c r="M36" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
@@ -14802,20 +14877,20 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="51">
-      <c r="A39" s="62">
-        <v>9</v>
+      <c r="A39" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -14835,10 +14910,10 @@
       <c r="B40" s="63"/>
       <c r="C40" s="63"/>
       <c r="D40" s="48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F40" s="93">
         <v>18333</v>
@@ -14847,16 +14922,16 @@
         <v>131313</v>
       </c>
       <c r="H40" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I40" s="95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J40" s="50"/>
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
       <c r="M40" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
@@ -14902,20 +14977,20 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17" ht="51">
-      <c r="A43" s="62">
-        <v>10</v>
+      <c r="A43" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
@@ -14935,10 +15010,10 @@
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
       <c r="D44" s="48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F44" s="93">
         <v>18333</v>
@@ -14947,16 +15022,16 @@
         <v>131313</v>
       </c>
       <c r="H44" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I44" s="95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="51"/>
       <c r="M44" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
@@ -15002,20 +15077,20 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17" ht="51">
-      <c r="A47" s="62">
-        <v>11</v>
+      <c r="A47" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="50"/>
@@ -15035,10 +15110,10 @@
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
       <c r="D48" s="48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="93">
         <v>18333</v>
@@ -15047,16 +15122,16 @@
         <v>131313</v>
       </c>
       <c r="H48" s="94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I48" s="95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="51"/>
       <c r="M48" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N48" s="53"/>
       <c r="O48" s="53"/>
@@ -15102,20 +15177,20 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17" ht="51">
-      <c r="A51" s="62">
-        <v>12</v>
+      <c r="A51" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F51" s="49"/>
       <c r="G51" s="50"/>
@@ -15135,10 +15210,10 @@
       <c r="B52" s="63"/>
       <c r="C52" s="63"/>
       <c r="D52" s="48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
@@ -15148,7 +15223,7 @@
       <c r="K52" s="50"/>
       <c r="L52" s="51"/>
       <c r="M52" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N52" s="53"/>
       <c r="O52" s="53"/>
@@ -16173,7 +16248,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q54"/>
+      <selection activeCell="A7" sqref="A7:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16315,8 +16390,8 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62">
-        <v>1</v>
+      <c r="A7" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -16394,7 +16469,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="62" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -16471,8 +16546,8 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62">
-        <v>3</v>
+      <c r="A15" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -16549,8 +16624,8 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62">
-        <v>4</v>
+      <c r="A19" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
@@ -16627,8 +16702,8 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62">
-        <v>5</v>
+      <c r="A23" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -16705,8 +16780,8 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62">
-        <v>6</v>
+      <c r="A27" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -16783,8 +16858,8 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62">
-        <v>7</v>
+      <c r="A31" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
@@ -16861,8 +16936,8 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62">
-        <v>8</v>
+      <c r="A35" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -16939,8 +17014,8 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62">
-        <v>9</v>
+      <c r="A39" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -17017,8 +17092,8 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62">
-        <v>10</v>
+      <c r="A43" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
@@ -17095,8 +17170,8 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62">
-        <v>11</v>
+      <c r="A47" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
@@ -17173,8 +17248,8 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62">
-        <v>12</v>
+      <c r="A51" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
@@ -18196,7 +18271,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q54"/>
+      <selection activeCell="A7" sqref="A7:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18338,8 +18413,8 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62">
-        <v>1</v>
+      <c r="A7" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -18417,7 +18492,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="62" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -18494,8 +18569,8 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62">
-        <v>3</v>
+      <c r="A15" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -18572,8 +18647,8 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62">
-        <v>4</v>
+      <c r="A19" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
@@ -18650,8 +18725,8 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62">
-        <v>5</v>
+      <c r="A23" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -18728,8 +18803,8 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62">
-        <v>6</v>
+      <c r="A27" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -18806,8 +18881,8 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62">
-        <v>7</v>
+      <c r="A31" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
@@ -18884,8 +18959,8 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62">
-        <v>8</v>
+      <c r="A35" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -18962,8 +19037,8 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62">
-        <v>9</v>
+      <c r="A39" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -19040,8 +19115,8 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62">
-        <v>10</v>
+      <c r="A43" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
@@ -19118,8 +19193,8 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62">
-        <v>11</v>
+      <c r="A47" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
@@ -19196,8 +19271,8 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62">
-        <v>12</v>
+      <c r="A51" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
@@ -20218,8 +20293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:Q54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -20361,8 +20436,8 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62">
-        <v>1</v>
+      <c r="A7" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -20440,7 +20515,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="62" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -20517,8 +20592,8 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62">
-        <v>3</v>
+      <c r="A15" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -20595,8 +20670,8 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62">
-        <v>4</v>
+      <c r="A19" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
@@ -20673,8 +20748,8 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62">
-        <v>5</v>
+      <c r="A23" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -20751,8 +20826,8 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62">
-        <v>6</v>
+      <c r="A27" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -20829,8 +20904,8 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62">
-        <v>7</v>
+      <c r="A31" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
@@ -20907,8 +20982,8 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62">
-        <v>8</v>
+      <c r="A35" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -20985,8 +21060,8 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62">
-        <v>9</v>
+      <c r="A39" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -21063,8 +21138,8 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62">
-        <v>10</v>
+      <c r="A43" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
@@ -21141,8 +21216,8 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62">
-        <v>11</v>
+      <c r="A47" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
@@ -21219,8 +21294,8 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62">
-        <v>12</v>
+      <c r="A51" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
@@ -22241,11 +22316,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q54"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="59" t="s">
@@ -22299,7 +22380,9 @@
       <c r="A3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="86" t="s">
+        <v>86</v>
+      </c>
       <c r="C3" s="87"/>
       <c r="D3" s="88"/>
       <c r="E3" s="78"/>
@@ -22383,14 +22466,22 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="42"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="62">
-        <v>1</v>
-      </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+    <row r="7" spans="1:17" ht="89.25" customHeight="1">
+      <c r="A7" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>85</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -22461,14 +22552,22 @@
       <c r="P10" s="57"/>
       <c r="Q10" s="58"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="92.25" customHeight="1">
       <c r="A11" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+        <v>99</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>85</v>
+      </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -22539,14 +22638,22 @@
       <c r="P14" s="57"/>
       <c r="Q14" s="58"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="62">
-        <v>3</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+    <row r="15" spans="1:17" ht="55.5" customHeight="1">
+      <c r="A15" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>91</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -22617,14 +22724,22 @@
       <c r="P18" s="57"/>
       <c r="Q18" s="58"/>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="62">
-        <v>4</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+    <row r="19" spans="1:17" ht="63.75" customHeight="1">
+      <c r="A19" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -22695,14 +22810,22 @@
       <c r="P22" s="57"/>
       <c r="Q22" s="58"/>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="62">
-        <v>5</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+    <row r="23" spans="1:17" ht="51" customHeight="1">
+      <c r="A23" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>90</v>
+      </c>
       <c r="F23" s="49"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -22774,8 +22897,8 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62">
-        <v>6</v>
+      <c r="A27" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -22852,8 +22975,8 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62">
-        <v>7</v>
+      <c r="A31" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
@@ -22930,8 +23053,8 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62">
-        <v>8</v>
+      <c r="A35" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -23008,8 +23131,8 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62">
-        <v>9</v>
+      <c r="A39" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -23086,8 +23209,8 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62">
-        <v>10</v>
+      <c r="A43" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
@@ -23164,8 +23287,8 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62">
-        <v>11</v>
+      <c r="A47" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
@@ -23242,8 +23365,8 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62">
-        <v>12</v>
+      <c r="A51" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
@@ -24265,7 +24388,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q54"/>
+      <selection activeCell="A7" sqref="A7:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -24407,8 +24530,8 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62">
-        <v>1</v>
+      <c r="A7" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -24486,7 +24609,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="62" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -24563,8 +24686,8 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62">
-        <v>3</v>
+      <c r="A15" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -24641,8 +24764,8 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62">
-        <v>4</v>
+      <c r="A19" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
@@ -24719,8 +24842,8 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62">
-        <v>5</v>
+      <c r="A23" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -24797,8 +24920,8 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62">
-        <v>6</v>
+      <c r="A27" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -24875,8 +24998,8 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62">
-        <v>7</v>
+      <c r="A31" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
@@ -24953,8 +25076,8 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62">
-        <v>8</v>
+      <c r="A35" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -25031,8 +25154,8 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62">
-        <v>9</v>
+      <c r="A39" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -25109,8 +25232,8 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62">
-        <v>10</v>
+      <c r="A43" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
@@ -25187,8 +25310,8 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62">
-        <v>11</v>
+      <c r="A47" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
@@ -25265,8 +25388,8 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62">
-        <v>12</v>
+      <c r="A51" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
@@ -26287,8 +26410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26430,8 +26553,8 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62">
-        <v>1</v>
+      <c r="A7" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -26509,7 +26632,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="62" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -26586,8 +26709,8 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62">
-        <v>3</v>
+      <c r="A15" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -26664,8 +26787,8 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62">
-        <v>4</v>
+      <c r="A19" s="62" t="s">
+        <v>100</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63"/>
@@ -26742,8 +26865,8 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62">
-        <v>5</v>
+      <c r="A23" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
@@ -26820,8 +26943,8 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62">
-        <v>6</v>
+      <c r="A27" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="B27" s="63"/>
       <c r="C27" s="63"/>
@@ -26898,8 +27021,8 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62">
-        <v>7</v>
+      <c r="A31" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
@@ -26976,8 +27099,8 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62">
-        <v>8</v>
+      <c r="A35" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -27054,8 +27177,8 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62">
-        <v>9</v>
+      <c r="A39" s="62" t="s">
+        <v>105</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -27132,8 +27255,8 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62">
-        <v>10</v>
+      <c r="A43" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
@@ -27210,8 +27333,8 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62">
-        <v>11</v>
+      <c r="A47" s="62" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
@@ -27288,8 +27411,8 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62">
-        <v>12</v>
+      <c r="A51" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="115">
   <si>
     <t>CAMPO</t>
   </si>
@@ -376,6 +376,24 @@
   </si>
   <si>
     <t>UC0012</t>
+  </si>
+  <si>
+    <t>Cotação</t>
+  </si>
+  <si>
+    <t>Atualização</t>
+  </si>
+  <si>
+    <t>Operação Cancelada!!</t>
+  </si>
+  <si>
+    <t>Seu tempo expirol, Operação Cancelada!!</t>
+  </si>
+  <si>
+    <t>Operação cancelada!!</t>
+  </si>
+  <si>
+    <t>sua sessão expirol, tente outra vez!!!</t>
   </si>
 </sst>
 </file>
@@ -1073,6 +1091,39 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,47 +1136,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1160,6 +1172,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,41 +1199,29 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8663,11 +8681,11 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="29"/>
       <c r="I13" s="19"/>
       <c r="J13" s="23"/>
@@ -8676,9 +8694,9 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="29"/>
       <c r="I14" s="19"/>
       <c r="J14" s="23"/>
@@ -8698,11 +8716,11 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="29"/>
       <c r="I16" s="19"/>
       <c r="J16" s="23"/>
@@ -8711,9 +8729,9 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="29"/>
       <c r="I17" s="19"/>
       <c r="J17" s="23"/>
@@ -8949,11 +8967,11 @@
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IH54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:A25"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -8982,29 +9000,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -9236,33 +9254,33 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="92" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="71" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -9491,26 +9509,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -9739,22 +9757,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -10481,19 +10499,19 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="33.75">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="66" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="50"/>
@@ -10731,25 +10749,25 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="100" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="63">
         <v>18333</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="64">
         <v>131313</v>
       </c>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="95" t="s">
+      <c r="I8" s="62" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="50"/>
@@ -10989,9 +11007,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="44.1" customHeight="1" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -11477,13 +11495,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="48" t="s">
@@ -11731,25 +11749,25 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="102">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="60">
         <v>131313</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="95" t="s">
+      <c r="I12" s="62" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="50"/>
@@ -11989,9 +12007,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -12477,13 +12495,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="51">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -12731,25 +12749,25 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="102">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="48" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="101">
+      <c r="F16" s="68">
         <v>18333</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="94" t="s">
+      <c r="H16" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="62" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="50"/>
@@ -12989,9 +13007,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -13477,13 +13495,13 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="51">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -13731,25 +13749,25 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="114.75">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="48" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="69">
         <v>18333</v>
       </c>
-      <c r="G20" s="102">
+      <c r="G20" s="69">
         <v>131313</v>
       </c>
-      <c r="H20" s="94" t="s">
+      <c r="H20" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="62" t="s">
         <v>43</v>
       </c>
       <c r="J20" s="50"/>
@@ -13989,9 +14007,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="74.099999999999994" customHeight="1" thickBot="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -14477,13 +14495,13 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" ht="12.75" customHeight="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="48" t="s">
@@ -14506,25 +14524,25 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:242" ht="102">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="48" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="102">
+      <c r="F24" s="69">
         <v>18333</v>
       </c>
-      <c r="G24" s="102">
+      <c r="G24" s="69">
         <v>131313</v>
       </c>
-      <c r="H24" s="94" t="s">
+      <c r="H24" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="62" t="s">
         <v>43</v>
       </c>
       <c r="J24" s="50"/>
@@ -14539,9 +14557,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -14577,13 +14595,13 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:242" ht="51">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -14606,25 +14624,25 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:242" ht="89.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="48" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H28" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="103" t="s">
+      <c r="I28" s="70" t="s">
         <v>48</v>
       </c>
       <c r="J28" s="50"/>
@@ -14639,9 +14657,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:242" ht="13.5" thickBot="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -14677,13 +14695,13 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:242" ht="12.75" customHeight="1">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -14706,25 +14724,25 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:242" ht="76.5">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="48" t="s">
         <v>50</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="93">
+      <c r="F32" s="60">
         <v>18333</v>
       </c>
-      <c r="G32" s="93">
+      <c r="G32" s="60">
         <v>131313</v>
       </c>
-      <c r="H32" s="94" t="s">
+      <c r="H32" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="95" t="s">
+      <c r="I32" s="62" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="50"/>
@@ -14739,9 +14757,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -14777,13 +14795,13 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="51">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -14806,25 +14824,25 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="76.5">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="48" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="93">
+      <c r="F36" s="60">
         <v>18333</v>
       </c>
-      <c r="G36" s="93">
+      <c r="G36" s="60">
         <v>131313</v>
       </c>
-      <c r="H36" s="93" t="s">
+      <c r="H36" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="95" t="s">
+      <c r="I36" s="62" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="50"/>
@@ -14839,9 +14857,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -14877,13 +14895,13 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="51">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -14906,25 +14924,25 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17" ht="102">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="48" t="s">
         <v>55</v>
       </c>
       <c r="E40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F40" s="93">
+      <c r="F40" s="60">
         <v>18333</v>
       </c>
-      <c r="G40" s="93">
+      <c r="G40" s="60">
         <v>131313</v>
       </c>
-      <c r="H40" s="94" t="s">
+      <c r="H40" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I40" s="95" t="s">
+      <c r="I40" s="62" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="50"/>
@@ -14939,9 +14957,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -14977,13 +14995,13 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17" ht="51">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="48" t="s">
@@ -15006,25 +15024,25 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17" ht="114.75">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="48" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="93">
+      <c r="F44" s="60">
         <v>18333</v>
       </c>
-      <c r="G44" s="93">
+      <c r="G44" s="60">
         <v>131313</v>
       </c>
-      <c r="H44" s="94" t="s">
+      <c r="H44" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="95" t="s">
+      <c r="I44" s="62" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="50"/>
@@ -15039,9 +15057,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -15077,13 +15095,13 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17" ht="51">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="48" t="s">
@@ -15106,25 +15124,25 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17" ht="102">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="48" t="s">
         <v>60</v>
       </c>
       <c r="E48" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="93">
+      <c r="F48" s="60">
         <v>18333</v>
       </c>
-      <c r="G48" s="93">
+      <c r="G48" s="60">
         <v>131313</v>
       </c>
-      <c r="H48" s="94" t="s">
+      <c r="H48" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="95" t="s">
+      <c r="I48" s="62" t="s">
         <v>26</v>
       </c>
       <c r="J48" s="50"/>
@@ -15139,9 +15157,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -15177,13 +15195,13 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17" ht="51">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="74" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="48" t="s">
@@ -15206,9 +15224,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17" ht="114.75">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="48" t="s">
         <v>63</v>
       </c>
@@ -15231,9 +15249,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -15270,26 +15288,24 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -15306,24 +15322,26 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P9 F8:F9">
@@ -16248,7 +16266,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A53"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -16257,88 +16275,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="B2" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -16390,11 +16412,11 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
@@ -16411,9 +16433,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -16430,9 +16452,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -16468,11 +16490,11 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
@@ -16489,9 +16511,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -16508,9 +16530,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -16546,11 +16568,11 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
@@ -16567,9 +16589,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -16586,9 +16608,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -16624,11 +16646,11 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
@@ -16645,9 +16667,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -16664,9 +16686,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -16702,11 +16724,11 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
@@ -16723,9 +16745,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -16742,9 +16764,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -16780,11 +16802,11 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -16801,9 +16823,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -16820,9 +16842,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -16858,11 +16880,11 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -16879,9 +16901,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -16898,9 +16920,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -16936,11 +16958,11 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -16957,9 +16979,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -16976,9 +16998,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -17014,11 +17036,11 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -17035,9 +17057,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -17054,9 +17076,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -17092,11 +17114,11 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -17113,9 +17135,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -17132,9 +17154,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -17170,11 +17192,11 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -17191,9 +17213,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -17210,9 +17232,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -17248,11 +17270,11 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -17269,9 +17291,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -17288,9 +17310,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -17327,6 +17349,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -17341,46 +17403,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -18271,7 +18293,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A53"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18280,88 +18302,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="B2" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -18413,11 +18439,11 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
@@ -18434,9 +18460,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -18453,9 +18479,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -18491,11 +18517,11 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
@@ -18512,9 +18538,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -18531,9 +18557,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -18569,11 +18595,11 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
@@ -18590,9 +18616,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -18609,9 +18635,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -18647,11 +18673,11 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
@@ -18668,9 +18694,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -18687,9 +18713,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -18725,11 +18751,11 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
@@ -18746,9 +18772,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -18765,9 +18791,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -18803,11 +18829,11 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -18824,9 +18850,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -18843,9 +18869,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -18881,11 +18907,11 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -18902,9 +18928,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -18921,9 +18947,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -18959,11 +18985,11 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -18980,9 +19006,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -18999,9 +19025,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -19037,11 +19063,11 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -19058,9 +19084,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -19077,9 +19103,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -19115,11 +19141,11 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -19136,9 +19162,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -19155,9 +19181,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -19193,11 +19219,11 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -19214,9 +19240,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -19233,9 +19259,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -19271,11 +19297,11 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -19292,9 +19318,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -19311,9 +19337,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -19350,6 +19376,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -19364,46 +19430,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -20294,7 +20320,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A53"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -20303,88 +20329,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="B2" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -20436,11 +20466,11 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
@@ -20457,9 +20487,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -20476,9 +20506,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -20514,11 +20544,11 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
@@ -20535,9 +20565,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -20554,9 +20584,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -20592,11 +20622,11 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
@@ -20613,9 +20643,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -20632,9 +20662,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -20670,11 +20700,11 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
@@ -20691,9 +20721,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -20710,9 +20740,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -20748,11 +20778,11 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
@@ -20769,9 +20799,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -20788,9 +20818,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -20826,11 +20856,11 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -20847,9 +20877,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -20866,9 +20896,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -20904,11 +20934,11 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -20925,9 +20955,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -20944,9 +20974,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -20982,11 +21012,11 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -21003,9 +21033,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -21022,9 +21052,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -21060,11 +21090,11 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -21081,9 +21111,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -21100,9 +21130,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -21138,11 +21168,11 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -21159,9 +21189,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -21178,9 +21208,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -21216,11 +21246,11 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -21237,9 +21267,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -21256,9 +21286,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -21294,11 +21324,11 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -21315,9 +21345,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -21334,9 +21364,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -21373,6 +21403,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -21387,46 +21457,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -22316,8 +22346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -22326,96 +22356,106 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="30.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="B2" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1">
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -22467,13 +22507,13 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="74" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -22482,7 +22522,9 @@
       <c r="E7" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="49" t="s">
+        <v>110</v>
+      </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
@@ -22496,9 +22538,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -22515,9 +22557,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -22553,13 +22595,13 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="92.25" customHeight="1">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="74" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="48" t="s">
@@ -22575,16 +22617,18 @@
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
+      <c r="M11" s="52" t="s">
+        <v>114</v>
+      </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -22601,9 +22645,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -22639,13 +22683,13 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="55.5" customHeight="1">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="74" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -22661,16 +22705,18 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
+      <c r="M15" s="52" t="s">
+        <v>111</v>
+      </c>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -22687,9 +22733,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -22725,13 +22771,13 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="63.75" customHeight="1">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="74" t="s">
         <v>88</v>
       </c>
       <c r="D19" s="48" t="s">
@@ -22747,16 +22793,18 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
+      <c r="M19" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -22773,9 +22821,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -22811,13 +22859,13 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="74" t="s">
         <v>88</v>
       </c>
       <c r="D23" s="48" t="s">
@@ -22833,16 +22881,18 @@
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
       <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
+      <c r="M23" s="52" t="s">
+        <v>113</v>
+      </c>
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -22859,9 +22909,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -22897,11 +22947,11 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -22918,9 +22968,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -22937,9 +22987,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -22975,11 +23025,11 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -22996,9 +23046,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -23015,9 +23065,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -23053,11 +23103,11 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -23074,9 +23124,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -23093,9 +23143,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -23131,11 +23181,11 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -23152,9 +23202,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -23171,9 +23221,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -23209,11 +23259,11 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -23230,9 +23280,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -23249,9 +23299,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -23287,11 +23337,11 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -23308,9 +23358,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -23327,9 +23377,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -23365,11 +23415,11 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -23386,9 +23436,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -23405,9 +23455,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -23444,6 +23494,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -23458,46 +23548,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -24388,7 +24438,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A53"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -24397,88 +24447,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="B2" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -24530,11 +24584,11 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
@@ -24551,9 +24605,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -24570,9 +24624,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -24608,11 +24662,11 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
@@ -24629,9 +24683,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -24648,9 +24702,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -24686,11 +24740,11 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
@@ -24707,9 +24761,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -24726,9 +24780,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -24764,11 +24818,11 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
@@ -24785,9 +24839,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -24804,9 +24858,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -24842,11 +24896,11 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
@@ -24863,9 +24917,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -24882,9 +24936,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -24920,11 +24974,11 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -24941,9 +24995,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -24960,9 +25014,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -24998,11 +25052,11 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -25019,9 +25073,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -25038,9 +25092,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -25076,11 +25130,11 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -25097,9 +25151,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -25116,9 +25170,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -25154,11 +25208,11 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -25175,9 +25229,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -25194,9 +25248,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -25232,11 +25286,11 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -25253,9 +25307,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -25272,9 +25326,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -25310,11 +25364,11 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -25331,9 +25385,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -25350,9 +25404,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -25388,11 +25442,11 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -25409,9 +25463,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -25428,9 +25482,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -25467,6 +25521,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -25481,46 +25575,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -26410,8 +26464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26420,88 +26474,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
+      <c r="B2" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -26553,11 +26611,11 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
@@ -26574,9 +26632,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -26593,9 +26651,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -26631,11 +26689,11 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
@@ -26652,9 +26710,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -26671,9 +26729,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -26709,11 +26767,11 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
@@ -26730,9 +26788,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -26749,9 +26807,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -26787,11 +26845,11 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
@@ -26808,9 +26866,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -26827,9 +26885,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -26865,11 +26923,11 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
@@ -26886,9 +26944,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -26905,9 +26963,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -26943,11 +27001,11 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -26964,9 +27022,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -26983,9 +27041,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -27021,11 +27079,11 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -27042,9 +27100,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -27061,9 +27119,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -27099,11 +27157,11 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -27120,9 +27178,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -27139,9 +27197,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -27177,11 +27235,11 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -27198,9 +27256,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -27217,9 +27275,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -27255,11 +27313,11 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -27276,9 +27334,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -27295,9 +27353,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -27333,11 +27391,11 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -27354,9 +27412,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="73"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -27373,9 +27431,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -27411,11 +27469,11 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -27432,9 +27490,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="73"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -27451,9 +27509,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -27490,6 +27548,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -27504,46 +27602,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="116">
   <si>
     <t>CAMPO</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Bergson Rocha</t>
+  </si>
+  <si>
+    <t>gg</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1139,56 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1174,54 +1225,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9000,29 +9003,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="93" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -9254,33 +9257,33 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="75" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="88" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -9509,26 +9512,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -9757,22 +9760,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -15288,24 +15291,26 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -15322,26 +15327,24 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P9 F8:F9">
@@ -16275,92 +16278,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="93" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="103"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -17349,46 +17352,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -17403,6 +17366,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -18302,92 +18305,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="93" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="103"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -19376,46 +19379,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -19430,6 +19393,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -20329,92 +20332,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="93" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="103"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -21403,46 +21406,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -21457,6 +21420,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -22364,98 +22367,98 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="93" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="96" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="88" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -23494,46 +23497,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -23548,6 +23511,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -24447,92 +24450,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="93" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="103"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -25521,46 +25524,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -25575,6 +25538,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -26464,7 +26467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
@@ -26472,92 +26477,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="76" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="93" t="s">
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="103"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -26797,7 +26802,9 @@
       <c r="I16" s="49"/>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
+      <c r="L16" s="51" t="s">
+        <v>115</v>
+      </c>
       <c r="M16" s="53"/>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -27546,46 +27553,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -27600,6 +27567,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="192">
   <si>
     <t>CAMPO</t>
   </si>
@@ -1230,12 +1230,6 @@
 informando que o pagamento foi realizado</t>
   </si>
   <si>
-    <t>10,00</t>
-  </si>
-  <si>
-    <t>11,00</t>
-  </si>
-  <si>
     <t>comprovante pagamento da fatura do cartao realizado</t>
   </si>
   <si>
@@ -1320,9 +1314,6 @@
     <t>O sistema deve indentificar que a fatura esta vencida</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema cobrar 10% acima do valor da fatura </t>
-  </si>
-  <si>
     <t>Tipo de ações</t>
   </si>
   <si>
@@ -1674,6 +1665,18 @@
       </rPr>
       <t>e o caso de uso será encerrado.</t>
     </r>
+  </si>
+  <si>
+    <t>Saldo insuficiente</t>
+  </si>
+  <si>
+    <t>Saldo suficiente</t>
+  </si>
+  <si>
+    <t>saldo Suficiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deve cobrar 10% acima do valor da fatura </t>
   </si>
 </sst>
 </file>
@@ -2422,8 +2425,59 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2461,57 +2515,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2519,655 +2522,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="689">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="617">
     <dxf>
       <font>
         <b/>
@@ -9565,29 +8920,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -9819,33 +9174,33 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -10074,26 +9429,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -10322,22 +9677,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -15464,7 +14819,7 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="63.75">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="81" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="79" t="s">
@@ -15802,24 +15157,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
@@ -15836,30 +15190,31 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P9 F9">
     <cfRule type="cellIs" priority="511" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="512" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15867,7 +15222,7 @@
     <cfRule type="cellIs" priority="481" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="482" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="482" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15875,7 +15230,7 @@
     <cfRule type="cellIs" priority="483" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="484" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="484" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15883,7 +15238,7 @@
     <cfRule type="cellIs" priority="345" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="346" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15891,7 +15246,7 @@
     <cfRule type="cellIs" priority="349" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="350" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15899,7 +15254,7 @@
     <cfRule type="cellIs" priority="331" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="332" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15907,7 +15262,7 @@
     <cfRule type="cellIs" priority="329" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="330" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15915,7 +15270,7 @@
     <cfRule type="cellIs" priority="333" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="334" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15923,7 +15278,7 @@
     <cfRule type="cellIs" priority="327" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="328" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15931,7 +15286,7 @@
     <cfRule type="cellIs" priority="313" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="314" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15939,7 +15294,7 @@
     <cfRule type="cellIs" priority="317" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="318" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15947,7 +15302,7 @@
     <cfRule type="cellIs" priority="291" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="292" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15955,7 +15310,7 @@
     <cfRule type="cellIs" priority="285" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="286" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15963,7 +15318,7 @@
     <cfRule type="cellIs" priority="289" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="290" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15971,7 +15326,7 @@
     <cfRule type="cellIs" priority="295" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="296" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15979,7 +15334,7 @@
     <cfRule type="cellIs" priority="299" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="300" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15987,7 +15342,7 @@
     <cfRule type="cellIs" priority="277" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="278" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15995,7 +15350,7 @@
     <cfRule type="cellIs" priority="283" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="284" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16003,7 +15358,7 @@
     <cfRule type="cellIs" priority="275" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="276" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16011,7 +15366,7 @@
     <cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="288" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16019,7 +15374,7 @@
     <cfRule type="cellIs" priority="253" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="254" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16027,7 +15382,7 @@
     <cfRule type="cellIs" priority="255" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="256" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16035,7 +15390,7 @@
     <cfRule type="cellIs" priority="257" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="258" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16043,7 +15398,7 @@
     <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="246" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16051,7 +15406,7 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16059,7 +15414,7 @@
     <cfRule type="cellIs" priority="239" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="240" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16067,7 +15422,7 @@
     <cfRule type="cellIs" priority="243" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="244" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16075,7 +15430,7 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="248" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16083,7 +15438,7 @@
     <cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="234" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16091,7 +15446,7 @@
     <cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="236" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16099,7 +15454,7 @@
     <cfRule type="cellIs" priority="237" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="238" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16107,7 +15462,7 @@
     <cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="226" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16115,7 +15470,7 @@
     <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="222" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16123,7 +15478,7 @@
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16131,7 +15486,7 @@
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="224" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16139,7 +15494,7 @@
     <cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="228" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16147,7 +15502,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16155,7 +15510,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16163,7 +15518,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16171,7 +15526,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16179,7 +15534,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16187,7 +15542,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="647" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16195,7 +15550,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16203,7 +15558,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16211,7 +15566,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16219,7 +15574,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16227,7 +15582,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16235,7 +15590,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16243,7 +15598,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16251,7 +15606,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16259,7 +15614,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16267,7 +15622,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16275,7 +15630,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16283,7 +15638,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16291,7 +15646,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16299,7 +15654,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16307,7 +15662,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16315,7 +15670,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16323,7 +15678,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16331,7 +15686,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16339,7 +15694,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16347,7 +15702,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16355,7 +15710,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16363,7 +15718,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16371,7 +15726,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16379,7 +15734,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="623" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16387,7 +15742,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16395,7 +15750,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16403,7 +15758,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16411,7 +15766,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16419,7 +15774,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16427,7 +15782,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16435,7 +15790,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16443,7 +15798,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16451,7 +15806,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16459,7 +15814,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16467,7 +15822,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16475,7 +15830,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16483,7 +15838,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16491,7 +15846,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16499,7 +15854,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16507,7 +15862,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16515,7 +15870,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16523,7 +15878,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16531,7 +15886,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16539,7 +15894,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16547,7 +15902,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16555,7 +15910,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16563,7 +15918,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16571,7 +15926,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16579,7 +15934,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16587,7 +15942,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16595,7 +15950,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16603,7 +15958,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16611,7 +15966,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16619,7 +15974,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16627,7 +15982,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16635,7 +15990,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16643,7 +15998,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16651,7 +16006,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16659,7 +16014,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16667,7 +16022,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16675,7 +16030,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16683,7 +16038,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16691,7 +16046,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16699,7 +16054,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16707,7 +16062,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16715,7 +16070,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16723,7 +16078,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16731,7 +16086,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16739,7 +16094,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16747,7 +16102,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16755,7 +16110,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16763,7 +16118,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16771,7 +16126,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16779,7 +16134,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16787,7 +16142,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16795,7 +16150,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16803,7 +16158,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16811,7 +16166,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16819,7 +16174,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16827,7 +16182,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16835,7 +16190,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16843,7 +16198,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16851,7 +16206,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16859,7 +16214,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16867,7 +16222,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16875,7 +16230,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16883,7 +16238,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16891,7 +16246,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16899,7 +16254,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16944,10 +16299,10 @@
   <dimension ref="A1:IH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -16959,7 +16314,7 @@
     <col min="5" max="5" width="22.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -16983,24 +16338,24 @@
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -17237,30 +16592,28 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="105" t="s">
+      <c r="N2" s="82"/>
+      <c r="O2" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="105"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -17489,26 +16842,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -17737,22 +17090,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -19490,19 +18843,17 @@
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="50" t="s">
-        <v>134</v>
+      <c r="H11" s="49" t="s">
+        <v>188</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="52" t="s">
-        <v>135</v>
-      </c>
+      <c r="N11" s="52"/>
       <c r="O11" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="38"/>
@@ -19978,10 +19329,10 @@
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="38.25">
       <c r="A13" s="78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="80" t="s">
         <v>122</v>
@@ -19990,7 +19341,7 @@
         <v>123</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -20731,14 +20082,14 @@
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
       <c r="D16" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="49"/>
@@ -20984,23 +20335,21 @@
         <v>132</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="50" t="s">
-        <v>134</v>
+      <c r="H17" s="49" t="s">
+        <v>189</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="53"/>
+      <c r="O17" s="52" t="s">
         <v>134</v>
-      </c>
-      <c r="O17" s="52" t="s">
-        <v>136</v>
       </c>
       <c r="P17" s="53"/>
       <c r="Q17" s="38"/>
@@ -21479,7 +20828,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>122</v>
@@ -21984,7 +21333,7 @@
       <c r="C21" s="80"/>
       <c r="D21" s="48"/>
       <c r="E21" s="60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -22230,7 +21579,7 @@
       <c r="C22" s="80"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -22240,7 +21589,7 @@
       <c r="K22" s="50"/>
       <c r="L22" s="51"/>
       <c r="M22" s="52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
@@ -22721,7 +22070,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>122</v>
@@ -22730,7 +22079,7 @@
         <v>123</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="50"/>
@@ -22740,9 +22089,7 @@
       <c r="K24" s="50"/>
       <c r="L24" s="51"/>
       <c r="M24" s="52"/>
-      <c r="N24" s="52" t="s">
-        <v>135</v>
-      </c>
+      <c r="N24" s="52"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="38"/>
@@ -23473,14 +22820,14 @@
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
       <c r="D27" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="49"/>
@@ -23724,23 +23071,21 @@
       <c r="C28" s="80"/>
       <c r="D28" s="48"/>
       <c r="E28" s="60" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="72" t="s">
-        <v>134</v>
+      <c r="H28" s="71" t="s">
+        <v>190</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="51"/>
       <c r="M28" s="53"/>
-      <c r="N28" s="53" t="s">
-        <v>135</v>
-      </c>
+      <c r="N28" s="53"/>
       <c r="O28" s="52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P28" s="52"/>
       <c r="Q28" s="38"/>
@@ -24216,6 +23561,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -24232,24 +23589,12 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:P11">
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24257,7 +23602,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24265,7 +23610,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24273,7 +23618,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24281,7 +23626,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24289,7 +23634,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24297,7 +23642,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24305,7 +23650,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24313,7 +23658,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24321,7 +23666,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24329,7 +23674,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24337,7 +23682,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24345,7 +23690,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24353,7 +23698,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24361,7 +23706,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24369,7 +23714,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24377,7 +23722,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24385,7 +23730,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24393,7 +23738,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24401,7 +23746,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24409,7 +23754,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24417,7 +23762,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24425,7 +23770,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24433,7 +23778,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24441,7 +23786,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24449,7 +23794,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24457,7 +23802,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24465,7 +23810,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24473,7 +23818,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24481,7 +23826,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24489,7 +23834,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24497,7 +23842,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24505,7 +23850,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24513,7 +23858,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24521,7 +23866,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24529,7 +23874,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24537,7 +23882,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24545,7 +23890,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24553,7 +23898,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24561,7 +23906,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24569,7 +23914,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24577,7 +23922,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24585,7 +23930,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24593,7 +23938,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24601,7 +23946,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24609,7 +23954,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24617,7 +23962,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24625,7 +23970,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24633,7 +23978,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24641,7 +23986,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24649,7 +23994,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24657,7 +24002,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24683,92 +24028,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -25757,46 +25102,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -25811,12 +25116,52 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25824,7 +25169,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25832,7 +25177,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25840,7 +25185,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25848,7 +25193,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25856,7 +25201,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25864,7 +25209,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25872,7 +25217,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25880,7 +25225,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25888,7 +25233,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25896,7 +25241,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25904,7 +25249,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25912,7 +25257,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25920,7 +25265,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25928,7 +25273,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25936,7 +25281,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25944,7 +25289,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25952,7 +25297,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25960,7 +25305,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25968,7 +25313,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25976,7 +25321,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25984,7 +25329,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25992,7 +25337,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26000,7 +25345,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26008,7 +25353,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26016,7 +25361,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26024,7 +25369,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26032,7 +25377,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26040,7 +25385,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26048,7 +25393,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26056,7 +25401,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26064,7 +25409,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26072,7 +25417,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26080,7 +25425,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26088,7 +25433,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26096,7 +25441,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26104,7 +25449,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26112,7 +25457,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26120,7 +25465,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26128,7 +25473,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26136,7 +25481,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26144,7 +25489,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26152,7 +25497,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26160,7 +25505,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26168,7 +25513,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26176,7 +25521,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26184,7 +25529,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26192,7 +25537,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26200,7 +25545,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26208,7 +25553,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26216,7 +25561,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26224,7 +25569,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26232,7 +25577,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26240,7 +25585,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26248,7 +25593,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26256,7 +25601,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26264,7 +25609,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26272,7 +25617,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26280,7 +25625,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26288,7 +25633,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26296,7 +25641,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26304,7 +25649,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26312,7 +25657,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26320,7 +25665,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26328,7 +25673,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26336,7 +25681,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26344,7 +25689,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26352,7 +25697,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26360,7 +25705,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26368,7 +25713,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26376,7 +25721,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26384,7 +25729,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26392,7 +25737,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26400,7 +25745,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26408,7 +25753,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26416,7 +25761,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26424,7 +25769,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26432,7 +25777,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26440,7 +25785,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26448,7 +25793,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26456,7 +25801,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26464,7 +25809,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26472,7 +25817,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26480,7 +25825,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26488,7 +25833,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26496,7 +25841,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26504,7 +25849,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26512,7 +25857,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26520,7 +25865,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26528,7 +25873,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26536,7 +25881,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26544,7 +25889,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26552,7 +25897,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26560,7 +25905,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26568,7 +25913,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26576,7 +25921,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26584,7 +25929,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26592,7 +25937,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26600,7 +25945,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26608,7 +25953,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26616,7 +25961,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26624,7 +25969,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26632,7 +25977,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26640,7 +25985,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26648,7 +25993,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26656,7 +26001,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26664,7 +26009,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26672,7 +26017,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26680,7 +26025,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26688,7 +26033,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26710,92 +26055,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -27784,46 +27129,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -27838,12 +27143,52 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27851,7 +27196,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27859,7 +27204,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27867,7 +27212,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27875,7 +27220,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27883,7 +27228,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27891,7 +27236,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27899,7 +27244,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27907,7 +27252,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27915,7 +27260,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27923,7 +27268,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27931,7 +27276,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27939,7 +27284,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27947,7 +27292,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27955,7 +27300,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27963,7 +27308,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27971,7 +27316,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27979,7 +27324,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27987,7 +27332,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27995,7 +27340,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28003,7 +27348,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28011,7 +27356,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28019,7 +27364,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28027,7 +27372,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28035,7 +27380,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28043,7 +27388,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28051,7 +27396,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28059,7 +27404,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28067,7 +27412,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28075,7 +27420,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28083,7 +27428,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28091,7 +27436,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28099,7 +27444,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28107,7 +27452,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28115,7 +27460,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28123,7 +27468,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28131,7 +27476,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28139,7 +27484,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28147,7 +27492,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28155,7 +27500,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28163,7 +27508,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28171,7 +27516,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28179,7 +27524,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28187,7 +27532,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28195,7 +27540,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28203,7 +27548,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28211,7 +27556,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28219,7 +27564,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28227,7 +27572,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28235,7 +27580,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28243,7 +27588,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28251,7 +27596,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28259,7 +27604,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28267,7 +27612,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28275,7 +27620,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28283,7 +27628,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28291,7 +27636,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28299,7 +27644,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28307,7 +27652,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28315,7 +27660,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28323,7 +27668,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28331,7 +27676,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28339,7 +27684,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28347,7 +27692,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28355,7 +27700,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28363,7 +27708,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28371,7 +27716,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28379,7 +27724,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28387,7 +27732,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28395,7 +27740,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28403,7 +27748,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28411,7 +27756,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28419,7 +27764,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28427,7 +27772,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28435,7 +27780,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28443,7 +27788,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28451,7 +27796,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28459,7 +27804,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28467,7 +27812,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28475,7 +27820,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28483,7 +27828,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28491,7 +27836,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28499,7 +27844,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28507,7 +27852,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28515,7 +27860,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28523,7 +27868,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28531,7 +27876,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28539,7 +27884,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28547,7 +27892,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28555,7 +27900,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28563,7 +27908,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28571,7 +27916,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28579,7 +27924,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28587,7 +27932,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28595,7 +27940,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28603,7 +27948,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28611,7 +27956,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28619,7 +27964,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28627,7 +27972,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28635,7 +27980,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28643,7 +27988,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28651,7 +27996,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28659,7 +28004,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28667,7 +28012,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28675,7 +28020,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28683,7 +28028,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28691,7 +28036,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28699,7 +28044,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28707,7 +28052,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28715,7 +28060,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28727,8 +28072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28745,98 +28090,98 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -28980,7 +28325,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" s="80" t="s">
         <v>41</v>
@@ -28989,10 +28334,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -29079,10 +28424,10 @@
         <v>43</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -29160,7 +28505,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C19" s="80" t="s">
         <v>41</v>
@@ -29169,10 +28514,10 @@
         <v>44</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -29250,19 +28595,19 @@
         <v>50</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>185</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>188</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -29337,25 +28682,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -29370,12 +28696,31 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="224" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29383,7 +28728,7 @@
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29391,7 +28736,7 @@
     <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="222" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29399,7 +28744,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29407,7 +28752,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29415,7 +28760,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29423,7 +28768,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29431,7 +28776,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29439,7 +28784,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29447,7 +28792,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29455,7 +28800,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29463,7 +28808,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29471,7 +28816,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29479,7 +28824,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29487,7 +28832,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29495,7 +28840,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29503,7 +28848,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29511,7 +28856,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29519,7 +28864,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29527,7 +28872,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29535,7 +28880,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29543,7 +28888,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29551,7 +28896,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29559,7 +28904,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29567,7 +28912,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29575,7 +28920,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29583,7 +28928,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29591,7 +28936,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29599,7 +28944,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29607,7 +28952,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29615,7 +28960,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29623,7 +28968,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29631,7 +28976,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29639,7 +28984,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29647,7 +28992,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29655,7 +29000,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29663,7 +29008,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29671,7 +29016,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29679,7 +29024,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29687,7 +29032,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29695,7 +29040,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29703,7 +29048,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29716,7 +29061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:II33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
@@ -29757,25 +29102,25 @@
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="98"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -30012,30 +29357,30 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="P2" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="Q2" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="O2" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q2" s="105" t="s">
-        <v>157</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="1"/>
@@ -30265,27 +29610,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
+        <v>155</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -30514,23 +29859,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -31263,16 +30608,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>159</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>162</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -31285,7 +30630,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="38"/>
@@ -31520,13 +30865,13 @@
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
       <c r="D8" s="60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
@@ -31536,7 +30881,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -31774,7 +31119,7 @@
       <c r="C9" s="80"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -32021,7 +31366,7 @@
       <c r="C10" s="80"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -32035,7 +31380,7 @@
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="13"/>
@@ -32270,7 +31615,7 @@
       <c r="C11" s="80"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
@@ -32280,7 +31625,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -32760,19 +32105,19 @@
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="75">
       <c r="A13" s="78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -32785,7 +32130,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="52"/>
       <c r="R13" s="38"/>
@@ -33020,13 +32365,13 @@
       <c r="B14" s="79"/>
       <c r="C14" s="80"/>
       <c r="D14" s="60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -33036,7 +32381,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
@@ -33274,7 +32619,7 @@
       <c r="C15" s="80"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -33521,7 +32866,7 @@
       <c r="C16" s="80"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -33535,7 +32880,7 @@
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="52" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="13"/>
@@ -33770,7 +33115,7 @@
       <c r="C17" s="80"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
@@ -33780,7 +33125,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -34263,16 +33608,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -34285,7 +33630,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="38"/>
@@ -34520,13 +33865,13 @@
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
       <c r="D20" s="60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -34536,7 +33881,7 @@
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
@@ -34774,7 +34119,7 @@
       <c r="C21" s="80"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -35021,7 +34366,7 @@
       <c r="C22" s="80"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
@@ -35035,7 +34380,7 @@
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="52" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="R22" s="38"/>
       <c r="S22" s="13"/>
@@ -35270,7 +34615,7 @@
       <c r="C23" s="80"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -35517,7 +34862,7 @@
       <c r="C24" s="80"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -35764,7 +35109,7 @@
       <c r="C25" s="80"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -36011,7 +35356,7 @@
       <c r="C26" s="80"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -36023,7 +35368,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="53"/>
       <c r="O26" s="52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
@@ -37973,6 +37318,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
@@ -37980,34 +37342,17 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:Q6 M7:O7 Q7 M8:Q11">
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38015,7 +37360,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38023,7 +37368,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38031,7 +37376,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38039,7 +37384,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38047,7 +37392,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38055,7 +37400,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38063,7 +37408,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38071,7 +37416,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38079,7 +37424,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38087,7 +37432,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38095,7 +37440,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38103,7 +37448,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38111,7 +37456,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38119,7 +37464,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38127,7 +37472,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38135,7 +37480,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38143,7 +37488,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38151,7 +37496,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38159,7 +37504,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38167,7 +37512,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38175,7 +37520,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38183,7 +37528,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38191,7 +37536,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38199,7 +37544,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38207,7 +37552,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38215,7 +37560,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38223,7 +37568,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38231,7 +37576,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38239,7 +37584,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38247,7 +37592,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38255,7 +37600,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38263,7 +37608,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38271,7 +37616,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38279,7 +37624,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38287,7 +37632,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38295,7 +37640,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38303,7 +37648,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38311,7 +37656,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38319,7 +37664,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38327,7 +37672,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38335,7 +37680,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38343,7 +37688,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38351,7 +37696,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38359,7 +37704,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38367,7 +37712,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38375,7 +37720,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38383,7 +37728,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38391,7 +37736,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38399,7 +37744,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38407,7 +37752,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38415,7 +37760,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38423,7 +37768,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38431,7 +37776,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38439,7 +37784,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38447,7 +37792,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38455,7 +37800,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38463,7 +37808,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38471,7 +37816,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38479,7 +37824,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38487,7 +37832,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38495,7 +37840,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38521,92 +37866,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -39595,46 +38940,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -39649,12 +38954,52 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39662,7 +39007,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39670,7 +39015,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39678,7 +39023,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39686,7 +39031,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39694,7 +39039,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39702,7 +39047,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39710,7 +39055,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39718,7 +39063,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39726,7 +39071,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39734,7 +39079,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39742,7 +39087,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39750,7 +39095,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39758,7 +39103,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39766,7 +39111,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39774,7 +39119,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39782,7 +39127,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39790,7 +39135,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39798,7 +39143,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39806,7 +39151,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39814,7 +39159,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39822,7 +39167,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39830,7 +39175,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39838,7 +39183,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39846,7 +39191,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39854,7 +39199,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39862,7 +39207,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39870,7 +39215,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39878,7 +39223,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39886,7 +39231,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39894,7 +39239,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39902,7 +39247,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39910,7 +39255,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39918,7 +39263,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39926,7 +39271,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39934,7 +39279,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39942,7 +39287,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39950,7 +39295,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39958,7 +39303,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39966,7 +39311,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39974,7 +39319,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39982,7 +39327,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39990,7 +39335,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39998,7 +39343,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40006,7 +39351,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40014,7 +39359,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40022,7 +39367,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40030,7 +39375,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40038,7 +39383,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40046,7 +39391,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40054,7 +39399,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40062,7 +39407,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40070,7 +39415,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40078,7 +39423,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40086,7 +39431,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40094,7 +39439,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40102,7 +39447,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40110,7 +39455,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40118,7 +39463,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40126,7 +39471,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40134,7 +39479,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40142,7 +39487,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40150,7 +39495,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40158,7 +39503,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40166,7 +39511,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40174,7 +39519,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40182,7 +39527,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40190,7 +39535,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40198,7 +39543,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40206,7 +39551,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40214,7 +39559,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40222,7 +39567,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40230,7 +39575,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40238,7 +39583,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40246,7 +39591,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40254,7 +39599,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40262,7 +39607,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40270,7 +39615,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40278,7 +39623,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40286,7 +39631,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40294,7 +39639,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40302,7 +39647,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40310,7 +39655,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40318,7 +39663,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40326,7 +39671,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40334,7 +39679,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40342,7 +39687,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40350,7 +39695,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40358,7 +39703,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40366,7 +39711,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40374,7 +39719,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40382,7 +39727,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40390,7 +39735,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40398,7 +39743,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40406,7 +39751,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40414,7 +39759,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40422,7 +39767,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40430,7 +39775,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40438,7 +39783,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40446,7 +39791,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40454,7 +39799,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40462,7 +39807,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40470,7 +39815,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40478,7 +39823,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40486,7 +39831,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40494,7 +39839,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40502,7 +39847,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40510,7 +39855,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40518,7 +39863,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40526,7 +39871,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="202">
   <si>
     <t>CAMPO</t>
   </si>
@@ -1674,6 +1674,39 @@
       </rPr>
       <t>e o caso de uso será encerrado.</t>
     </r>
+  </si>
+  <si>
+    <t>CT001</t>
+  </si>
+  <si>
+    <t>CT003</t>
+  </si>
+  <si>
+    <t>CT004</t>
+  </si>
+  <si>
+    <t>CT005</t>
+  </si>
+  <si>
+    <t>CT006</t>
+  </si>
+  <si>
+    <t>CT007</t>
+  </si>
+  <si>
+    <t>CT008</t>
+  </si>
+  <si>
+    <t>CT009</t>
+  </si>
+  <si>
+    <t>CT0010</t>
+  </si>
+  <si>
+    <t>CT0011</t>
+  </si>
+  <si>
+    <t>CT0012</t>
   </si>
 </sst>
 </file>
@@ -2422,8 +2455,59 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2461,57 +2545,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2519,655 +2552,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="689">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="617">
     <dxf>
       <font>
         <b/>
@@ -9532,11 +8917,11 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:IH54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -9565,29 +8950,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -9819,33 +9204,33 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -10074,26 +9459,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -10322,22 +9707,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -11065,7 +10450,7 @@
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A7" s="78" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="B7" s="79" t="s">
         <v>69</v>
@@ -12065,7 +11450,7 @@
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A11" s="78" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="B11" s="79" t="s">
         <v>104</v>
@@ -13065,7 +12450,7 @@
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A15" s="78" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="B15" s="79" t="s">
         <v>100</v>
@@ -14065,7 +13450,7 @@
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A19" s="78" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="B19" s="79" t="s">
         <v>97</v>
@@ -15065,7 +14450,7 @@
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
       <c r="A23" s="78" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="B23" s="79" t="s">
         <v>95</v>
@@ -15165,7 +14550,7 @@
     </row>
     <row r="27" spans="1:242" ht="63.75">
       <c r="A27" s="78" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="B27" s="79" t="s">
         <v>89</v>
@@ -15265,7 +14650,7 @@
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
       <c r="A31" s="78" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B31" s="79" t="s">
         <v>87</v>
@@ -15365,7 +14750,7 @@
     </row>
     <row r="35" spans="1:17" ht="63.75">
       <c r="A35" s="78" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="B35" s="79" t="s">
         <v>81</v>
@@ -15464,8 +14849,8 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="63.75">
-      <c r="A39" s="110" t="s">
-        <v>55</v>
+      <c r="A39" s="81" t="s">
+        <v>199</v>
       </c>
       <c r="B39" s="79" t="s">
         <v>78</v>
@@ -15565,7 +14950,7 @@
     </row>
     <row r="43" spans="1:17" ht="63.75">
       <c r="A43" s="78" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="B43" s="79" t="s">
         <v>66</v>
@@ -15665,7 +15050,7 @@
     </row>
     <row r="47" spans="1:17" ht="63.75">
       <c r="A47" s="78" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="B47" s="79" t="s">
         <v>64</v>
@@ -15802,24 +15187,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
@@ -15836,30 +15220,31 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P9 F9">
     <cfRule type="cellIs" priority="511" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="512" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15867,7 +15252,7 @@
     <cfRule type="cellIs" priority="481" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="482" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="482" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15875,7 +15260,7 @@
     <cfRule type="cellIs" priority="483" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="484" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="484" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15883,7 +15268,7 @@
     <cfRule type="cellIs" priority="345" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="346" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15891,7 +15276,7 @@
     <cfRule type="cellIs" priority="349" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="350" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15899,7 +15284,7 @@
     <cfRule type="cellIs" priority="331" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="332" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15907,7 +15292,7 @@
     <cfRule type="cellIs" priority="329" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="330" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15915,7 +15300,7 @@
     <cfRule type="cellIs" priority="333" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="334" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15923,7 +15308,7 @@
     <cfRule type="cellIs" priority="327" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="328" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15931,7 +15316,7 @@
     <cfRule type="cellIs" priority="313" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="314" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15939,7 +15324,7 @@
     <cfRule type="cellIs" priority="317" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="318" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15947,7 +15332,7 @@
     <cfRule type="cellIs" priority="291" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="292" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15955,7 +15340,7 @@
     <cfRule type="cellIs" priority="285" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="286" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15963,7 +15348,7 @@
     <cfRule type="cellIs" priority="289" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="290" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15971,7 +15356,7 @@
     <cfRule type="cellIs" priority="295" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="296" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15979,7 +15364,7 @@
     <cfRule type="cellIs" priority="299" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="300" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15987,7 +15372,7 @@
     <cfRule type="cellIs" priority="277" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="278" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15995,7 +15380,7 @@
     <cfRule type="cellIs" priority="283" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="284" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16003,7 +15388,7 @@
     <cfRule type="cellIs" priority="275" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="276" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16011,7 +15396,7 @@
     <cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="288" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16019,7 +15404,7 @@
     <cfRule type="cellIs" priority="253" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="254" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16027,7 +15412,7 @@
     <cfRule type="cellIs" priority="255" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="256" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16035,7 +15420,7 @@
     <cfRule type="cellIs" priority="257" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="258" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16043,7 +15428,7 @@
     <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="246" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16051,7 +15436,7 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16059,7 +15444,7 @@
     <cfRule type="cellIs" priority="239" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="240" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16067,7 +15452,7 @@
     <cfRule type="cellIs" priority="243" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="244" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16075,7 +15460,7 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="248" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16083,7 +15468,7 @@
     <cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="234" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16091,7 +15476,7 @@
     <cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="236" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16099,7 +15484,7 @@
     <cfRule type="cellIs" priority="237" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="238" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16107,7 +15492,7 @@
     <cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="226" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16115,7 +15500,7 @@
     <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="222" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16123,7 +15508,7 @@
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16131,7 +15516,7 @@
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="224" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16139,7 +15524,7 @@
     <cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="228" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16147,7 +15532,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16155,7 +15540,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16163,7 +15548,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16171,7 +15556,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16179,7 +15564,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16187,7 +15572,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="647" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16195,7 +15580,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16203,7 +15588,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16211,7 +15596,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16219,7 +15604,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16227,7 +15612,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16235,7 +15620,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16243,7 +15628,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16251,7 +15636,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16259,7 +15644,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16267,7 +15652,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16275,7 +15660,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16283,7 +15668,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16291,7 +15676,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16299,7 +15684,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16307,7 +15692,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16315,7 +15700,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16323,7 +15708,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16331,7 +15716,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16339,7 +15724,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16347,7 +15732,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16355,7 +15740,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16363,7 +15748,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16371,7 +15756,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16379,7 +15764,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="623" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16387,7 +15772,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16395,7 +15780,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16403,7 +15788,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16411,7 +15796,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16419,7 +15804,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16427,7 +15812,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16435,7 +15820,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16443,7 +15828,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16451,7 +15836,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16459,7 +15844,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16467,7 +15852,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16475,7 +15860,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16483,7 +15868,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16491,7 +15876,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16499,7 +15884,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16507,7 +15892,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16515,7 +15900,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16523,7 +15908,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16531,7 +15916,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16539,7 +15924,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16547,7 +15932,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16555,7 +15940,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16563,7 +15948,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16571,7 +15956,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16579,7 +15964,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16587,7 +15972,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16595,7 +15980,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16603,7 +15988,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16611,7 +15996,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16619,7 +16004,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16627,7 +16012,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16635,7 +16020,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16643,7 +16028,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16651,7 +16036,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16659,7 +16044,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16667,7 +16052,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16675,7 +16060,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16683,7 +16068,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16691,7 +16076,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16699,7 +16084,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16707,7 +16092,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16715,7 +16100,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16723,7 +16108,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16731,7 +16116,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16739,7 +16124,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16747,7 +16132,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16755,7 +16140,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16763,7 +16148,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16771,7 +16156,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16779,7 +16164,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16787,7 +16172,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16795,7 +16180,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16803,7 +16188,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16811,7 +16196,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16819,7 +16204,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16827,7 +16212,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16835,7 +16220,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16843,7 +16228,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16851,7 +16236,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16859,7 +16244,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16867,7 +16252,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16875,7 +16260,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16883,7 +16268,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16891,7 +16276,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16899,7 +16284,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16983,24 +16368,24 @@
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -17237,30 +16622,30 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="105"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -17489,26 +16874,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -17737,22 +17122,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -24216,6 +23601,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -24232,24 +23629,12 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:P11">
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24257,7 +23642,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24265,7 +23650,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24273,7 +23658,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24281,7 +23666,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24289,7 +23674,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24297,7 +23682,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24305,7 +23690,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24313,7 +23698,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24321,7 +23706,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24329,7 +23714,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24337,7 +23722,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24345,7 +23730,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24353,7 +23738,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24361,7 +23746,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24369,7 +23754,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24377,7 +23762,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24385,7 +23770,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24393,7 +23778,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24401,7 +23786,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24409,7 +23794,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24417,7 +23802,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24425,7 +23810,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24433,7 +23818,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24441,7 +23826,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24449,7 +23834,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24457,7 +23842,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24465,7 +23850,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24473,7 +23858,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24481,7 +23866,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24489,7 +23874,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24497,7 +23882,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24505,7 +23890,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24513,7 +23898,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24521,7 +23906,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24529,7 +23914,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24537,7 +23922,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24545,7 +23930,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24553,7 +23938,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24561,7 +23946,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24569,7 +23954,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24577,7 +23962,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24585,7 +23970,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24593,7 +23978,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24601,7 +23986,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24609,7 +23994,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24617,7 +24002,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24625,7 +24010,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24633,7 +24018,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24641,7 +24026,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24649,7 +24034,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24657,7 +24042,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24683,92 +24068,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -25757,46 +25142,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -25811,12 +25156,52 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25824,7 +25209,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25832,7 +25217,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25840,7 +25225,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25848,7 +25233,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25856,7 +25241,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25864,7 +25249,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25872,7 +25257,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25880,7 +25265,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25888,7 +25273,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25896,7 +25281,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25904,7 +25289,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25912,7 +25297,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25920,7 +25305,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25928,7 +25313,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25936,7 +25321,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25944,7 +25329,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25952,7 +25337,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25960,7 +25345,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25968,7 +25353,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25976,7 +25361,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25984,7 +25369,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25992,7 +25377,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26000,7 +25385,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26008,7 +25393,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26016,7 +25401,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26024,7 +25409,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26032,7 +25417,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26040,7 +25425,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26048,7 +25433,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26056,7 +25441,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26064,7 +25449,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26072,7 +25457,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26080,7 +25465,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26088,7 +25473,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26096,7 +25481,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26104,7 +25489,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26112,7 +25497,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26120,7 +25505,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26128,7 +25513,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26136,7 +25521,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26144,7 +25529,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26152,7 +25537,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26160,7 +25545,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26168,7 +25553,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26176,7 +25561,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26184,7 +25569,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26192,7 +25577,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26200,7 +25585,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26208,7 +25593,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26216,7 +25601,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26224,7 +25609,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26232,7 +25617,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26240,7 +25625,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26248,7 +25633,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26256,7 +25641,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26264,7 +25649,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26272,7 +25657,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26280,7 +25665,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26288,7 +25673,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26296,7 +25681,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26304,7 +25689,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26312,7 +25697,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26320,7 +25705,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26328,7 +25713,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26336,7 +25721,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26344,7 +25729,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26352,7 +25737,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26360,7 +25745,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26368,7 +25753,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26376,7 +25761,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26384,7 +25769,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26392,7 +25777,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26400,7 +25785,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26408,7 +25793,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26416,7 +25801,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26424,7 +25809,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26432,7 +25817,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26440,7 +25825,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26448,7 +25833,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26456,7 +25841,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26464,7 +25849,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26472,7 +25857,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26480,7 +25865,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26488,7 +25873,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26496,7 +25881,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26504,7 +25889,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26512,7 +25897,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26520,7 +25905,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26528,7 +25913,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26536,7 +25921,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26544,7 +25929,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26552,7 +25937,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26560,7 +25945,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26568,7 +25953,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26576,7 +25961,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26584,7 +25969,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26592,7 +25977,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26600,7 +25985,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26608,7 +25993,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26616,7 +26001,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26624,7 +26009,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26632,7 +26017,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26640,7 +26025,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26648,7 +26033,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26656,7 +26041,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26664,7 +26049,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26672,7 +26057,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26680,7 +26065,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26688,7 +26073,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26710,92 +26095,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -27784,46 +27169,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -27838,12 +27183,52 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27851,7 +27236,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27859,7 +27244,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27867,7 +27252,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27875,7 +27260,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27883,7 +27268,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27891,7 +27276,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27899,7 +27284,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27907,7 +27292,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27915,7 +27300,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27923,7 +27308,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27931,7 +27316,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27939,7 +27324,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27947,7 +27332,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27955,7 +27340,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27963,7 +27348,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27971,7 +27356,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27979,7 +27364,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27987,7 +27372,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27995,7 +27380,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28003,7 +27388,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28011,7 +27396,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28019,7 +27404,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28027,7 +27412,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28035,7 +27420,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28043,7 +27428,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28051,7 +27436,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28059,7 +27444,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28067,7 +27452,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28075,7 +27460,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28083,7 +27468,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28091,7 +27476,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28099,7 +27484,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28107,7 +27492,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28115,7 +27500,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28123,7 +27508,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28131,7 +27516,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28139,7 +27524,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28147,7 +27532,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28155,7 +27540,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28163,7 +27548,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28171,7 +27556,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28179,7 +27564,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28187,7 +27572,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28195,7 +27580,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28203,7 +27588,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28211,7 +27596,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28219,7 +27604,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28227,7 +27612,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28235,7 +27620,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28243,7 +27628,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28251,7 +27636,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28259,7 +27644,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28267,7 +27652,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28275,7 +27660,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28283,7 +27668,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28291,7 +27676,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28299,7 +27684,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28307,7 +27692,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28315,7 +27700,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28323,7 +27708,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28331,7 +27716,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28339,7 +27724,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28347,7 +27732,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28355,7 +27740,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28363,7 +27748,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28371,7 +27756,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28379,7 +27764,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28387,7 +27772,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28395,7 +27780,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28403,7 +27788,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28411,7 +27796,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28419,7 +27804,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28427,7 +27812,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28435,7 +27820,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28443,7 +27828,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28451,7 +27836,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28459,7 +27844,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28467,7 +27852,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28475,7 +27860,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28483,7 +27868,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28491,7 +27876,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28499,7 +27884,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28507,7 +27892,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28515,7 +27900,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28523,7 +27908,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28531,7 +27916,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28539,7 +27924,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28547,7 +27932,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28555,7 +27940,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28563,7 +27948,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28571,7 +27956,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28579,7 +27964,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28587,7 +27972,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28595,7 +27980,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28603,7 +27988,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28611,7 +27996,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28619,7 +28004,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28627,7 +28012,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28635,7 +28020,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28643,7 +28028,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28651,7 +28036,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28659,7 +28044,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28667,7 +28052,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28675,7 +28060,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28683,7 +28068,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28691,7 +28076,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28699,7 +28084,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28707,7 +28092,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28715,7 +28100,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28727,8 +28112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28745,98 +28130,98 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -28889,7 +28274,7 @@
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
       <c r="A7" s="78" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="B7" s="80" t="s">
         <v>37</v>
@@ -28977,7 +28362,7 @@
     </row>
     <row r="11" spans="1:17" ht="104.25" customHeight="1">
       <c r="A11" s="78" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="B11" s="79" t="s">
         <v>182</v>
@@ -29067,7 +28452,7 @@
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
       <c r="A15" s="78" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>42</v>
@@ -29157,7 +28542,7 @@
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
       <c r="A19" s="78" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="B19" s="79" t="s">
         <v>183</v>
@@ -29247,7 +28632,7 @@
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
       <c r="A23" s="78" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="B23" s="79" t="s">
         <v>184</v>
@@ -29337,25 +28722,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -29370,12 +28736,31 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="224" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29383,7 +28768,7 @@
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29391,7 +28776,7 @@
     <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="222" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29399,7 +28784,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29407,7 +28792,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29415,7 +28800,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29423,7 +28808,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29431,7 +28816,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29439,7 +28824,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29447,7 +28832,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29455,7 +28840,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29463,7 +28848,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29471,7 +28856,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29479,7 +28864,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29487,7 +28872,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29495,7 +28880,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29503,7 +28888,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29511,7 +28896,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29519,7 +28904,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29527,7 +28912,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29535,7 +28920,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29543,7 +28928,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29551,7 +28936,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29559,7 +28944,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29567,7 +28952,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29575,7 +28960,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29583,7 +28968,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29591,7 +28976,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29599,7 +28984,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29607,7 +28992,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29615,7 +29000,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29623,7 +29008,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29631,7 +29016,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29639,7 +29024,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29647,7 +29032,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29655,7 +29040,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29663,7 +29048,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29671,7 +29056,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29679,7 +29064,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29687,7 +29072,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29695,7 +29080,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29703,7 +29088,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29757,25 +29142,25 @@
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="98"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -30012,29 +29397,29 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102" t="s">
+      <c r="E2" s="99"/>
+      <c r="F2" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94" t="s">
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="105" t="s">
+      <c r="Q2" s="82" t="s">
         <v>157</v>
       </c>
       <c r="R2" s="38"/>
@@ -30265,27 +29650,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -30514,23 +29899,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -37973,6 +37358,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
@@ -37980,34 +37382,17 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L4"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:Q6 M7:O7 Q7 M8:Q11">
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38015,7 +37400,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38023,7 +37408,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38031,7 +37416,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38039,7 +37424,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38047,7 +37432,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38055,7 +37440,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38063,7 +37448,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38071,7 +37456,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38079,7 +37464,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38087,7 +37472,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38095,7 +37480,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38103,7 +37488,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38111,7 +37496,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38119,7 +37504,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38127,7 +37512,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38135,7 +37520,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38143,7 +37528,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38151,7 +37536,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38159,7 +37544,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38167,7 +37552,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38175,7 +37560,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38183,7 +37568,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38191,7 +37576,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38199,7 +37584,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38207,7 +37592,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38215,7 +37600,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38223,7 +37608,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38231,7 +37616,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38239,7 +37624,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38247,7 +37632,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38255,7 +37640,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38263,7 +37648,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38271,7 +37656,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38279,7 +37664,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38287,7 +37672,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38295,7 +37680,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38303,7 +37688,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38311,7 +37696,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38319,7 +37704,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38327,7 +37712,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38335,7 +37720,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38343,7 +37728,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38351,7 +37736,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38359,7 +37744,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38367,7 +37752,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38375,7 +37760,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38383,7 +37768,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38391,7 +37776,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38399,7 +37784,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38407,7 +37792,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38415,7 +37800,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38423,7 +37808,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38431,7 +37816,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38439,7 +37824,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38447,7 +37832,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38455,7 +37840,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38463,7 +37848,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38471,7 +37856,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38479,7 +37864,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38487,7 +37872,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38495,7 +37880,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38521,92 +37906,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="99" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="101"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="109"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -39595,46 +38980,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -39649,12 +38994,52 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39662,7 +39047,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39670,7 +39055,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39678,7 +39063,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39686,7 +39071,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39694,7 +39079,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39702,7 +39087,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39710,7 +39095,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39718,7 +39103,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39726,7 +39111,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39734,7 +39119,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39742,7 +39127,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39750,7 +39135,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39758,7 +39143,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39766,7 +39151,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39774,7 +39159,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39782,7 +39167,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39790,7 +39175,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39798,7 +39183,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39806,7 +39191,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39814,7 +39199,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39822,7 +39207,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39830,7 +39215,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39838,7 +39223,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39846,7 +39231,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39854,7 +39239,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39862,7 +39247,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39870,7 +39255,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39878,7 +39263,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39886,7 +39271,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39894,7 +39279,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39902,7 +39287,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39910,7 +39295,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39918,7 +39303,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39926,7 +39311,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39934,7 +39319,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39942,7 +39327,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39950,7 +39335,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39958,7 +39343,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39966,7 +39351,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39974,7 +39359,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39982,7 +39367,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39990,7 +39375,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39998,7 +39383,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40006,7 +39391,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40014,7 +39399,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40022,7 +39407,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40030,7 +39415,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40038,7 +39423,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40046,7 +39431,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40054,7 +39439,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40062,7 +39447,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40070,7 +39455,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40078,7 +39463,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40086,7 +39471,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40094,7 +39479,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40102,7 +39487,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40110,7 +39495,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40118,7 +39503,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40126,7 +39511,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40134,7 +39519,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40142,7 +39527,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40150,7 +39535,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40158,7 +39543,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40166,7 +39551,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40174,7 +39559,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40182,7 +39567,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40190,7 +39575,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40198,7 +39583,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40206,7 +39591,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40214,7 +39599,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40222,7 +39607,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40230,7 +39615,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40238,7 +39623,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40246,7 +39631,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40254,7 +39639,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40262,7 +39647,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40270,7 +39655,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40278,7 +39663,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40286,7 +39671,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40294,7 +39679,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40302,7 +39687,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40310,7 +39695,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40318,7 +39703,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40326,7 +39711,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40334,7 +39719,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40342,7 +39727,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40350,7 +39735,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40358,7 +39743,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40366,7 +39751,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40374,7 +39759,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40382,7 +39767,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40390,7 +39775,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40398,7 +39783,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40406,7 +39791,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40414,7 +39799,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40422,7 +39807,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40430,7 +39815,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40438,7 +39823,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40446,7 +39831,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40454,7 +39839,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40462,7 +39847,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40470,7 +39855,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40478,7 +39863,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40486,7 +39871,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40494,7 +39879,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40502,7 +39887,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40510,7 +39895,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40518,7 +39903,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40526,7 +39911,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="117">
   <si>
     <t>CAMPO</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>gg</t>
+  </si>
+  <si>
+    <t>Testando..</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1139,56 +1142,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1225,6 +1180,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8971,10 +8977,10 @@
   <dimension ref="A1:IH54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B51:B53"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -9003,29 +9009,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -9257,33 +9263,33 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="86" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="83" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -9512,26 +9518,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -9760,22 +9766,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -15291,26 +15297,24 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -15327,24 +15331,26 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P9 F8:F9">
@@ -16278,92 +16284,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -17352,6 +17358,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -17366,46 +17412,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -18305,92 +18311,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -19379,6 +19385,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -19393,46 +19439,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -20332,92 +20338,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -21406,6 +21412,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -21420,46 +21466,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -22367,98 +22373,98 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="83" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -23497,6 +23503,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -23511,46 +23557,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -24450,92 +24456,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -25524,6 +25530,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -25538,46 +25584,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
@@ -26468,7 +26474,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26477,92 +26483,94 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="92" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="89" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="95"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="B3" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -27553,6 +27561,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -27567,46 +27615,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="246">
   <si>
     <t>CAMPO</t>
   </si>
@@ -2780,6 +2780,9 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2789,8 +2792,56 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2827,57 +2878,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9956,7 +9956,7 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:IH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
@@ -9989,29 +9989,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="93" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="109"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -10243,33 +10243,33 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="92" t="s">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105" t="s">
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -10498,26 +10498,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -10746,22 +10746,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -11488,13 +11488,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="61" t="s">
@@ -11742,9 +11742,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="62" t="s">
         <v>27</v>
       </c>
@@ -12000,9 +12000,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="44.1" customHeight="1" thickBot="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -12488,13 +12488,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="60" t="s">
@@ -12742,9 +12742,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="60" t="s">
         <v>95</v>
       </c>
@@ -13000,9 +13000,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -13488,13 +13488,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="60" t="s">
@@ -13742,9 +13742,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="60" t="s">
         <v>91</v>
       </c>
@@ -14000,9 +14000,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -14488,13 +14488,13 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A19" s="116" t="s">
+      <c r="A19" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -14742,9 +14742,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="169.5" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="60" t="s">
         <v>88</v>
       </c>
@@ -15000,9 +15000,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="74.099999999999994" customHeight="1" thickBot="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -15488,13 +15488,13 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="60" t="s">
@@ -15517,9 +15517,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:242" ht="89.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="60" t="s">
         <v>84</v>
       </c>
@@ -15550,9 +15550,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -15588,13 +15588,13 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:242" ht="63.75">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="60" t="s">
@@ -15617,9 +15617,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:242" ht="63.75">
-      <c r="A28" s="89"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="48" t="s">
         <v>33</v>
       </c>
@@ -15650,9 +15650,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:242" ht="13.5" thickBot="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -15688,13 +15688,13 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="60" t="s">
@@ -15717,9 +15717,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:242" ht="63.75">
-      <c r="A32" s="89"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="60" t="s">
         <v>78</v>
       </c>
@@ -15750,9 +15750,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="89"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -15788,13 +15788,13 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="63.75">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="60" t="s">
@@ -15817,9 +15817,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="89.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="60" t="s">
         <v>72</v>
       </c>
@@ -15850,9 +15850,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -15888,13 +15888,13 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="63.75">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="60" t="s">
@@ -15917,9 +15917,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17" ht="178.5">
-      <c r="A40" s="89"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="60" t="s">
         <v>242</v>
       </c>
@@ -15950,9 +15950,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="89"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -15988,13 +15988,13 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17" ht="63.75">
-      <c r="A43" s="116" t="s">
+      <c r="A43" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="60" t="s">
@@ -16017,9 +16017,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17" ht="102">
-      <c r="A44" s="89"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="60" t="s">
         <v>67</v>
       </c>
@@ -16050,9 +16050,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="89"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -16088,13 +16088,13 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17" ht="63.75">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="92" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="60" t="s">
@@ -16117,9 +16117,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17" ht="153">
-      <c r="A48" s="89"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="60" t="s">
         <v>245</v>
       </c>
@@ -16150,9 +16150,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="89"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -16226,24 +16226,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
@@ -16260,23 +16259,24 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P9 F9">
@@ -17414,24 +17414,24 @@
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="109"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -17668,30 +17668,30 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="113" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="113" t="s">
+      <c r="H2" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105" t="s">
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="117" t="s">
+      <c r="O2" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="117"/>
+      <c r="P2" s="93"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -17920,26 +17920,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -18167,23 +18167,23 @@
       <c r="IG3" s="1"/>
       <c r="IH3" s="1"/>
     </row>
-    <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
+    <row r="4" spans="1:242" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="100"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -18910,13 +18910,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A7" s="89">
+      <c r="A7" s="90">
         <v>1</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="60" t="s">
@@ -19164,9 +19164,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="60" t="s">
         <v>114</v>
       </c>
@@ -19414,9 +19414,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60" t="s">
         <v>117</v>
@@ -19660,9 +19660,9 @@
       <c r="IH9" s="13"/>
     </row>
     <row r="10" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A10" s="89"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="60" t="s">
         <v>118</v>
       </c>
@@ -19910,9 +19910,9 @@
       <c r="IH10" s="13"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="60" t="s">
         <v>121</v>
       </c>
@@ -20408,13 +20408,13 @@
       <c r="IH12"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="92" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="60" t="s">
@@ -20662,9 +20662,9 @@
       <c r="IH13" s="13"/>
     </row>
     <row r="14" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="60" t="s">
         <v>114</v>
       </c>
@@ -20912,9 +20912,9 @@
       <c r="IH14" s="13"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60" t="s">
         <v>117</v>
@@ -21158,9 +21158,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="60" t="s">
         <v>129</v>
       </c>
@@ -21408,9 +21408,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="81.75" customHeight="1" thickBot="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="60" t="s">
         <v>121</v>
       </c>
@@ -21906,13 +21906,13 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A19" s="89">
+      <c r="A19" s="90">
         <v>3</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="92" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -22160,9 +22160,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="60" t="s">
         <v>114</v>
       </c>
@@ -22410,9 +22410,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="48"/>
       <c r="E21" s="60" t="s">
         <v>134</v>
@@ -22656,9 +22656,9 @@
       <c r="IH21" s="13"/>
     </row>
     <row r="22" spans="1:242" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A22" s="89"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
         <v>135</v>
@@ -23148,13 +23148,13 @@
       <c r="IH23"/>
     </row>
     <row r="24" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A24" s="89">
+      <c r="A24" s="90">
         <v>4</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="92" t="s">
         <v>111</v>
       </c>
       <c r="D24" s="60" t="s">
@@ -23404,9 +23404,9 @@
       <c r="IH24" s="13"/>
     </row>
     <row r="25" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A25" s="89"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="60" t="s">
         <v>114</v>
       </c>
@@ -23654,9 +23654,9 @@
       <c r="IH25" s="13"/>
     </row>
     <row r="26" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60" t="s">
         <v>117</v>
@@ -23900,9 +23900,9 @@
       <c r="IH26" s="13"/>
     </row>
     <row r="27" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="60" t="s">
         <v>129</v>
       </c>
@@ -24150,9 +24150,9 @@
       <c r="IH27" s="13"/>
     </row>
     <row r="28" spans="1:242" s="9" customFormat="1" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A28" s="89"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="48"/>
       <c r="E28" s="60" t="s">
         <v>140</v>
@@ -24647,6 +24647,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -24663,18 +24675,6 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:P11">
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
@@ -25104,7 +25104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A51" sqref="A23:A53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -25126,102 +25128,102 @@
       <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="93" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="109"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="113" t="s">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105" t="s">
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="99" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="121"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
+    <row r="4" spans="1:17" ht="21.75" customHeight="1">
+      <c r="A4" s="100"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -25273,13 +25275,13 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1">
-      <c r="A7" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="90" t="s">
+      <c r="A7" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="91" t="s">
         <v>218</v>
       </c>
       <c r="D7" s="60" t="s">
@@ -25302,9 +25304,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="78" customHeight="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="60" t="s">
         <v>221</v>
       </c>
@@ -25331,9 +25333,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="124.5" customHeight="1" thickBot="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="60" t="s">
         <v>226</v>
       </c>
@@ -25375,13 +25377,13 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="86.25" customHeight="1">
-      <c r="A11" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="90" t="s">
+      <c r="A11" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="91" t="s">
         <v>218</v>
       </c>
       <c r="D11" s="60" t="s">
@@ -25404,9 +25406,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="98.25" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="60" t="s">
         <v>221</v>
       </c>
@@ -25433,9 +25435,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="71"/>
@@ -25471,13 +25473,13 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="86.25" customHeight="1">
-      <c r="A15" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="90" t="s">
+      <c r="A15" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="91" t="s">
         <v>218</v>
       </c>
       <c r="D15" s="60" t="s">
@@ -25500,9 +25502,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17" ht="97.5" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="60" t="s">
         <v>221</v>
       </c>
@@ -25529,9 +25531,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -25567,13 +25569,13 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="111.75" customHeight="1">
-      <c r="A19" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="90" t="s">
+      <c r="A19" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="91" t="s">
         <v>218</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -25600,9 +25602,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="99" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="60" t="s">
         <v>221</v>
       </c>
@@ -25627,9 +25629,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -25665,11 +25667,9 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
@@ -25686,9 +25686,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="89"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -25705,9 +25705,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -25743,11 +25743,9 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -25764,9 +25762,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="89"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -25783,9 +25781,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -25821,11 +25819,9 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -25842,9 +25838,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="89"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -25861,9 +25857,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="89"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -25899,11 +25895,9 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -25920,9 +25914,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="89"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -25939,9 +25933,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -25977,11 +25971,9 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -25998,9 +25990,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="89"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -26017,9 +26009,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="89"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -26055,11 +26047,9 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -26076,9 +26066,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="89"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -26095,9 +26085,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="89"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -26133,11 +26123,9 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -26154,9 +26142,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="89"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -26173,9 +26161,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="89"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -26211,11 +26199,9 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -26232,9 +26218,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="89"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -26251,9 +26237,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="89"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -26290,46 +26276,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -26344,6 +26290,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="I23:K23 G23 M25:P25 K24">
     <cfRule type="cellIs" priority="361" stopIfTrue="1" operator="equal">
@@ -27817,8 +27803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -27840,100 +27826,100 @@
       <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="93" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="109"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="113" t="s">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="101" t="s">
         <v>199</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="99" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="126" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="38"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" ht="27.75" customHeight="1">
       <c r="A4" s="125"/>
       <c r="B4" s="127"/>
       <c r="C4" s="128"/>
       <c r="D4" s="129"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -27988,7 +27974,7 @@
       <c r="A7" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>202</v>
       </c>
       <c r="C7" s="124" t="s">
@@ -28016,9 +28002,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="91.5" customHeight="1" thickBot="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="60" t="s">
         <v>207</v>
       </c>
@@ -28043,9 +28029,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" hidden="1" thickBot="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -28084,7 +28070,7 @@
       <c r="A11" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>211</v>
       </c>
       <c r="C11" s="124" t="s">
@@ -28112,9 +28098,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="99.75" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="60" t="s">
         <v>207</v>
       </c>
@@ -28139,9 +28125,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -28177,11 +28163,9 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
@@ -28198,9 +28182,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -28217,9 +28201,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -28255,11 +28239,9 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
@@ -28276,9 +28258,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -28295,9 +28277,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -28333,11 +28315,9 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
@@ -28354,9 +28334,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="89"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -28373,9 +28353,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -28411,11 +28391,9 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -28432,9 +28410,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="89"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -28451,9 +28429,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -28489,11 +28467,9 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -28510,9 +28486,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="89"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -28529,9 +28505,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="89"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -28567,11 +28543,9 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -28588,9 +28562,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="89"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -28607,9 +28581,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -28645,11 +28619,9 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -28666,9 +28638,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="89"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -28685,9 +28657,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="89"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -28723,11 +28695,9 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="A43" s="90"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -28744,9 +28714,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="89"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -28763,9 +28733,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="89"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -28801,11 +28771,9 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -28822,9 +28790,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="89"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -28841,9 +28809,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="89"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -28879,11 +28847,9 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -28900,9 +28866,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="89"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -28919,9 +28885,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="89"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -28958,46 +28924,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -29012,6 +28938,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="H15 H17">
     <cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal">
@@ -29941,98 +29907,98 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="93" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="109"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="113" t="s">
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -30084,13 +30050,13 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -30115,9 +30081,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -30134,9 +30100,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -30172,13 +30138,13 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="104.25" customHeight="1">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="92" t="s">
         <v>187</v>
       </c>
       <c r="D11" s="48" t="s">
@@ -30205,9 +30171,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -30224,9 +30190,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -30262,13 +30228,13 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="92" t="s">
         <v>187</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -30295,9 +30261,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -30314,9 +30280,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -30352,13 +30318,13 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="92" t="s">
         <v>195</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -30385,9 +30351,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -30404,9 +30370,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -30442,13 +30408,13 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="92" t="s">
         <v>187</v>
       </c>
       <c r="D23" s="60" t="s">
@@ -30475,9 +30441,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="89"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -30494,9 +30460,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -30533,25 +30499,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -30566,6 +30513,25 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
@@ -30952,25 +30918,25 @@
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="112"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="109"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -31207,29 +31173,29 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="113" t="s">
+      <c r="E2" s="110"/>
+      <c r="F2" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="O2" s="117" t="s">
+      <c r="O2" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="93" t="s">
         <v>146</v>
       </c>
       <c r="R2" s="38"/>
@@ -31460,27 +31426,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="99" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -31709,23 +31675,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -32454,13 +32420,13 @@
       <c r="II6" s="1"/>
     </row>
     <row r="7" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A7" s="89">
+      <c r="A7" s="90">
         <v>1</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="92" t="s">
         <v>149</v>
       </c>
       <c r="D7" s="60" t="s">
@@ -32711,9 +32677,9 @@
       <c r="II7" s="13"/>
     </row>
     <row r="8" spans="1:243" s="9" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="60" t="s">
         <v>153</v>
       </c>
@@ -32964,9 +32930,9 @@
       <c r="II8" s="13"/>
     </row>
     <row r="9" spans="1:243" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
         <v>157</v>
@@ -33211,9 +33177,9 @@
       <c r="II9" s="13"/>
     </row>
     <row r="10" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
         <v>158</v>
@@ -33460,9 +33426,9 @@
       <c r="II10" s="13"/>
     </row>
     <row r="11" spans="1:243" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
         <v>160</v>
@@ -33954,13 +33920,13 @@
       <c r="II12"/>
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="92" t="s">
         <v>149</v>
       </c>
       <c r="D13" s="60" t="s">
@@ -34211,9 +34177,9 @@
       <c r="II13" s="13"/>
     </row>
     <row r="14" spans="1:243" s="9" customFormat="1" ht="63.75">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="60" t="s">
         <v>153</v>
       </c>
@@ -34464,9 +34430,9 @@
       <c r="II14" s="13"/>
     </row>
     <row r="15" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
         <v>157</v>
@@ -34711,9 +34677,9 @@
       <c r="II15" s="13"/>
     </row>
     <row r="16" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
         <v>158</v>
@@ -34960,9 +34926,9 @@
       <c r="II16" s="13"/>
     </row>
     <row r="17" spans="1:243" s="9" customFormat="1" ht="39" thickBot="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
         <v>164</v>
@@ -35454,13 +35420,13 @@
       <c r="II18"/>
     </row>
     <row r="19" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A19" s="89">
+      <c r="A19" s="90">
         <v>3</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="92" t="s">
         <v>149</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -35711,9 +35677,9 @@
       <c r="II19" s="13"/>
     </row>
     <row r="20" spans="1:243" s="9" customFormat="1" ht="63.75">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="60" t="s">
         <v>153</v>
       </c>
@@ -35964,9 +35930,9 @@
       <c r="II20" s="13"/>
     </row>
     <row r="21" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
         <v>157</v>
@@ -36211,9 +36177,9 @@
       <c r="II21" s="13"/>
     </row>
     <row r="22" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
         <v>158</v>
@@ -36460,9 +36426,9 @@
       <c r="II22" s="13"/>
     </row>
     <row r="23" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
         <v>164</v>
@@ -36707,9 +36673,9 @@
       <c r="II23" s="13"/>
     </row>
     <row r="24" spans="1:243" s="9" customFormat="1" ht="25.5">
-      <c r="A24" s="89"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
         <v>167</v>
@@ -36954,9 +36920,9 @@
       <c r="II24" s="13"/>
     </row>
     <row r="25" spans="1:243" s="9" customFormat="1" ht="25.5">
-      <c r="A25" s="89"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
         <v>168</v>
@@ -37201,9 +37167,9 @@
       <c r="II25" s="13"/>
     </row>
     <row r="26" spans="1:243" s="9" customFormat="1" ht="64.5" thickBot="1">
-      <c r="A26" s="89"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
         <v>169</v>
@@ -37695,11 +37661,11 @@
       <c r="II27"/>
     </row>
     <row r="28" spans="1:243" s="9" customFormat="1">
-      <c r="A28" s="89">
+      <c r="A28" s="90">
         <v>4</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
       <c r="F28" s="71"/>
@@ -37942,9 +37908,9 @@
       <c r="II28" s="13"/>
     </row>
     <row r="29" spans="1:243" s="9" customFormat="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
       <c r="F29" s="71"/>
@@ -38187,9 +38153,9 @@
       <c r="II29" s="13"/>
     </row>
     <row r="30" spans="1:243" s="9" customFormat="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
       <c r="F30" s="71"/>
@@ -38432,9 +38398,9 @@
       <c r="II30" s="13"/>
     </row>
     <row r="31" spans="1:243" s="9" customFormat="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
       <c r="F31" s="49"/>
@@ -38677,9 +38643,9 @@
       <c r="II31" s="13"/>
     </row>
     <row r="32" spans="1:243" s="9" customFormat="1" ht="74.099999999999994" customHeight="1" thickBot="1">
-      <c r="A32" s="89"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="48"/>
       <c r="E32" s="60"/>
       <c r="F32" s="50"/>
@@ -39168,6 +39134,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
@@ -39180,23 +39163,6 @@
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:Q6 M7:O7 Q7 M8:Q11">
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
@@ -39716,92 +39682,92 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="93" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="109"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="121"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -39853,11 +39819,11 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
       <c r="F7" s="49"/>
@@ -39874,9 +39840,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="89"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -39893,9 +39859,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -39931,11 +39897,11 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
@@ -39952,9 +39918,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -39971,9 +39937,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -40009,11 +39975,11 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="49"/>
@@ -40030,9 +39996,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -40049,9 +40015,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -40087,11 +40053,11 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
       <c r="F19" s="49"/>
@@ -40108,9 +40074,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -40127,9 +40093,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -40165,11 +40131,11 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="49"/>
@@ -40186,9 +40152,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="89"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -40205,9 +40171,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -40243,11 +40209,11 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="49"/>
@@ -40264,9 +40230,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="89"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="49"/>
@@ -40283,9 +40249,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -40321,11 +40287,11 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="49"/>
@@ -40342,9 +40308,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="89"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -40361,9 +40327,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="89"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -40399,11 +40365,11 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="48"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -40420,9 +40386,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="89"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="48"/>
       <c r="E36" s="48"/>
       <c r="F36" s="49"/>
@@ -40439,9 +40405,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -40477,11 +40443,11 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
       <c r="D39" s="48"/>
       <c r="E39" s="48"/>
       <c r="F39" s="49"/>
@@ -40498,9 +40464,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="89"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="48"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -40517,9 +40483,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="89"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -40555,11 +40521,11 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="48"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -40576,9 +40542,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="89"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="48"/>
       <c r="E44" s="48"/>
       <c r="F44" s="49"/>
@@ -40595,9 +40561,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="89"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -40633,11 +40599,11 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="48"/>
       <c r="E47" s="48"/>
       <c r="F47" s="49"/>
@@ -40654,9 +40620,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="89"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="48"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -40673,9 +40639,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="89"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -40711,11 +40677,11 @@
       <c r="Q50" s="58"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
       <c r="D51" s="48"/>
       <c r="E51" s="48"/>
       <c r="F51" s="49"/>
@@ -40732,9 +40698,9 @@
       <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="89"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="49"/>
@@ -40751,9 +40717,9 @@
       <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="89"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="50"/>
@@ -40790,46 +40756,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -40844,6 +40770,46 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="288">
   <si>
     <t>CAMPO</t>
   </si>
@@ -167,21 +167,6 @@
     <t>Berguison ferreira</t>
   </si>
   <si>
-    <t>UC007</t>
-  </si>
-  <si>
-    <t>UC008</t>
-  </si>
-  <si>
-    <t>UC009</t>
-  </si>
-  <si>
-    <t>UC0011</t>
-  </si>
-  <si>
-    <t>UC0012</t>
-  </si>
-  <si>
     <t>Cotação</t>
   </si>
   <si>
@@ -2136,9 +2121,6 @@
     <t>Cliqui no Botão [Confirmar]</t>
   </si>
   <si>
-    <t>UC010</t>
-  </si>
-  <si>
     <t>Validar dados do comprovante do usuário rea lizou transferência</t>
   </si>
   <si>
@@ -2176,6 +2158,12 @@
   </si>
   <si>
     <t>Valor transferência</t>
+  </si>
+  <si>
+    <t>CT010</t>
+  </si>
+  <si>
+    <t>CT0012</t>
   </si>
 </sst>
 </file>
@@ -3136,16 +3124,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="695">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="694">
     <dxf>
       <font>
         <b/>
@@ -11736,19 +11715,19 @@
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A7" s="91" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
@@ -11996,7 +11975,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F8" s="50">
         <v>18333</v>
@@ -12014,7 +11993,7 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -12736,19 +12715,19 @@
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A11" s="91" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
@@ -12993,10 +12972,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>29</v>
@@ -13014,7 +12993,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -13736,19 +13715,19 @@
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A15" s="91" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="50"/>
@@ -13993,10 +13972,10 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F16" s="50">
         <v>18333</v>
@@ -14014,7 +13993,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -14736,19 +14715,19 @@
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A19" s="90" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C19" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
@@ -14993,10 +14972,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F20" s="50">
         <v>18333</v>
@@ -15014,7 +14993,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -15736,19 +15715,19 @@
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C23" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="50"/>
@@ -15768,10 +15747,10 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>32</v>
@@ -15789,7 +15768,7 @@
       <c r="K24" s="50"/>
       <c r="L24" s="51"/>
       <c r="M24" s="52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
@@ -15836,19 +15815,19 @@
     </row>
     <row r="27" spans="1:242" ht="63.75">
       <c r="A27" s="90" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
@@ -15871,7 +15850,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F28" s="50">
         <v>18333</v>
@@ -15889,7 +15868,7 @@
       <c r="K28" s="50"/>
       <c r="L28" s="51"/>
       <c r="M28" s="52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
@@ -15936,19 +15915,19 @@
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
       <c r="A31" s="90" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C31" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50"/>
@@ -15968,10 +15947,10 @@
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
       <c r="D32" s="60" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F32" s="50">
         <v>18333</v>
@@ -15989,7 +15968,7 @@
       <c r="K32" s="50"/>
       <c r="L32" s="51"/>
       <c r="M32" s="52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N32" s="53"/>
       <c r="O32" s="53"/>
@@ -16036,19 +16015,19 @@
     </row>
     <row r="35" spans="1:17" ht="63.75">
       <c r="A35" s="90" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="50"/>
@@ -16068,10 +16047,10 @@
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
       <c r="D36" s="60" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F36" s="50">
         <v>18333</v>
@@ -16089,7 +16068,7 @@
       <c r="K36" s="50"/>
       <c r="L36" s="51"/>
       <c r="M36" s="52" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
@@ -16136,19 +16115,19 @@
     </row>
     <row r="39" spans="1:17" ht="63.75">
       <c r="A39" s="90" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -16168,10 +16147,10 @@
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
       <c r="D40" s="60" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F40" s="50">
         <v>18333</v>
@@ -16189,7 +16168,7 @@
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
       <c r="M40" s="52" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
@@ -16236,19 +16215,19 @@
     </row>
     <row r="43" spans="1:17" ht="63.75">
       <c r="A43" s="90" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B43" s="92" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
@@ -16268,10 +16247,10 @@
       <c r="B44" s="93"/>
       <c r="C44" s="93"/>
       <c r="D44" s="60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F44" s="50">
         <v>18333</v>
@@ -16283,13 +16262,13 @@
         <v>25</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="51"/>
       <c r="M44" s="52" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
@@ -16336,19 +16315,19 @@
     </row>
     <row r="47" spans="1:17" ht="63.75">
       <c r="A47" s="90" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="50"/>
@@ -16368,16 +16347,16 @@
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
       <c r="D48" s="60" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H48" s="63" t="s">
         <v>25</v>
@@ -16389,7 +16368,7 @@
       <c r="K48" s="50"/>
       <c r="L48" s="51"/>
       <c r="M48" s="52" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N48" s="53"/>
       <c r="O48" s="53"/>
@@ -16530,7 +16509,7 @@
     <cfRule type="cellIs" priority="517" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="693" priority="518" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16538,7 +16517,7 @@
     <cfRule type="cellIs" priority="487" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="488" stopIfTrue="1">
+    <cfRule type="expression" dxfId="692" priority="488" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16546,7 +16525,7 @@
     <cfRule type="cellIs" priority="489" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="691" priority="490" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16554,7 +16533,7 @@
     <cfRule type="cellIs" priority="351" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="690" priority="352" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16562,7 +16541,7 @@
     <cfRule type="cellIs" priority="355" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="356" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16570,7 +16549,7 @@
     <cfRule type="cellIs" priority="337" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="338" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16578,7 +16557,7 @@
     <cfRule type="cellIs" priority="335" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="336" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16586,7 +16565,7 @@
     <cfRule type="cellIs" priority="339" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="340" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16594,7 +16573,7 @@
     <cfRule type="cellIs" priority="333" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="334" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16602,7 +16581,7 @@
     <cfRule type="cellIs" priority="319" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="320" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16610,7 +16589,7 @@
     <cfRule type="cellIs" priority="323" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="324" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16618,7 +16597,7 @@
     <cfRule type="cellIs" priority="297" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="298" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16626,7 +16605,7 @@
     <cfRule type="cellIs" priority="291" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="292" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16634,7 +16613,7 @@
     <cfRule type="cellIs" priority="295" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="296" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16642,7 +16621,7 @@
     <cfRule type="cellIs" priority="301" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="302" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16650,7 +16629,7 @@
     <cfRule type="cellIs" priority="305" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="306" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16658,7 +16637,7 @@
     <cfRule type="cellIs" priority="283" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="284" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16666,7 +16645,7 @@
     <cfRule type="cellIs" priority="289" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="290" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16674,7 +16653,7 @@
     <cfRule type="cellIs" priority="281" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="282" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16682,7 +16661,7 @@
     <cfRule type="cellIs" priority="293" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="294" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16690,7 +16669,7 @@
     <cfRule type="cellIs" priority="259" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="260" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16698,7 +16677,7 @@
     <cfRule type="cellIs" priority="261" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="262" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16706,7 +16685,7 @@
     <cfRule type="cellIs" priority="263" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="264" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16714,7 +16693,7 @@
     <cfRule type="cellIs" priority="251" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="252" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16722,7 +16701,7 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="248" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16730,7 +16709,7 @@
     <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="246" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16738,7 +16717,7 @@
     <cfRule type="cellIs" priority="249" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="250" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16746,7 +16725,7 @@
     <cfRule type="cellIs" priority="253" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="254" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16754,7 +16733,7 @@
     <cfRule type="cellIs" priority="239" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="240" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16762,7 +16741,7 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="664" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16770,7 +16749,7 @@
     <cfRule type="cellIs" priority="243" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="663" priority="244" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16778,7 +16757,7 @@
     <cfRule type="cellIs" priority="231" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="662" priority="232" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16786,7 +16765,7 @@
     <cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="661" priority="228" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16794,7 +16773,7 @@
     <cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="660" priority="226" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16802,7 +16781,7 @@
     <cfRule type="cellIs" priority="229" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="659" priority="230" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16810,7 +16789,7 @@
     <cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="658" priority="234" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16818,7 +16797,7 @@
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="657" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16826,7 +16805,7 @@
     <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="656" priority="222" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16834,7 +16813,7 @@
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="655" priority="224" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16842,7 +16821,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="654" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16850,7 +16829,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="653" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16858,7 +16837,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="652" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16866,7 +16845,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="651" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16874,7 +16853,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="650" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16882,7 +16861,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16890,7 +16869,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16898,7 +16877,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16906,7 +16885,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="647" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16914,7 +16893,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16922,7 +16901,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16930,7 +16909,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16938,7 +16917,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16946,7 +16925,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16954,7 +16933,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16962,7 +16941,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16970,7 +16949,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16978,7 +16957,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16986,7 +16965,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16994,7 +16973,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17002,7 +16981,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17010,7 +16989,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17018,7 +16997,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17026,7 +17005,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17034,7 +17013,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17042,7 +17021,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17050,7 +17029,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17058,7 +17037,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17066,7 +17045,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17074,7 +17053,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17082,7 +17061,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17090,7 +17069,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17098,7 +17077,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="623" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17106,7 +17085,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17114,7 +17093,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17122,7 +17101,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17130,7 +17109,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17138,7 +17117,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17146,7 +17125,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17154,7 +17133,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="615" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17162,7 +17141,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="614" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17170,7 +17149,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="613" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17178,7 +17157,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="612" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17186,7 +17165,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17194,7 +17173,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17202,7 +17181,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17210,7 +17189,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17218,7 +17197,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17226,7 +17205,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17234,7 +17213,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17242,7 +17221,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17250,7 +17229,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17258,7 +17237,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17266,7 +17245,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17274,7 +17253,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17282,7 +17261,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17290,7 +17269,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17298,7 +17277,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17306,7 +17285,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17314,7 +17293,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17322,7 +17301,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17330,7 +17309,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17338,7 +17317,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17346,7 +17325,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17354,7 +17333,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17362,7 +17341,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17370,7 +17349,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17378,7 +17357,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17386,7 +17365,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17394,7 +17373,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17402,7 +17381,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17410,7 +17389,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17418,7 +17397,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17426,7 +17405,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17434,7 +17413,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17442,7 +17421,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17450,7 +17429,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17458,7 +17437,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17466,7 +17445,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17474,7 +17453,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17482,7 +17461,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17490,7 +17469,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17498,7 +17477,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17506,7 +17485,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17514,7 +17493,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17522,7 +17501,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17530,7 +17509,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17538,7 +17517,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17546,7 +17525,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17554,7 +17533,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17562,7 +17541,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17570,7 +17549,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17578,7 +17557,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17917,26 +17896,26 @@
       <c r="D2" s="69"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O2" s="94" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P2" s="94"/>
       <c r="Q2" s="38"/>
@@ -18171,7 +18150,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -19161,16 +19140,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -19415,13 +19394,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="50"/>
@@ -19666,7 +19645,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -19911,14 +19890,14 @@
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
       <c r="D10" s="60" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="72" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="49"/>
@@ -20161,15 +20140,15 @@
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
       <c r="D11" s="60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
@@ -20177,10 +20156,10 @@
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
       <c r="N11" s="52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="38"/>
@@ -20656,19 +20635,19 @@
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="38.25">
       <c r="A13" s="91" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -20913,13 +20892,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="50"/>
@@ -21164,7 +21143,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -21409,14 +21388,14 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="72" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="49"/>
@@ -21659,15 +21638,15 @@
       <c r="B17" s="93"/>
       <c r="C17" s="93"/>
       <c r="D17" s="60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -21675,10 +21654,10 @@
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
       <c r="N17" s="53" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O17" s="52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P17" s="53"/>
       <c r="Q17" s="38"/>
@@ -22157,16 +22136,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -22411,13 +22390,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -22662,7 +22641,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="60" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -22908,7 +22887,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -22918,7 +22897,7 @@
       <c r="K22" s="50"/>
       <c r="L22" s="51"/>
       <c r="M22" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
@@ -23399,16 +23378,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="50"/>
@@ -23419,7 +23398,7 @@
       <c r="L24" s="51"/>
       <c r="M24" s="52"/>
       <c r="N24" s="52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
@@ -23655,13 +23634,13 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G25" s="72"/>
       <c r="H25" s="50"/>
@@ -23906,7 +23885,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -24151,14 +24130,14 @@
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
       <c r="D27" s="60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="72" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="49"/>
@@ -24402,12 +24381,12 @@
       <c r="C28" s="93"/>
       <c r="D28" s="48"/>
       <c r="E28" s="60" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="72" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -24415,10 +24394,10 @@
       <c r="L28" s="51"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O28" s="52" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="P28" s="52"/>
       <c r="Q28" s="38"/>
@@ -24927,7 +24906,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24935,7 +24914,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24943,7 +24922,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24951,7 +24930,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24959,7 +24938,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24967,7 +24946,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24975,7 +24954,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24983,7 +24962,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24991,7 +24970,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24999,7 +24978,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25007,7 +24986,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25015,7 +24994,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25023,7 +25002,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25031,7 +25010,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25039,7 +25018,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25047,7 +25026,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25055,7 +25034,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25063,7 +25042,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25071,7 +25050,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25079,7 +25058,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25087,7 +25066,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25095,7 +25074,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25103,7 +25082,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25111,7 +25090,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25119,7 +25098,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25127,7 +25106,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25135,7 +25114,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25143,7 +25122,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25151,7 +25130,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25159,7 +25138,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25167,7 +25146,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25175,7 +25154,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25183,7 +25162,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25191,7 +25170,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25199,7 +25178,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25207,7 +25186,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25215,7 +25194,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25223,7 +25202,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25231,7 +25210,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25239,7 +25218,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25247,7 +25226,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25255,7 +25234,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25263,7 +25242,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25271,7 +25250,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25279,7 +25258,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25287,7 +25266,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25295,7 +25274,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25303,7 +25282,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25311,7 +25290,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25319,7 +25298,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25327,7 +25306,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25335,7 +25314,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25411,10 +25390,10 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
@@ -25422,10 +25401,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -25436,7 +25415,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -25523,19 +25502,19 @@
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -25555,16 +25534,16 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="49"/>
@@ -25573,7 +25552,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -25584,10 +25563,10 @@
       <c r="B9" s="93"/>
       <c r="C9" s="93"/>
       <c r="D9" s="60" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
@@ -25598,7 +25577,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="53"/>
       <c r="N9" s="52" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
@@ -25625,19 +25604,19 @@
     </row>
     <row r="11" spans="1:17" ht="86.25" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -25657,13 +25636,13 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>32</v>
@@ -25674,7 +25653,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -25721,19 +25700,19 @@
     </row>
     <row r="15" spans="1:17" ht="86.25" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -25753,16 +25732,16 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -25770,7 +25749,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -25817,25 +25796,25 @@
     </row>
     <row r="19" spans="1:17" ht="111.75" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C19" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>216</v>
-      </c>
       <c r="G19" s="71" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -25853,10 +25832,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -25866,10 +25845,10 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
@@ -26582,7 +26561,7 @@
     <cfRule type="cellIs" priority="361" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="362" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26590,7 +26569,7 @@
     <cfRule type="cellIs" priority="363" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="364" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26598,7 +26577,7 @@
     <cfRule type="cellIs" priority="365" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="366" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26606,7 +26585,7 @@
     <cfRule type="cellIs" priority="353" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="354" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26614,7 +26593,7 @@
     <cfRule type="cellIs" priority="359" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="360" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26622,7 +26601,7 @@
     <cfRule type="cellIs" priority="357" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="358" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26630,7 +26609,7 @@
     <cfRule type="cellIs" priority="349" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="350" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26638,7 +26617,7 @@
     <cfRule type="cellIs" priority="347" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="348" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="348" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26646,7 +26625,7 @@
     <cfRule type="cellIs" priority="351" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="352" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26654,7 +26633,7 @@
     <cfRule type="cellIs" priority="355" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="356" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26662,7 +26641,7 @@
     <cfRule type="cellIs" priority="341" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="342" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26670,7 +26649,7 @@
     <cfRule type="cellIs" priority="343" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="344" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26678,7 +26657,7 @@
     <cfRule type="cellIs" priority="345" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="346" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26686,7 +26665,7 @@
     <cfRule type="cellIs" priority="333" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="334" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26694,7 +26673,7 @@
     <cfRule type="cellIs" priority="339" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="340" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26702,7 +26681,7 @@
     <cfRule type="cellIs" priority="337" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="338" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26710,7 +26689,7 @@
     <cfRule type="cellIs" priority="329" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="330" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26718,7 +26697,7 @@
     <cfRule type="cellIs" priority="327" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="328" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26726,7 +26705,7 @@
     <cfRule type="cellIs" priority="331" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="332" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26734,7 +26713,7 @@
     <cfRule type="cellIs" priority="335" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="336" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26742,7 +26721,7 @@
     <cfRule type="cellIs" priority="321" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="322" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26750,7 +26729,7 @@
     <cfRule type="cellIs" priority="323" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="324" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26758,7 +26737,7 @@
     <cfRule type="cellIs" priority="325" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="326" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26766,7 +26745,7 @@
     <cfRule type="cellIs" priority="313" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="314" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26774,7 +26753,7 @@
     <cfRule type="cellIs" priority="319" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="320" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26782,7 +26761,7 @@
     <cfRule type="cellIs" priority="317" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="318" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26790,7 +26769,7 @@
     <cfRule type="cellIs" priority="309" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="310" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26798,7 +26777,7 @@
     <cfRule type="cellIs" priority="307" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="308" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26806,7 +26785,7 @@
     <cfRule type="cellIs" priority="311" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="312" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26814,7 +26793,7 @@
     <cfRule type="cellIs" priority="315" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="316" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26822,7 +26801,7 @@
     <cfRule type="cellIs" priority="301" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="302" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26830,7 +26809,7 @@
     <cfRule type="cellIs" priority="303" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="304" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26838,7 +26817,7 @@
     <cfRule type="cellIs" priority="305" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="306" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26846,7 +26825,7 @@
     <cfRule type="cellIs" priority="293" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="294" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26854,7 +26833,7 @@
     <cfRule type="cellIs" priority="299" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="300" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26862,7 +26841,7 @@
     <cfRule type="cellIs" priority="297" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="298" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26870,7 +26849,7 @@
     <cfRule type="cellIs" priority="289" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="290" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26878,7 +26857,7 @@
     <cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="288" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26886,7 +26865,7 @@
     <cfRule type="cellIs" priority="291" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="292" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26894,7 +26873,7 @@
     <cfRule type="cellIs" priority="295" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="296" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26902,7 +26881,7 @@
     <cfRule type="cellIs" priority="281" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="282" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26910,7 +26889,7 @@
     <cfRule type="cellIs" priority="283" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="284" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26918,7 +26897,7 @@
     <cfRule type="cellIs" priority="285" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="286" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26926,7 +26905,7 @@
     <cfRule type="cellIs" priority="273" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="274" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26934,7 +26913,7 @@
     <cfRule type="cellIs" priority="279" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="280" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26942,7 +26921,7 @@
     <cfRule type="cellIs" priority="277" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="278" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26950,7 +26929,7 @@
     <cfRule type="cellIs" priority="269" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="270" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26958,7 +26937,7 @@
     <cfRule type="cellIs" priority="267" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="268" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26966,7 +26945,7 @@
     <cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="272" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26974,7 +26953,7 @@
     <cfRule type="cellIs" priority="275" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="276" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26982,7 +26961,7 @@
     <cfRule type="cellIs" priority="261" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="262" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26990,7 +26969,7 @@
     <cfRule type="cellIs" priority="263" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="264" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26998,7 +26977,7 @@
     <cfRule type="cellIs" priority="265" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="266" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27006,7 +26985,7 @@
     <cfRule type="cellIs" priority="253" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="254" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="254" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27014,7 +26993,7 @@
     <cfRule type="cellIs" priority="259" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="260" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27022,7 +27001,7 @@
     <cfRule type="cellIs" priority="257" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="258" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27030,7 +27009,7 @@
     <cfRule type="cellIs" priority="249" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="250" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27038,7 +27017,7 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="248" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27046,7 +27025,7 @@
     <cfRule type="cellIs" priority="251" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="252" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27054,7 +27033,7 @@
     <cfRule type="cellIs" priority="255" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="256" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="256" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27062,7 +27041,7 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27070,7 +27049,7 @@
     <cfRule type="cellIs" priority="243" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="244" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27078,7 +27057,7 @@
     <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="246" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27086,7 +27065,7 @@
     <cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="234" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27094,7 +27073,7 @@
     <cfRule type="cellIs" priority="239" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="240" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27102,7 +27081,7 @@
     <cfRule type="cellIs" priority="237" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="238" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27110,7 +27089,7 @@
     <cfRule type="cellIs" priority="229" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="230" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27118,7 +27097,7 @@
     <cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="228" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27126,7 +27105,7 @@
     <cfRule type="cellIs" priority="231" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="232" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27134,7 +27113,7 @@
     <cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="236" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27142,7 +27121,7 @@
     <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="222" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27150,7 +27129,7 @@
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="224" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27158,7 +27137,7 @@
     <cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="226" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27166,7 +27145,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27174,7 +27153,7 @@
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27182,7 +27161,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27190,7 +27169,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27198,7 +27177,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27206,7 +27185,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27214,7 +27193,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27222,7 +27201,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27230,7 +27209,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27238,7 +27217,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27246,7 +27225,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27254,7 +27233,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27262,7 +27241,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27270,7 +27249,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27278,7 +27257,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27286,7 +27265,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27294,7 +27273,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27302,7 +27281,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27310,7 +27289,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27318,7 +27297,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27326,7 +27305,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27334,7 +27313,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27342,7 +27321,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27350,7 +27329,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27358,7 +27337,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27366,7 +27345,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27374,7 +27353,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27382,7 +27361,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27390,7 +27369,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27398,7 +27377,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27406,7 +27385,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27414,7 +27393,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27422,7 +27401,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27430,7 +27409,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27438,7 +27417,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27446,7 +27425,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27454,7 +27433,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27462,7 +27441,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27470,7 +27449,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27478,7 +27457,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27486,7 +27465,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27494,7 +27473,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27502,7 +27481,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27510,7 +27489,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27518,7 +27497,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27526,7 +27505,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27534,7 +27513,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27542,7 +27521,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27550,7 +27529,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27558,7 +27537,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27566,7 +27545,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27574,7 +27553,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27582,7 +27561,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27590,7 +27569,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27598,7 +27577,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27606,7 +27585,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27614,7 +27593,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27622,7 +27601,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27630,7 +27609,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27638,7 +27617,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27646,7 +27625,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27654,7 +27633,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27662,7 +27641,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27670,7 +27649,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27678,7 +27657,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27686,7 +27665,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27694,7 +27673,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27702,7 +27681,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27710,7 +27689,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27718,7 +27697,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27726,7 +27705,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27734,7 +27713,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27742,7 +27721,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27750,7 +27729,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27758,7 +27737,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27766,7 +27745,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27774,7 +27753,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27782,7 +27761,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27790,7 +27769,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27798,7 +27777,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27806,7 +27785,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27814,7 +27793,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27822,7 +27801,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27830,7 +27809,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27838,7 +27817,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27846,7 +27825,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27854,7 +27833,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27862,7 +27841,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27870,7 +27849,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27878,7 +27857,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27886,7 +27865,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27894,7 +27873,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27902,7 +27881,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27910,7 +27889,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27918,7 +27897,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27926,7 +27905,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27934,7 +27913,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27942,7 +27921,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27950,7 +27929,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27958,7 +27937,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27966,7 +27945,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27974,7 +27953,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27982,7 +27961,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27990,7 +27969,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27998,7 +27977,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28006,7 +27985,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28014,7 +27993,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28022,7 +28001,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28030,7 +28009,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28038,7 +28017,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28109,7 +28088,7 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -28118,10 +28097,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -28132,7 +28111,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="127" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -28219,22 +28198,22 @@
     </row>
     <row r="7" spans="1:17" ht="78.75" customHeight="1">
       <c r="A7" s="124" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -28253,10 +28232,10 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -28266,10 +28245,10 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -28315,22 +28294,22 @@
     </row>
     <row r="11" spans="1:17" ht="81.75" customHeight="1">
       <c r="A11" s="124" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -28349,10 +28328,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -28362,10 +28341,10 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N12" s="52" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
@@ -29230,7 +29209,7 @@
     <cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="236" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29238,7 +29217,7 @@
     <cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="234" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29246,7 +29225,7 @@
     <cfRule type="cellIs" priority="237" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="238" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29254,7 +29233,7 @@
     <cfRule type="cellIs" priority="231" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="232" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29262,7 +29241,7 @@
     <cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="226" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29270,7 +29249,7 @@
     <cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="228" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29278,7 +29257,7 @@
     <cfRule type="cellIs" priority="229" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="230" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29286,7 +29265,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29294,7 +29273,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29302,7 +29281,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29310,7 +29289,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29318,7 +29297,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29326,7 +29305,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29334,7 +29313,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29342,7 +29321,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29350,7 +29329,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29358,7 +29337,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29366,7 +29345,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29374,7 +29353,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29382,7 +29361,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29390,7 +29369,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29398,7 +29377,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29406,7 +29385,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29414,7 +29393,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29422,7 +29401,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29430,7 +29409,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29438,7 +29417,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29446,7 +29425,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29454,7 +29433,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29462,7 +29441,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29470,7 +29449,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29478,7 +29457,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29486,7 +29465,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29494,7 +29473,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29502,7 +29481,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29510,7 +29489,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29518,7 +29497,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29526,7 +29505,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29534,7 +29513,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29542,7 +29521,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29550,7 +29529,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29558,7 +29537,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29566,7 +29545,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29574,7 +29553,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29582,7 +29561,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29590,7 +29569,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29598,7 +29577,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29606,7 +29585,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29614,7 +29593,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29622,7 +29601,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29630,7 +29609,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29638,7 +29617,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29646,7 +29625,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29654,7 +29633,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29662,7 +29641,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29670,7 +29649,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29678,7 +29657,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29686,7 +29665,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29694,7 +29673,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29702,7 +29681,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29710,7 +29689,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29718,7 +29697,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29726,7 +29705,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29734,7 +29713,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29742,7 +29721,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29750,7 +29729,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29758,7 +29737,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29766,7 +29745,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29774,7 +29753,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29782,7 +29761,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29790,7 +29769,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29798,7 +29777,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29806,7 +29785,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29814,7 +29793,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29822,7 +29801,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29830,7 +29809,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29838,7 +29817,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29846,7 +29825,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29854,7 +29833,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29862,7 +29841,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29870,7 +29849,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29878,7 +29857,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29886,7 +29865,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29894,7 +29873,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29902,7 +29881,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29910,7 +29889,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29918,7 +29897,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29926,7 +29905,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29934,7 +29913,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29942,7 +29921,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29950,7 +29929,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29958,7 +29937,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29966,7 +29945,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29974,7 +29953,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29982,7 +29961,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29990,7 +29969,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29998,7 +29977,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30006,7 +29985,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30014,7 +29993,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30022,7 +30001,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30030,7 +30009,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30038,7 +30017,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30046,7 +30025,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30054,7 +30033,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30062,7 +30041,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30070,7 +30049,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30078,7 +30057,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30086,7 +30065,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30094,7 +30073,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30102,7 +30081,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30110,7 +30089,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30118,7 +30097,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30190,7 +30169,7 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -30298,13 +30277,13 @@
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" s="93" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>37</v>
@@ -30313,7 +30292,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -30386,22 +30365,22 @@
     </row>
     <row r="11" spans="1:17" ht="104.25" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -30410,7 +30389,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -30476,22 +30455,22 @@
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C15" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>185</v>
-      </c>
       <c r="E15" s="60" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -30500,7 +30479,7 @@
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
       <c r="M15" s="52" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
@@ -30566,22 +30545,22 @@
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -30590,7 +30569,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
       <c r="M19" s="52" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
@@ -30656,22 +30635,22 @@
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -30680,7 +30659,7 @@
       <c r="K23" s="50"/>
       <c r="L23" s="51"/>
       <c r="M23" s="52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
@@ -30784,7 +30763,7 @@
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="224" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30792,7 +30771,7 @@
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30800,7 +30779,7 @@
     <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="222" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30808,7 +30787,7 @@
     <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="216" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30816,7 +30795,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30824,7 +30803,7 @@
     <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="212" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30832,7 +30811,7 @@
     <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="210" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30840,7 +30819,7 @@
     <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="214" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30848,7 +30827,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30856,7 +30835,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30864,7 +30843,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30872,7 +30851,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30880,7 +30859,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30888,7 +30867,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30896,7 +30875,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30904,7 +30883,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30912,7 +30891,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30920,7 +30899,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30928,7 +30907,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30936,7 +30915,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30944,7 +30923,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30952,7 +30931,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30960,7 +30939,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30968,7 +30947,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30976,7 +30955,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30984,7 +30963,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30992,7 +30971,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31000,7 +30979,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31008,7 +30987,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31016,7 +30995,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31024,7 +31003,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31032,7 +31011,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31040,7 +31019,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31048,7 +31027,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31056,7 +31035,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31064,7 +31043,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31072,7 +31051,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31080,7 +31059,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31088,7 +31067,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31096,7 +31075,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31104,7 +31083,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31112,7 +31091,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31422,7 +31401,7 @@
       <c r="D2" s="69"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -31431,19 +31410,19 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O2" s="94" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="94" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="1"/>
@@ -31677,7 +31656,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -32671,16 +32650,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -32693,7 +32672,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="38"/>
@@ -32928,13 +32907,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
@@ -32944,7 +32923,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -33182,7 +33161,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -33429,7 +33408,7 @@
       <c r="C10" s="93"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -33443,7 +33422,7 @@
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="13"/>
@@ -33678,7 +33657,7 @@
       <c r="C11" s="93"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
@@ -33688,7 +33667,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -34168,19 +34147,19 @@
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="75">
       <c r="A13" s="91" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -34193,7 +34172,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="52"/>
       <c r="R13" s="38"/>
@@ -34428,13 +34407,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -34444,7 +34423,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
@@ -34682,7 +34661,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -34929,7 +34908,7 @@
       <c r="C16" s="93"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -34943,7 +34922,7 @@
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="13"/>
@@ -35178,7 +35157,7 @@
       <c r="C17" s="93"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
@@ -35188,7 +35167,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -35671,16 +35650,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -35693,7 +35672,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="38"/>
@@ -35928,13 +35907,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -35944,7 +35923,7 @@
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
@@ -36182,7 +36161,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -36429,7 +36408,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
@@ -36443,7 +36422,7 @@
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R22" s="38"/>
       <c r="S22" s="13"/>
@@ -36678,7 +36657,7 @@
       <c r="C23" s="93"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -36925,7 +36904,7 @@
       <c r="C24" s="93"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -37172,7 +37151,7 @@
       <c r="C25" s="93"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -37419,7 +37398,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -37431,7 +37410,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="53"/>
       <c r="O26" s="52" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
@@ -39415,7 +39394,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39423,7 +39402,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39431,7 +39410,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39439,7 +39418,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39447,7 +39426,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39455,7 +39434,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39463,7 +39442,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39471,7 +39450,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39479,7 +39458,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39487,7 +39466,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39495,7 +39474,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39503,7 +39482,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39511,7 +39490,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39519,7 +39498,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39527,7 +39506,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39535,7 +39514,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39543,7 +39522,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39551,7 +39530,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39559,7 +39538,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39567,7 +39546,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39575,7 +39554,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39583,7 +39562,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39591,7 +39570,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39599,7 +39578,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39607,7 +39586,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39615,7 +39594,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39623,7 +39602,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39631,7 +39610,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39639,7 +39618,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39647,7 +39626,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39655,7 +39634,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39663,7 +39642,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39671,7 +39650,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39679,7 +39658,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39687,7 +39666,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39695,7 +39674,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39703,7 +39682,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39711,7 +39690,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39719,7 +39698,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39727,7 +39706,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39735,7 +39714,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39743,7 +39722,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39751,7 +39730,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39759,7 +39738,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39767,7 +39746,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39775,7 +39754,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39783,7 +39762,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39791,7 +39770,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39799,7 +39778,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39807,7 +39786,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39815,7 +39794,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39823,7 +39802,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39831,7 +39810,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39839,7 +39818,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39847,7 +39826,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39855,7 +39834,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39863,7 +39842,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39871,7 +39850,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39879,7 +39858,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39887,7 +39866,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39895,7 +39874,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39903,7 +39882,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39919,8 +39898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -39979,10 +39958,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="87" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="115"/>
@@ -40005,7 +39984,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="118"/>
@@ -40073,23 +40052,23 @@
     </row>
     <row r="7" spans="1:17" ht="102">
       <c r="A7" s="133" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" s="134" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C7" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F7" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="138"/>
@@ -40098,7 +40077,7 @@
       <c r="K7" s="138"/>
       <c r="L7" s="51"/>
       <c r="M7" s="139" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -40164,37 +40143,37 @@
     </row>
     <row r="11" spans="1:17" ht="76.5">
       <c r="A11" s="133" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C11" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E11" s="136" t="str">
         <f>E7</f>
         <v>O sistema informará conforme dados de saída.</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G11" s="137" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H11" s="137" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I11" s="137"/>
       <c r="J11" s="138"/>
       <c r="K11" s="138"/>
       <c r="L11" s="51"/>
       <c r="M11" s="139" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N11" s="139"/>
       <c r="O11" s="139"/>
@@ -40260,10 +40239,10 @@
     </row>
     <row r="15" spans="1:17" ht="63.75">
       <c r="A15" s="149" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="141" t="str">
@@ -40271,10 +40250,10 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G15" s="137"/>
       <c r="H15" s="137"/>
@@ -40350,20 +40329,20 @@
     </row>
     <row r="19" spans="1:17" ht="216.75">
       <c r="A19" s="149" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C19" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="137"/>
@@ -40383,10 +40362,10 @@
       <c r="B20" s="140"/>
       <c r="C20" s="140"/>
       <c r="D20" s="136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F20" s="150"/>
       <c r="G20" s="150"/>
@@ -40441,20 +40420,20 @@
     </row>
     <row r="23" spans="1:17" ht="102">
       <c r="A23" s="149" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B23" s="134" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C23" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F23" s="137" t="str">
         <f>F11</f>
@@ -40473,7 +40452,7 @@
       <c r="K23" s="138"/>
       <c r="L23" s="51"/>
       <c r="M23" s="139" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N23" s="139"/>
       <c r="O23" s="139"/>
@@ -40539,10 +40518,10 @@
     </row>
     <row r="27" spans="1:17" ht="102">
       <c r="A27" s="149" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C27" s="140" t="str">
         <f>B3</f>
@@ -40557,7 +40536,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F27" s="150" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="138"/>
@@ -40566,7 +40545,7 @@
       <c r="K27" s="138"/>
       <c r="L27" s="51"/>
       <c r="M27" s="139" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N27" s="139" t="str">
         <f>M11</f>
@@ -40635,10 +40614,10 @@
     </row>
     <row r="31" spans="1:17" ht="102">
       <c r="A31" s="149" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C31" s="140" t="str">
         <f>B3</f>
@@ -40653,10 +40632,10 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H31" s="150"/>
       <c r="I31" s="138"/>
@@ -40664,7 +40643,7 @@
       <c r="K31" s="138"/>
       <c r="L31" s="51"/>
       <c r="M31" s="139" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N31" s="139"/>
       <c r="O31" s="139"/>
@@ -40730,10 +40709,10 @@
     </row>
     <row r="35" spans="1:17" ht="102">
       <c r="A35" s="149" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="B35" s="134" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C35" s="140" t="str">
         <f>C31</f>
@@ -40748,7 +40727,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F35" s="150" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -40757,7 +40736,7 @@
       <c r="K35" s="138"/>
       <c r="L35" s="51"/>
       <c r="M35" s="139" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N35" s="139"/>
       <c r="O35" s="139"/>
@@ -40823,10 +40802,10 @@
     </row>
     <row r="39" spans="1:17" ht="76.5">
       <c r="A39" s="149" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="B39" s="134" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C39" s="140" t="str">
         <f>C35</f>
@@ -40837,10 +40816,10 @@
         <v>Informar conforme dados de entrada.</v>
       </c>
       <c r="E39" s="136" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F39" s="150" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G39" s="138"/>
       <c r="H39" s="138"/>
@@ -40913,29 +40892,29 @@
     </row>
     <row r="43" spans="1:17" ht="153">
       <c r="A43" s="149" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C43" s="140" t="str">
         <f>C39</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D43" s="136" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E43" s="136" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F43" s="150" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G43" s="137" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H43" s="137" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I43" s="138"/>
       <c r="J43" s="138"/>
@@ -41006,29 +40985,29 @@
     </row>
     <row r="47" spans="1:17" ht="140.25">
       <c r="A47" s="149" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C47" s="140" t="str">
         <f>C43</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E47" s="136" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F47" s="150" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G47" s="137" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H47" s="137" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I47" s="138"/>
       <c r="J47" s="138"/>
@@ -41099,10 +41078,10 @@
     </row>
     <row r="51" spans="1:17" ht="114.75">
       <c r="A51" s="149" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C51" s="140" t="str">
         <f>C47</f>
@@ -41113,13 +41092,13 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E51" s="136" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F51" s="150" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G51" s="137" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H51" s="138"/>
       <c r="I51" s="138"/>
@@ -41250,7 +41229,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -39898,11 +39898,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1">
       <c r="A1" s="87" t="s">
@@ -40067,7 +40073,7 @@
       <c r="E7" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="150" t="s">
         <v>240</v>
       </c>
       <c r="G7" s="138"/>
@@ -40162,7 +40168,7 @@
       <c r="F11" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="150" t="s">
         <v>245</v>
       </c>
       <c r="H11" s="137" t="s">
@@ -40439,7 +40445,7 @@
         <f>F11</f>
         <v>Agencia</v>
       </c>
-      <c r="G23" s="137" t="str">
+      <c r="G23" s="150" t="str">
         <f>G11</f>
         <v>Numero Conta</v>
       </c>
@@ -40910,10 +40916,10 @@
       <c r="F43" s="150" t="s">
         <v>276</v>
       </c>
-      <c r="G43" s="137" t="s">
+      <c r="G43" s="150" t="s">
         <v>277</v>
       </c>
-      <c r="H43" s="137" t="s">
+      <c r="H43" s="150" t="s">
         <v>278</v>
       </c>
       <c r="I43" s="138"/>
@@ -41003,10 +41009,10 @@
       <c r="F47" s="150" t="s">
         <v>282</v>
       </c>
-      <c r="G47" s="137" t="s">
+      <c r="G47" s="150" t="s">
         <v>277</v>
       </c>
-      <c r="H47" s="137" t="s">
+      <c r="H47" s="150" t="s">
         <v>278</v>
       </c>
       <c r="I47" s="138"/>
@@ -41097,7 +41103,7 @@
       <c r="F51" s="150" t="s">
         <v>284</v>
       </c>
-      <c r="G51" s="137" t="s">
+      <c r="G51" s="150" t="s">
         <v>285</v>
       </c>
       <c r="H51" s="138"/>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="289">
   <si>
     <t>CAMPO</t>
   </si>
@@ -1226,9 +1226,6 @@
     <t>Saldo Conta</t>
   </si>
   <si>
-    <t>Testar requisito UC006 - comprar acões</t>
-  </si>
-  <si>
     <t>Comprar ações com saldo insuficiente</t>
   </si>
   <si>
@@ -1278,9 +1275,6 @@
       </rPr>
       <t xml:space="preserve"> (BOVESPA, NASDAQ, MERVAL )</t>
     </r>
-  </si>
-  <si>
-    <t>para cada tipo de ação o sistema deve aprensentar quantidade de ações disponivel para compra</t>
   </si>
   <si>
     <t>BOVESPA</t>
@@ -2022,13 +2016,7 @@
     <t>O sistema informará conforme dados de saída.</t>
   </si>
   <si>
-    <t>Cliqui com Mouse</t>
-  </si>
-  <si>
     <t>Tela realizar DOC</t>
-  </si>
-  <si>
-    <t>Validar dados usuario logado</t>
   </si>
   <si>
     <t>Sistema informará Conforme dados de entrada.</t>
@@ -2052,13 +2040,7 @@
     <t>O sistema canelará o DOC</t>
   </si>
   <si>
-    <t>Cliqui no Botão [Cancelar DOC]</t>
-  </si>
-  <si>
     <t>Validar dados para realizar DOC</t>
-  </si>
-  <si>
-    <t>Informar  o número da agência, o número da conta, tipo do DOC, valor DOC, data de tranferência, nome favorecido, cpf ou cgc, senha.</t>
   </si>
   <si>
     <t>Não haver erro de validação.</t>
@@ -2094,12 +2076,6 @@
     <t>Validar data incorreta</t>
   </si>
   <si>
-    <t>Data de tranferência, no formato desconhecido</t>
-  </si>
-  <si>
-    <t>Data de tranferência, anterior a atual</t>
-  </si>
-  <si>
     <t>"Data incorreta, digite novamente a senha."</t>
   </si>
   <si>
@@ -2113,18 +2089,6 @@
   </si>
   <si>
     <t>Confirmar Transferência</t>
-  </si>
-  <si>
-    <t>O sistema realizará a tranferência</t>
-  </si>
-  <si>
-    <t>Cliqui no Botão [Confirmar]</t>
-  </si>
-  <si>
-    <t>Validar dados do comprovante do usuário rea lizou transferência</t>
-  </si>
-  <si>
-    <t>Sistema informará dados do usuário que está realizando a tranferência conforme dados de entrada.</t>
   </si>
   <si>
     <t>Dados informado pelo sistema igual as dados do usuário logado.</t>
@@ -2142,16 +2106,10 @@
     <t>Validar dados do comprovante do cliente recebeu transferência</t>
   </si>
   <si>
-    <t>Sistema informará dados do cliente que recebeu a tranferência conforme dados de entrada.</t>
-  </si>
-  <si>
     <t>Dados informado pelo sistema igual as dados informados pelo  usuário .</t>
   </si>
   <si>
     <t>Nome Cliente</t>
-  </si>
-  <si>
-    <t>Validar valor e data tranferência</t>
   </si>
   <si>
     <t>Data transferência</t>
@@ -2164,6 +2122,51 @@
   </si>
   <si>
     <t>CT0012</t>
+  </si>
+  <si>
+    <t>Clique com Mouse</t>
+  </si>
+  <si>
+    <t>Validar dados usuário logado</t>
+  </si>
+  <si>
+    <t>Clique no Botão [Cancelar DOC]</t>
+  </si>
+  <si>
+    <t>Informar  o número da agência, o número da conta, tipo do DOC, valor DOC, data de transferência, nome favorecido, cpf ou cgc, senha.</t>
+  </si>
+  <si>
+    <t>Data de transferência, no formato desconhecido</t>
+  </si>
+  <si>
+    <t>Data de transferência, anterior a atual</t>
+  </si>
+  <si>
+    <t>O sistema realizará a transferência</t>
+  </si>
+  <si>
+    <t>Clique no Botão [Confirmar]</t>
+  </si>
+  <si>
+    <t>Sistema informará dados do usuário que está realizando a transferência conforme dados de entrada.</t>
+  </si>
+  <si>
+    <t>Sistema informará dados do cliente que recebeu a transferência conforme dados de entrada.</t>
+  </si>
+  <si>
+    <t>Validar valor e data transferência</t>
+  </si>
+  <si>
+    <t>Validar dados do comprovante do usuário realizou transferência</t>
+  </si>
+  <si>
+    <t>Testar requisito UC006 - comprar ações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esta logado no sistema, (ter efetuado Login e esta cadastrado para comprar ações )   </t>
+  </si>
+  <si>
+    <t>para cada tipo de ação o sistema deve apresentar quantidade de ações disponível para compra</t>
   </si>
 </sst>
 </file>
@@ -11715,7 +11718,7 @@
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A7" s="91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>50</v>
@@ -13715,7 +13718,7 @@
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A15" s="91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="92" t="s">
         <v>78</v>
@@ -14715,7 +14718,7 @@
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A19" s="90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="92" t="s">
         <v>75</v>
@@ -15715,7 +15718,7 @@
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="92" t="s">
         <v>73</v>
@@ -15815,7 +15818,7 @@
     </row>
     <row r="27" spans="1:242" ht="63.75">
       <c r="A27" s="90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="92" t="s">
         <v>67</v>
@@ -15915,7 +15918,7 @@
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
       <c r="A31" s="90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B31" s="92" t="s">
         <v>65</v>
@@ -16015,7 +16018,7 @@
     </row>
     <row r="35" spans="1:17" ht="63.75">
       <c r="A35" s="90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B35" s="92" t="s">
         <v>59</v>
@@ -16115,10 +16118,10 @@
     </row>
     <row r="39" spans="1:17" ht="63.75">
       <c r="A39" s="90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>28</v>
@@ -16147,10 +16150,10 @@
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
       <c r="D40" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F40" s="50">
         <v>18333</v>
@@ -16168,7 +16171,7 @@
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
       <c r="M40" s="52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
@@ -16215,7 +16218,7 @@
     </row>
     <row r="43" spans="1:17" ht="63.75">
       <c r="A43" s="90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B43" s="92" t="s">
         <v>47</v>
@@ -16262,7 +16265,7 @@
         <v>25</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
@@ -16315,7 +16318,7 @@
     </row>
     <row r="47" spans="1:17" ht="63.75">
       <c r="A47" s="90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B47" s="92" t="s">
         <v>46</v>
@@ -16347,7 +16350,7 @@
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
       <c r="D48" s="60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E48" s="60" t="s">
         <v>51</v>
@@ -25390,10 +25393,10 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
@@ -25404,7 +25407,7 @@
         <v>95</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -25415,7 +25418,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -25502,19 +25505,19 @@
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="E7" s="60" t="s">
         <v>206</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>208</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -25534,16 +25537,16 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="G8" s="72" t="s">
         <v>210</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>212</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="49"/>
@@ -25552,7 +25555,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -25563,10 +25566,10 @@
       <c r="B9" s="93"/>
       <c r="C9" s="93"/>
       <c r="D9" s="60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
@@ -25577,7 +25580,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="53"/>
       <c r="N9" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
@@ -25607,16 +25610,16 @@
         <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="60" t="s">
         <v>217</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>219</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -25636,13 +25639,13 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="71" t="s">
         <v>209</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>211</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>32</v>
@@ -25653,7 +25656,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -25700,19 +25703,19 @@
     </row>
     <row r="15" spans="1:17" ht="86.25" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="60" t="s">
         <v>206</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>208</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -25732,16 +25735,16 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -25749,7 +25752,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -25796,25 +25799,25 @@
     </row>
     <row r="19" spans="1:17" ht="111.75" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>208</v>
-      </c>
       <c r="F19" s="71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -25832,10 +25835,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -25845,10 +25848,10 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
@@ -28088,7 +28091,7 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -28097,10 +28100,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -28111,7 +28114,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="127" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -28198,22 +28201,22 @@
     </row>
     <row r="7" spans="1:17" ht="78.75" customHeight="1">
       <c r="A7" s="124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="E7" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="F7" s="71" t="s">
         <v>192</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>194</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -28232,10 +28235,10 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -28245,10 +28248,10 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -28297,19 +28300,19 @@
         <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="125" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>193</v>
-      </c>
       <c r="F11" s="71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -28328,10 +28331,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -28341,10 +28344,10 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N12" s="52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
@@ -30277,13 +30280,13 @@
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="93" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>37</v>
@@ -30368,19 +30371,19 @@
         <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -30389,7 +30392,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -30455,22 +30458,22 @@
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -30545,22 +30548,22 @@
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -30569,7 +30572,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
       <c r="M19" s="52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
@@ -30635,22 +30638,22 @@
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>161</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>163</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -31104,11 +31107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:II33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -31656,7 +31659,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -32650,16 +32653,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="E7" s="73" t="s">
         <v>138</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>139</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -32672,7 +32675,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="38"/>
@@ -32907,13 +32910,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>143</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
@@ -32923,7 +32926,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -33161,7 +33164,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -33408,7 +33411,7 @@
       <c r="C10" s="93"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -33422,7 +33425,7 @@
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="13"/>
@@ -33657,7 +33660,7 @@
       <c r="C11" s="93"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
@@ -33667,7 +33670,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -34150,16 +34153,16 @@
         <v>114</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="E13" s="73" t="s">
         <v>138</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>139</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -34172,7 +34175,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="52"/>
       <c r="R13" s="38"/>
@@ -34407,13 +34410,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E14" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>143</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -34423,7 +34426,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
@@ -34661,7 +34664,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -34908,7 +34911,7 @@
       <c r="C16" s="93"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -34922,7 +34925,7 @@
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="13"/>
@@ -35157,7 +35160,7 @@
       <c r="C17" s="93"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
@@ -35167,7 +35170,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -35650,16 +35653,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="E19" s="73" t="s">
         <v>138</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>139</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -35672,7 +35675,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="38"/>
@@ -35907,13 +35910,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="71" t="s">
         <v>141</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>143</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -35923,7 +35926,7 @@
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
@@ -36161,7 +36164,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -36408,7 +36411,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
@@ -36422,7 +36425,7 @@
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R22" s="38"/>
       <c r="S22" s="13"/>
@@ -36657,7 +36660,7 @@
       <c r="C23" s="93"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -36904,7 +36907,7 @@
       <c r="C24" s="93"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -37151,7 +37154,7 @@
       <c r="C25" s="93"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -37398,7 +37401,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -37410,7 +37413,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="53"/>
       <c r="O26" s="52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
@@ -39898,15 +39901,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -39964,10 +39974,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="87" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="115"/>
@@ -39990,7 +40000,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="118"/>
@@ -40056,25 +40066,25 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="42"/>
     </row>
-    <row r="7" spans="1:17" ht="102">
+    <row r="7" spans="1:17" ht="63.75">
       <c r="A7" s="133" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="134" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C7" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F7" s="150" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="138"/>
@@ -40083,7 +40093,7 @@
       <c r="K7" s="138"/>
       <c r="L7" s="51"/>
       <c r="M7" s="139" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -40152,34 +40162,34 @@
         <v>114</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="C11" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E11" s="136" t="str">
         <f>E7</f>
         <v>O sistema informará conforme dados de saída.</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G11" s="150" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H11" s="137" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I11" s="137"/>
       <c r="J11" s="138"/>
       <c r="K11" s="138"/>
       <c r="L11" s="51"/>
       <c r="M11" s="139" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N11" s="139"/>
       <c r="O11" s="139"/>
@@ -40245,10 +40255,10 @@
     </row>
     <row r="15" spans="1:17" ht="63.75">
       <c r="A15" s="149" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="141" t="str">
@@ -40256,10 +40266,10 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G15" s="137"/>
       <c r="H15" s="137"/>
@@ -40335,20 +40345,20 @@
     </row>
     <row r="19" spans="1:17" ht="216.75">
       <c r="A19" s="149" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C19" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="137"/>
@@ -40368,10 +40378,10 @@
       <c r="B20" s="140"/>
       <c r="C20" s="140"/>
       <c r="D20" s="136" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F20" s="150"/>
       <c r="G20" s="150"/>
@@ -40426,20 +40436,20 @@
     </row>
     <row r="23" spans="1:17" ht="102">
       <c r="A23" s="149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="134" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C23" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F23" s="137" t="str">
         <f>F11</f>
@@ -40458,7 +40468,7 @@
       <c r="K23" s="138"/>
       <c r="L23" s="51"/>
       <c r="M23" s="139" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N23" s="139"/>
       <c r="O23" s="139"/>
@@ -40524,10 +40534,10 @@
     </row>
     <row r="27" spans="1:17" ht="102">
       <c r="A27" s="149" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C27" s="140" t="str">
         <f>B3</f>
@@ -40542,7 +40552,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F27" s="150" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="138"/>
@@ -40551,7 +40561,7 @@
       <c r="K27" s="138"/>
       <c r="L27" s="51"/>
       <c r="M27" s="139" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="N27" s="139" t="str">
         <f>M11</f>
@@ -40620,10 +40630,10 @@
     </row>
     <row r="31" spans="1:17" ht="102">
       <c r="A31" s="149" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C31" s="140" t="str">
         <f>B3</f>
@@ -40638,10 +40648,10 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H31" s="150"/>
       <c r="I31" s="138"/>
@@ -40649,7 +40659,7 @@
       <c r="K31" s="138"/>
       <c r="L31" s="51"/>
       <c r="M31" s="139" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="N31" s="139"/>
       <c r="O31" s="139"/>
@@ -40715,10 +40725,10 @@
     </row>
     <row r="35" spans="1:17" ht="102">
       <c r="A35" s="149" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B35" s="134" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C35" s="140" t="str">
         <f>C31</f>
@@ -40733,7 +40743,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F35" s="150" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -40742,7 +40752,7 @@
       <c r="K35" s="138"/>
       <c r="L35" s="51"/>
       <c r="M35" s="139" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N35" s="139"/>
       <c r="O35" s="139"/>
@@ -40808,10 +40818,10 @@
     </row>
     <row r="39" spans="1:17" ht="76.5">
       <c r="A39" s="149" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B39" s="134" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C39" s="140" t="str">
         <f>C35</f>
@@ -40822,10 +40832,10 @@
         <v>Informar conforme dados de entrada.</v>
       </c>
       <c r="E39" s="136" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F39" s="150" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G39" s="138"/>
       <c r="H39" s="138"/>
@@ -40898,29 +40908,29 @@
     </row>
     <row r="43" spans="1:17" ht="153">
       <c r="A43" s="149" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C43" s="140" t="str">
         <f>C39</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D43" s="136" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E43" s="136" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F43" s="150" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G43" s="150" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H43" s="150" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I43" s="138"/>
       <c r="J43" s="138"/>
@@ -40991,29 +41001,29 @@
     </row>
     <row r="47" spans="1:17" ht="140.25">
       <c r="A47" s="149" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C47" s="140" t="str">
         <f>C43</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E47" s="136" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F47" s="150" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G47" s="150" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H47" s="150" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I47" s="138"/>
       <c r="J47" s="138"/>
@@ -41084,10 +41094,10 @@
     </row>
     <row r="51" spans="1:17" ht="114.75">
       <c r="A51" s="149" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="140" t="str">
         <f>C47</f>
@@ -41098,13 +41108,13 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E51" s="136" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F51" s="150" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G51" s="150" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="H51" s="138"/>
       <c r="I51" s="138"/>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -1649,67 +1649,7 @@
     <t>Ter logado no sistema e informado dados do cartão SIB card com sucesso conforme o UC003 - CT001</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">selecionar qual tipo da consulta opção </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;  Extrato de conta corrente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sistema libera a opção </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt; digitar a data para o extrato </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e libera o botão consultar.</t>
-    </r>
-  </si>
-  <si>
     <t>18/11/2013</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">clicar no botão </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[consultar]</t>
-    </r>
-  </si>
-  <si>
-    <t>visualização dos dados bancarios, nome e transações da data escolhida como nos dados de saida</t>
   </si>
   <si>
     <t xml:space="preserve">Nome: Jose Reis Agencia: 5565      CC: 10000       </t>
@@ -1729,20 +1669,6 @@
         <family val="2"/>
       </rPr>
       <t>&gt;Extrato de conta poupança</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">selecionar qual tipo da consulta opção </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;  Extrato de conta poupança</t>
     </r>
   </si>
   <si>
@@ -1778,45 +1704,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">o sistema disponibiliza as caixas para preenchimento das opções </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; dados, numero de cartão e senha</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">preencher campos conforme os dados de entrada e clicar no botão </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[consultar cartão]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>sistema informa conforme os dados de saida</t>
-  </si>
-  <si>
     <t>1234.5678.9023.4567</t>
   </si>
   <si>
@@ -1840,12 +1727,6 @@
     </r>
   </si>
   <si>
-    <t>sistema disponibiliza os histórico completo do cliente descrino na UC004 dependendo do tipo de consulta</t>
-  </si>
-  <si>
-    <t>histórico de dados e debitos do cartão dependendo do tipo de consulta conforme UC004</t>
-  </si>
-  <si>
     <t>Senha invalida</t>
   </si>
   <si>
@@ -1863,45 +1744,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">o sistema disponibiliza as caixas para preenchimento </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; dados, numero de cartão e senha</t>
-    </r>
-  </si>
-  <si>
-    <t>sistema informa conforme os dados de saida e retorna para prenchimento dos dados novamente.</t>
-  </si>
-  <si>
-    <t>"senha inválida  digite novamente o cartão e senha"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Numero do cartão inválido</t>
-  </si>
-  <si>
-    <t>sistema informa conforme os dados de saida e retorna para tela inicial do sistema.</t>
   </si>
   <si>
     <t>0000.0000.0000.0000</t>
   </si>
   <si>
-    <t>"cartão inexistente operação cancelada"</t>
-  </si>
-  <si>
     <t>Operadora fora de operação</t>
-  </si>
-  <si>
-    <t>"não foi possível se conectar a operadora tente novamente mais tarde"</t>
-  </si>
-  <si>
-    <t>inicio do sistema SIB</t>
   </si>
   <si>
     <r>
@@ -2167,6 +2016,157 @@
   </si>
   <si>
     <t>para cada tipo de ação o sistema deve apresentar quantidade de ações disponível para compra</t>
+  </si>
+  <si>
+    <t>Inicio do sistema SIB</t>
+  </si>
+  <si>
+    <t>Histórico de dados e debitos do cartão dependendo do tipo de consulta conforme UC004</t>
+  </si>
+  <si>
+    <t>"Senha inválida  digite novamente o cartão e senha"</t>
+  </si>
+  <si>
+    <t>"Cartão inexistente operação cancelada"</t>
+  </si>
+  <si>
+    <t>"Não foi possível se conectar a operadora tente novamente mais tarde"</t>
+  </si>
+  <si>
+    <t>O sistema informa conforme os dados de saida e retorna para tela inicial do sistema.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O sistema disponibiliza as caixas para preenchimento das opções </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; dados, numero de cartão e senha</t>
+    </r>
+  </si>
+  <si>
+    <t>O sistema informa conforme os dados de saida e retorna para prenchimento dos dados novamente.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O sistema disponibiliza as caixas para preenchimento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; dados, numero de cartão e senha</t>
+    </r>
+  </si>
+  <si>
+    <t>O sistema disponibiliza os histórico completo do cliente descrino na UC004 dependendo do tipo de consulta</t>
+  </si>
+  <si>
+    <t>O sistema informa conforme os dados de saida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Preencher campos conforme os dados de entrada e clicar no botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[consultar cartão]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualização dos dados bancarios, nome e transações da data escolhida como nos dados de saida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O sistema libera a opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; digitar a data para o extrato </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e libera o botão consultar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar qual tipo da consulta opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;  Extrato de conta corrente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clicar no botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[consultar]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar qual tipo da consulta opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;  Extrato de conta poupança</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10186,7 +10186,7 @@
   <dimension ref="A1:IH54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
       <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
@@ -16121,7 +16121,7 @@
         <v>170</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>28</v>
@@ -16150,10 +16150,10 @@
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
       <c r="D40" s="60" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F40" s="50">
         <v>18333</v>
@@ -16171,7 +16171,7 @@
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
       <c r="M40" s="52" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
@@ -16350,7 +16350,7 @@
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
       <c r="D48" s="60" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E48" s="60" t="s">
         <v>51</v>
@@ -25376,8 +25376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -25436,10 +25436,10 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
@@ -25461,7 +25461,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -25551,16 +25551,16 @@
         <v>163</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -25580,16 +25580,16 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="49"/>
@@ -25598,7 +25598,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -25609,10 +25609,10 @@
       <c r="B9" s="93"/>
       <c r="C9" s="93"/>
       <c r="D9" s="60" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
@@ -25623,7 +25623,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="53"/>
       <c r="N9" s="52" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
@@ -25653,16 +25653,16 @@
         <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -25682,13 +25682,13 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>32</v>
@@ -25699,7 +25699,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -25749,16 +25749,16 @@
         <v>164</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -25778,16 +25778,16 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -25795,7 +25795,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -25845,22 +25845,22 @@
         <v>165</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -25878,10 +25878,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -25891,10 +25891,10 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
@@ -26806,8 +26806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -26984,13 +26984,13 @@
         <v>189</v>
       </c>
       <c r="D7" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="71" t="s">
         <v>190</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="71" t="s">
-        <v>192</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -27009,10 +27009,10 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -27022,10 +27022,10 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -27074,19 +27074,19 @@
         <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C11" s="125" t="s">
         <v>189</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -27105,10 +27105,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -27118,10 +27118,10 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N12" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
@@ -28859,7 +28859,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -29856,7 +29856,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>137</v>
@@ -30113,7 +30113,7 @@
         <v>140</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F8" s="71" t="s">
         <v>141</v>
@@ -31356,7 +31356,7 @@
         <v>148</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>137</v>
@@ -31613,7 +31613,7 @@
         <v>140</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F14" s="71" t="s">
         <v>141</v>
@@ -33113,7 +33113,7 @@
         <v>140</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F20" s="71" t="s">
         <v>141</v>
@@ -36942,7 +36942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -37015,10 +37015,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="87" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="115"/>
@@ -37041,7 +37041,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="118"/>
@@ -37112,20 +37112,20 @@
         <v>163</v>
       </c>
       <c r="B7" s="134" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C7" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F7" s="150" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="138"/>
@@ -37134,7 +37134,7 @@
       <c r="K7" s="138"/>
       <c r="L7" s="51"/>
       <c r="M7" s="139" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -37203,34 +37203,34 @@
         <v>114</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C11" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E11" s="136" t="str">
         <f>E7</f>
         <v>O sistema informará conforme dados de saída.</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G11" s="150" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="H11" s="137" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="I11" s="137"/>
       <c r="J11" s="138"/>
       <c r="K11" s="138"/>
       <c r="L11" s="51"/>
       <c r="M11" s="139" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="N11" s="139"/>
       <c r="O11" s="139"/>
@@ -37299,7 +37299,7 @@
         <v>164</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="141" t="str">
@@ -37307,10 +37307,10 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G15" s="137"/>
       <c r="H15" s="137"/>
@@ -37389,17 +37389,17 @@
         <v>165</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C19" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="137"/>
@@ -37419,10 +37419,10 @@
       <c r="B20" s="140"/>
       <c r="C20" s="140"/>
       <c r="D20" s="136" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F20" s="150"/>
       <c r="G20" s="150"/>
@@ -37480,17 +37480,17 @@
         <v>166</v>
       </c>
       <c r="B23" s="134" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C23" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F23" s="137" t="str">
         <f>F11</f>
@@ -37509,7 +37509,7 @@
       <c r="K23" s="138"/>
       <c r="L23" s="51"/>
       <c r="M23" s="139" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="N23" s="139"/>
       <c r="O23" s="139"/>
@@ -37578,7 +37578,7 @@
         <v>167</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C27" s="140" t="str">
         <f>B3</f>
@@ -37593,7 +37593,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F27" s="150" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="138"/>
@@ -37602,7 +37602,7 @@
       <c r="K27" s="138"/>
       <c r="L27" s="51"/>
       <c r="M27" s="139" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="N27" s="139" t="str">
         <f>M11</f>
@@ -37674,7 +37674,7 @@
         <v>168</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C31" s="140" t="str">
         <f>B3</f>
@@ -37689,10 +37689,10 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="H31" s="150"/>
       <c r="I31" s="138"/>
@@ -37700,7 +37700,7 @@
       <c r="K31" s="138"/>
       <c r="L31" s="51"/>
       <c r="M31" s="139" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="N31" s="139"/>
       <c r="O31" s="139"/>
@@ -37769,7 +37769,7 @@
         <v>169</v>
       </c>
       <c r="B35" s="134" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C35" s="140" t="str">
         <f>C31</f>
@@ -37784,7 +37784,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F35" s="150" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -37793,7 +37793,7 @@
       <c r="K35" s="138"/>
       <c r="L35" s="51"/>
       <c r="M35" s="139" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="N35" s="139"/>
       <c r="O35" s="139"/>
@@ -37862,7 +37862,7 @@
         <v>170</v>
       </c>
       <c r="B39" s="134" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C39" s="140" t="str">
         <f>C35</f>
@@ -37873,10 +37873,10 @@
         <v>Informar conforme dados de entrada.</v>
       </c>
       <c r="E39" s="136" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F39" s="150" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="G39" s="138"/>
       <c r="H39" s="138"/>
@@ -37949,29 +37949,29 @@
     </row>
     <row r="43" spans="1:17" ht="153">
       <c r="A43" s="149" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C43" s="140" t="str">
         <f>C39</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D43" s="136" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="E43" s="136" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F43" s="150" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="G43" s="150" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H43" s="150" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="I43" s="138"/>
       <c r="J43" s="138"/>
@@ -38045,26 +38045,26 @@
         <v>172</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C47" s="140" t="str">
         <f>C43</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E47" s="136" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F47" s="150" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="G47" s="150" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="H47" s="150" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="I47" s="138"/>
       <c r="J47" s="138"/>
@@ -38135,10 +38135,10 @@
     </row>
     <row r="51" spans="1:17" ht="114.75">
       <c r="A51" s="149" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C51" s="140" t="str">
         <f>C47</f>
@@ -38149,13 +38149,13 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E51" s="136" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F51" s="150" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="G51" s="150" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="H51" s="138"/>
       <c r="I51" s="138"/>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -173,12 +173,6 @@
     <t>Atualização</t>
   </si>
   <si>
-    <t>Operação Cancelada!!</t>
-  </si>
-  <si>
-    <t>Operação cancelada!!</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Efetuar login sem sucesso - </t>
     </r>
@@ -1412,52 +1406,6 @@
     <t>timeout</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Em qualquer momento o usuário pode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[cancelar]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a operação e o sistema mostrar </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"Operação Cancelada" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> caso de uso será encerrado.</t>
-    </r>
-  </si>
-  <si>
     <t>CT001</t>
   </si>
   <si>
@@ -1537,9 +1485,6 @@
     </r>
   </si>
   <si>
-    <t>sua sessão expirou, tente outra vez!!!</t>
-  </si>
-  <si>
     <t>Cancele operação durante o disparo do relógio.</t>
   </si>
   <si>
@@ -1595,9 +1540,6 @@
       </rPr>
       <t>e o caso de uso será encerrado.</t>
     </r>
-  </si>
-  <si>
-    <t>Seu tempo expirou, Operação Cancelada!!</t>
   </si>
   <si>
     <t>Usuário deve esta logado no sistema e o sistema esta logrado no Mercado de ações.</t>
@@ -2167,6 +2109,64 @@
       </rPr>
       <t>&gt;  Extrato de conta poupança</t>
     </r>
+  </si>
+  <si>
+    <t>"sua sessão expirou, tente outra vez!!!"</t>
+  </si>
+  <si>
+    <t>"Operação Cancelada!!"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em qualquer momento o usuário pode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[cancelar]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a operação e o sistema mostrar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Operação Cancelada!!" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> caso de uso será encerrado.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Seu tempo expirou, Operação Cancelada!!"</t>
+  </si>
+  <si>
+    <t>"Operação cancelada!!"</t>
   </si>
 </sst>
 </file>
@@ -11718,19 +11718,19 @@
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A7" s="91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
@@ -11978,7 +11978,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="50">
         <v>18333</v>
@@ -11996,7 +11996,7 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -12718,19 +12718,19 @@
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A11" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
@@ -12975,10 +12975,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>29</v>
@@ -12996,7 +12996,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -13718,19 +13718,19 @@
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A15" s="91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="50"/>
@@ -13975,10 +13975,10 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="60" t="s">
         <v>79</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>81</v>
       </c>
       <c r="F16" s="50">
         <v>18333</v>
@@ -13996,7 +13996,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -14718,19 +14718,19 @@
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A19" s="90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
@@ -14975,10 +14975,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="50">
         <v>18333</v>
@@ -14996,7 +14996,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -15718,19 +15718,19 @@
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="50"/>
@@ -15750,10 +15750,10 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>32</v>
@@ -15771,7 +15771,7 @@
       <c r="K24" s="50"/>
       <c r="L24" s="51"/>
       <c r="M24" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
@@ -15818,19 +15818,19 @@
     </row>
     <row r="27" spans="1:242" ht="63.75">
       <c r="A27" s="90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
@@ -15853,7 +15853,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F28" s="50">
         <v>18333</v>
@@ -15871,7 +15871,7 @@
       <c r="K28" s="50"/>
       <c r="L28" s="51"/>
       <c r="M28" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
@@ -15918,19 +15918,19 @@
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
       <c r="A31" s="90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50"/>
@@ -15950,10 +15950,10 @@
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
       <c r="D32" s="60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32" s="50">
         <v>18333</v>
@@ -15971,7 +15971,7 @@
       <c r="K32" s="50"/>
       <c r="L32" s="51"/>
       <c r="M32" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N32" s="53"/>
       <c r="O32" s="53"/>
@@ -16018,19 +16018,19 @@
     </row>
     <row r="35" spans="1:17" ht="63.75">
       <c r="A35" s="90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="50"/>
@@ -16050,10 +16050,10 @@
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
       <c r="D36" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="60" t="s">
         <v>60</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>62</v>
       </c>
       <c r="F36" s="50">
         <v>18333</v>
@@ -16071,7 +16071,7 @@
       <c r="K36" s="50"/>
       <c r="L36" s="51"/>
       <c r="M36" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
@@ -16118,19 +16118,19 @@
     </row>
     <row r="39" spans="1:17" ht="63.75">
       <c r="A39" s="90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -16150,10 +16150,10 @@
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
       <c r="D40" s="60" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F40" s="50">
         <v>18333</v>
@@ -16171,7 +16171,7 @@
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
       <c r="M40" s="52" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
@@ -16218,19 +16218,19 @@
     </row>
     <row r="43" spans="1:17" ht="63.75">
       <c r="A43" s="90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
@@ -16250,10 +16250,10 @@
       <c r="B44" s="93"/>
       <c r="C44" s="93"/>
       <c r="D44" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="60" t="s">
         <v>55</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>57</v>
       </c>
       <c r="F44" s="50">
         <v>18333</v>
@@ -16265,13 +16265,13 @@
         <v>25</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="51"/>
       <c r="M44" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
@@ -16318,19 +16318,19 @@
     </row>
     <row r="47" spans="1:17" ht="63.75">
       <c r="A47" s="90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="50"/>
@@ -16350,16 +16350,16 @@
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
       <c r="D48" s="60" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E48" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="50" t="s">
-        <v>53</v>
-      </c>
       <c r="G48" s="50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H48" s="63" t="s">
         <v>25</v>
@@ -16371,7 +16371,7 @@
       <c r="K48" s="50"/>
       <c r="L48" s="51"/>
       <c r="M48" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N48" s="53"/>
       <c r="O48" s="53"/>
@@ -17942,26 +17942,26 @@
       <c r="D2" s="69"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="97" t="s">
         <v>92</v>
-      </c>
-      <c r="G2" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>94</v>
       </c>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N2" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="94" t="s">
         <v>94</v>
-      </c>
-      <c r="O2" s="94" t="s">
-        <v>96</v>
       </c>
       <c r="P2" s="94"/>
       <c r="Q2" s="38"/>
@@ -18196,7 +18196,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -19186,16 +19186,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="E7" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>101</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -19440,13 +19440,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>104</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="50"/>
@@ -19691,7 +19691,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -19936,14 +19936,14 @@
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
       <c r="D10" s="60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="49"/>
@@ -20186,15 +20186,15 @@
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
       <c r="D11" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
@@ -20202,10 +20202,10 @@
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
       <c r="N11" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="38"/>
@@ -20681,19 +20681,19 @@
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="38.25">
       <c r="A13" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>114</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -20938,13 +20938,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>104</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="50"/>
@@ -21189,7 +21189,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -21434,14 +21434,14 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="49"/>
@@ -21684,15 +21684,15 @@
       <c r="B17" s="93"/>
       <c r="C17" s="93"/>
       <c r="D17" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -21700,10 +21700,10 @@
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
       <c r="N17" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="52" t="s">
         <v>111</v>
-      </c>
-      <c r="O17" s="52" t="s">
-        <v>113</v>
       </c>
       <c r="P17" s="53"/>
       <c r="Q17" s="38"/>
@@ -22182,16 +22182,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>101</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -22436,13 +22436,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>104</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -22687,7 +22687,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -22933,7 +22933,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -22943,7 +22943,7 @@
       <c r="K22" s="50"/>
       <c r="L22" s="51"/>
       <c r="M22" s="52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
@@ -23424,16 +23424,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="50"/>
@@ -23444,7 +23444,7 @@
       <c r="L24" s="51"/>
       <c r="M24" s="52"/>
       <c r="N24" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
@@ -23680,13 +23680,13 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>104</v>
       </c>
       <c r="G25" s="72"/>
       <c r="H25" s="50"/>
@@ -23931,7 +23931,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -24176,14 +24176,14 @@
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
       <c r="D27" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="49"/>
@@ -24427,12 +24427,12 @@
       <c r="C28" s="93"/>
       <c r="D28" s="48"/>
       <c r="E28" s="60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -24440,10 +24440,10 @@
       <c r="L28" s="51"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O28" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P28" s="52"/>
       <c r="Q28" s="38"/>
@@ -25436,10 +25436,10 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
@@ -25447,10 +25447,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -25461,7 +25461,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -25548,19 +25548,19 @@
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -25580,16 +25580,16 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="49"/>
@@ -25598,7 +25598,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -25609,10 +25609,10 @@
       <c r="B9" s="93"/>
       <c r="C9" s="93"/>
       <c r="D9" s="60" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
@@ -25623,7 +25623,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="53"/>
       <c r="N9" s="52" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
@@ -25650,19 +25650,19 @@
     </row>
     <row r="11" spans="1:17" ht="86.25" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -25682,13 +25682,13 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>32</v>
@@ -25699,7 +25699,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -25746,19 +25746,19 @@
     </row>
     <row r="15" spans="1:17" ht="86.25" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -25778,16 +25778,16 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -25795,7 +25795,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -25842,25 +25842,25 @@
     </row>
     <row r="19" spans="1:17" ht="111.75" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -25878,10 +25878,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -25891,10 +25891,10 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
@@ -26806,7 +26806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -26865,7 +26865,7 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -26874,10 +26874,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -26888,7 +26888,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="127" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -26975,22 +26975,22 @@
     </row>
     <row r="7" spans="1:17" ht="78.75" customHeight="1">
       <c r="A7" s="124" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -27009,10 +27009,10 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -27022,10 +27022,10 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -27071,22 +27071,22 @@
     </row>
     <row r="11" spans="1:17" ht="81.75" customHeight="1">
       <c r="A11" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -27105,10 +27105,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -27118,10 +27118,10 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N12" s="52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
@@ -27312,8 +27312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -27480,13 +27480,13 @@
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="93" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>37</v>
@@ -27568,22 +27568,22 @@
     </row>
     <row r="11" spans="1:17" ht="104.25" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -27592,7 +27592,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -27658,22 +27658,22 @@
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -27682,7 +27682,7 @@
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
       <c r="M15" s="52" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
@@ -27748,22 +27748,22 @@
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -27772,7 +27772,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
       <c r="M19" s="52" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
@@ -27838,22 +27838,22 @@
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>159</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>161</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -27862,7 +27862,7 @@
       <c r="K23" s="50"/>
       <c r="L23" s="51"/>
       <c r="M23" s="52" t="s">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
@@ -28604,7 +28604,7 @@
       <c r="D2" s="69"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -28613,19 +28613,19 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="94" t="s">
+      <c r="P2" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="94" t="s">
+      <c r="Q2" s="94" t="s">
         <v>132</v>
-      </c>
-      <c r="P2" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="94" t="s">
-        <v>134</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="1"/>
@@ -28859,7 +28859,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -29853,16 +29853,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>137</v>
-      </c>
       <c r="E7" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -29875,7 +29875,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="38"/>
@@ -30110,13 +30110,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
@@ -30126,7 +30126,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -30364,7 +30364,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -30611,7 +30611,7 @@
       <c r="C10" s="93"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -30625,7 +30625,7 @@
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="13"/>
@@ -30860,7 +30860,7 @@
       <c r="C11" s="93"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
@@ -30870,7 +30870,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -31350,19 +31350,19 @@
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="75">
       <c r="A13" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -31375,7 +31375,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="52"/>
       <c r="R13" s="38"/>
@@ -31610,13 +31610,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -31626,7 +31626,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
@@ -31864,7 +31864,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -32111,7 +32111,7 @@
       <c r="C16" s="93"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -32125,7 +32125,7 @@
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="13"/>
@@ -32360,7 +32360,7 @@
       <c r="C17" s="93"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
@@ -32370,7 +32370,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -32853,16 +32853,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="73" t="s">
         <v>136</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>138</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -32875,7 +32875,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="38"/>
@@ -33110,13 +33110,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -33126,7 +33126,7 @@
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
@@ -33364,7 +33364,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -33611,7 +33611,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
@@ -33625,7 +33625,7 @@
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R22" s="38"/>
       <c r="S22" s="13"/>
@@ -33860,7 +33860,7 @@
       <c r="C23" s="93"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -34107,7 +34107,7 @@
       <c r="C24" s="93"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -34354,7 +34354,7 @@
       <c r="C25" s="93"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -34601,7 +34601,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -34613,7 +34613,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="53"/>
       <c r="O26" s="52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
@@ -37015,10 +37015,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="87" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="115"/>
@@ -37041,7 +37041,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="118"/>
@@ -37109,23 +37109,23 @@
     </row>
     <row r="7" spans="1:17" ht="63.75">
       <c r="A7" s="133" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="134" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C7" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F7" s="150" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="138"/>
@@ -37134,7 +37134,7 @@
       <c r="K7" s="138"/>
       <c r="L7" s="51"/>
       <c r="M7" s="139" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -37200,37 +37200,37 @@
     </row>
     <row r="11" spans="1:17" ht="76.5">
       <c r="A11" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C11" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E11" s="136" t="str">
         <f>E7</f>
         <v>O sistema informará conforme dados de saída.</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G11" s="150" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H11" s="137" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I11" s="137"/>
       <c r="J11" s="138"/>
       <c r="K11" s="138"/>
       <c r="L11" s="51"/>
       <c r="M11" s="139" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N11" s="139"/>
       <c r="O11" s="139"/>
@@ -37296,10 +37296,10 @@
     </row>
     <row r="15" spans="1:17" ht="63.75">
       <c r="A15" s="149" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="141" t="str">
@@ -37307,10 +37307,10 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G15" s="137"/>
       <c r="H15" s="137"/>
@@ -37386,20 +37386,20 @@
     </row>
     <row r="19" spans="1:17" ht="216.75">
       <c r="A19" s="149" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C19" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="137"/>
@@ -37419,10 +37419,10 @@
       <c r="B20" s="140"/>
       <c r="C20" s="140"/>
       <c r="D20" s="136" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F20" s="150"/>
       <c r="G20" s="150"/>
@@ -37477,20 +37477,20 @@
     </row>
     <row r="23" spans="1:17" ht="102">
       <c r="A23" s="149" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" s="134" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C23" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F23" s="137" t="str">
         <f>F11</f>
@@ -37509,7 +37509,7 @@
       <c r="K23" s="138"/>
       <c r="L23" s="51"/>
       <c r="M23" s="139" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N23" s="139"/>
       <c r="O23" s="139"/>
@@ -37575,10 +37575,10 @@
     </row>
     <row r="27" spans="1:17" ht="102">
       <c r="A27" s="149" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C27" s="140" t="str">
         <f>B3</f>
@@ -37593,7 +37593,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F27" s="150" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="138"/>
@@ -37602,7 +37602,7 @@
       <c r="K27" s="138"/>
       <c r="L27" s="51"/>
       <c r="M27" s="139" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N27" s="139" t="str">
         <f>M11</f>
@@ -37671,10 +37671,10 @@
     </row>
     <row r="31" spans="1:17" ht="102">
       <c r="A31" s="149" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C31" s="140" t="str">
         <f>B3</f>
@@ -37689,10 +37689,10 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H31" s="150"/>
       <c r="I31" s="138"/>
@@ -37700,7 +37700,7 @@
       <c r="K31" s="138"/>
       <c r="L31" s="51"/>
       <c r="M31" s="139" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N31" s="139"/>
       <c r="O31" s="139"/>
@@ -37766,10 +37766,10 @@
     </row>
     <row r="35" spans="1:17" ht="102">
       <c r="A35" s="149" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="134" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C35" s="140" t="str">
         <f>C31</f>
@@ -37784,7 +37784,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F35" s="150" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -37793,7 +37793,7 @@
       <c r="K35" s="138"/>
       <c r="L35" s="51"/>
       <c r="M35" s="139" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N35" s="139"/>
       <c r="O35" s="139"/>
@@ -37859,10 +37859,10 @@
     </row>
     <row r="39" spans="1:17" ht="76.5">
       <c r="A39" s="149" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B39" s="134" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C39" s="140" t="str">
         <f>C35</f>
@@ -37873,10 +37873,10 @@
         <v>Informar conforme dados de entrada.</v>
       </c>
       <c r="E39" s="136" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F39" s="150" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G39" s="138"/>
       <c r="H39" s="138"/>
@@ -37949,29 +37949,29 @@
     </row>
     <row r="43" spans="1:17" ht="153">
       <c r="A43" s="149" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C43" s="140" t="str">
         <f>C39</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D43" s="136" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E43" s="136" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F43" s="150" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G43" s="150" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H43" s="150" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I43" s="138"/>
       <c r="J43" s="138"/>
@@ -38042,29 +38042,29 @@
     </row>
     <row r="47" spans="1:17" ht="140.25">
       <c r="A47" s="149" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C47" s="140" t="str">
         <f>C43</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E47" s="136" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F47" s="150" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G47" s="150" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H47" s="150" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I47" s="138"/>
       <c r="J47" s="138"/>
@@ -38135,10 +38135,10 @@
     </row>
     <row r="51" spans="1:17" ht="114.75">
       <c r="A51" s="149" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C51" s="140" t="str">
         <f>C47</f>
@@ -38149,13 +38149,13 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E51" s="136" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F51" s="150" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G51" s="150" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H51" s="138"/>
       <c r="I51" s="138"/>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -173,12 +173,6 @@
     <t>Atualização</t>
   </si>
   <si>
-    <t>Operação Cancelada!!</t>
-  </si>
-  <si>
-    <t>Operação cancelada!!</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Efetuar login sem sucesso - </t>
     </r>
@@ -1412,52 +1406,6 @@
     <t>timeout</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Em qualquer momento o usuário pode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[cancelar]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a operação e o sistema mostrar </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"Operação Cancelada" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> caso de uso será encerrado.</t>
-    </r>
-  </si>
-  <si>
     <t>CT001</t>
   </si>
   <si>
@@ -1537,9 +1485,6 @@
     </r>
   </si>
   <si>
-    <t>sua sessão expirou, tente outra vez!!!</t>
-  </si>
-  <si>
     <t>Cancele operação durante o disparo do relógio.</t>
   </si>
   <si>
@@ -1595,9 +1540,6 @@
       </rPr>
       <t>e o caso de uso será encerrado.</t>
     </r>
-  </si>
-  <si>
-    <t>Seu tempo expirou, Operação Cancelada!!</t>
   </si>
   <si>
     <t>Usuário deve esta logado no sistema e o sistema esta logrado no Mercado de ações.</t>
@@ -1649,67 +1591,7 @@
     <t>Ter logado no sistema e informado dados do cartão SIB card com sucesso conforme o UC003 - CT001</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">selecionar qual tipo da consulta opção </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;  Extrato de conta corrente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sistema libera a opção </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt; digitar a data para o extrato </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e libera o botão consultar.</t>
-    </r>
-  </si>
-  <si>
     <t>18/11/2013</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">clicar no botão </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[consultar]</t>
-    </r>
-  </si>
-  <si>
-    <t>visualização dos dados bancarios, nome e transações da data escolhida como nos dados de saida</t>
   </si>
   <si>
     <t xml:space="preserve">Nome: Jose Reis Agencia: 5565      CC: 10000       </t>
@@ -1729,20 +1611,6 @@
         <family val="2"/>
       </rPr>
       <t>&gt;Extrato de conta poupança</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">selecionar qual tipo da consulta opção </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;  Extrato de conta poupança</t>
     </r>
   </si>
   <si>
@@ -1778,45 +1646,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">o sistema disponibiliza as caixas para preenchimento das opções </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; dados, numero de cartão e senha</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">preencher campos conforme os dados de entrada e clicar no botão </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[consultar cartão]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>sistema informa conforme os dados de saida</t>
-  </si>
-  <si>
     <t>1234.5678.9023.4567</t>
   </si>
   <si>
@@ -1840,12 +1669,6 @@
     </r>
   </si>
   <si>
-    <t>sistema disponibiliza os histórico completo do cliente descrino na UC004 dependendo do tipo de consulta</t>
-  </si>
-  <si>
-    <t>histórico de dados e debitos do cartão dependendo do tipo de consulta conforme UC004</t>
-  </si>
-  <si>
     <t>Senha invalida</t>
   </si>
   <si>
@@ -1863,45 +1686,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">o sistema disponibiliza as caixas para preenchimento </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt; dados, numero de cartão e senha</t>
-    </r>
-  </si>
-  <si>
-    <t>sistema informa conforme os dados de saida e retorna para prenchimento dos dados novamente.</t>
-  </si>
-  <si>
-    <t>"senha inválida  digite novamente o cartão e senha"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Numero do cartão inválido</t>
-  </si>
-  <si>
-    <t>sistema informa conforme os dados de saida e retorna para tela inicial do sistema.</t>
   </si>
   <si>
     <t>0000.0000.0000.0000</t>
   </si>
   <si>
-    <t>"cartão inexistente operação cancelada"</t>
-  </si>
-  <si>
     <t>Operadora fora de operação</t>
-  </si>
-  <si>
-    <t>"não foi possível se conectar a operadora tente novamente mais tarde"</t>
-  </si>
-  <si>
-    <t>inicio do sistema SIB</t>
   </si>
   <si>
     <r>
@@ -2167,6 +1958,215 @@
   </si>
   <si>
     <t>para cada tipo de ação o sistema deve apresentar quantidade de ações disponível para compra</t>
+  </si>
+  <si>
+    <t>Inicio do sistema SIB</t>
+  </si>
+  <si>
+    <t>Histórico de dados e debitos do cartão dependendo do tipo de consulta conforme UC004</t>
+  </si>
+  <si>
+    <t>"Senha inválida  digite novamente o cartão e senha"</t>
+  </si>
+  <si>
+    <t>"Cartão inexistente operação cancelada"</t>
+  </si>
+  <si>
+    <t>"Não foi possível se conectar a operadora tente novamente mais tarde"</t>
+  </si>
+  <si>
+    <t>O sistema informa conforme os dados de saida e retorna para tela inicial do sistema.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O sistema disponibiliza as caixas para preenchimento das opções </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; dados, numero de cartão e senha</t>
+    </r>
+  </si>
+  <si>
+    <t>O sistema informa conforme os dados de saida e retorna para prenchimento dos dados novamente.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O sistema disponibiliza as caixas para preenchimento </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt; dados, numero de cartão e senha</t>
+    </r>
+  </si>
+  <si>
+    <t>O sistema disponibiliza os histórico completo do cliente descrino na UC004 dependendo do tipo de consulta</t>
+  </si>
+  <si>
+    <t>O sistema informa conforme os dados de saida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Preencher campos conforme os dados de entrada e clicar no botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[consultar cartão]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualização dos dados bancarios, nome e transações da data escolhida como nos dados de saida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O sistema libera a opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt; digitar a data para o extrato </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e libera o botão consultar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar qual tipo da consulta opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;  Extrato de conta corrente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clicar no botão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[consultar]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selecionar qual tipo da consulta opção </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;  Extrato de conta poupança</t>
+    </r>
+  </si>
+  <si>
+    <t>"sua sessão expirou, tente outra vez!!!"</t>
+  </si>
+  <si>
+    <t>"Operação Cancelada!!"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Em qualquer momento o usuário pode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[cancelar]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a operação e o sistema mostrar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Operação Cancelada!!" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> caso de uso será encerrado.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Seu tempo expirou, Operação Cancelada!!"</t>
+  </si>
+  <si>
+    <t>"Operação cancelada!!"</t>
   </si>
 </sst>
 </file>
@@ -10186,10 +10186,10 @@
   <dimension ref="A1:IH54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -11718,19 +11718,19 @@
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A7" s="91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
@@ -11978,7 +11978,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="50">
         <v>18333</v>
@@ -11996,7 +11996,7 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -12718,19 +12718,19 @@
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A11" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
@@ -12975,10 +12975,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>29</v>
@@ -12996,7 +12996,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -13718,19 +13718,19 @@
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A15" s="91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="50"/>
@@ -13975,10 +13975,10 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="60" t="s">
         <v>79</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>81</v>
       </c>
       <c r="F16" s="50">
         <v>18333</v>
@@ -13996,7 +13996,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -14718,19 +14718,19 @@
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A19" s="90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
@@ -14975,10 +14975,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="50">
         <v>18333</v>
@@ -14996,7 +14996,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -15718,19 +15718,19 @@
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="50"/>
@@ -15750,10 +15750,10 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>32</v>
@@ -15771,7 +15771,7 @@
       <c r="K24" s="50"/>
       <c r="L24" s="51"/>
       <c r="M24" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
@@ -15818,19 +15818,19 @@
     </row>
     <row r="27" spans="1:242" ht="63.75">
       <c r="A27" s="90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
@@ -15853,7 +15853,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F28" s="50">
         <v>18333</v>
@@ -15871,7 +15871,7 @@
       <c r="K28" s="50"/>
       <c r="L28" s="51"/>
       <c r="M28" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
@@ -15918,19 +15918,19 @@
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
       <c r="A31" s="90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50"/>
@@ -15950,10 +15950,10 @@
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
       <c r="D32" s="60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32" s="50">
         <v>18333</v>
@@ -15971,7 +15971,7 @@
       <c r="K32" s="50"/>
       <c r="L32" s="51"/>
       <c r="M32" s="52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N32" s="53"/>
       <c r="O32" s="53"/>
@@ -16018,19 +16018,19 @@
     </row>
     <row r="35" spans="1:17" ht="63.75">
       <c r="A35" s="90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="50"/>
@@ -16050,10 +16050,10 @@
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
       <c r="D36" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="60" t="s">
         <v>60</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>62</v>
       </c>
       <c r="F36" s="50">
         <v>18333</v>
@@ -16071,7 +16071,7 @@
       <c r="K36" s="50"/>
       <c r="L36" s="51"/>
       <c r="M36" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
@@ -16118,19 +16118,19 @@
     </row>
     <row r="39" spans="1:17" ht="63.75">
       <c r="A39" s="90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -16150,10 +16150,10 @@
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
       <c r="D40" s="60" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F40" s="50">
         <v>18333</v>
@@ -16171,7 +16171,7 @@
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
       <c r="M40" s="52" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
@@ -16218,19 +16218,19 @@
     </row>
     <row r="43" spans="1:17" ht="63.75">
       <c r="A43" s="90" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
@@ -16250,10 +16250,10 @@
       <c r="B44" s="93"/>
       <c r="C44" s="93"/>
       <c r="D44" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="60" t="s">
         <v>55</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>57</v>
       </c>
       <c r="F44" s="50">
         <v>18333</v>
@@ -16265,13 +16265,13 @@
         <v>25</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="51"/>
       <c r="M44" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
@@ -16318,19 +16318,19 @@
     </row>
     <row r="47" spans="1:17" ht="63.75">
       <c r="A47" s="90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="50"/>
@@ -16350,16 +16350,16 @@
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
       <c r="D48" s="60" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="E48" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F48" s="50" t="s">
-        <v>53</v>
-      </c>
       <c r="G48" s="50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H48" s="63" t="s">
         <v>25</v>
@@ -16371,14 +16371,14 @@
       <c r="K48" s="50"/>
       <c r="L48" s="51"/>
       <c r="M48" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N48" s="53"/>
       <c r="O48" s="53"/>
       <c r="P48" s="53"/>
       <c r="Q48" s="38"/>
     </row>
-    <row r="49" spans="1:17" ht="13.5" thickBot="1">
+    <row r="49" spans="1:19" ht="13.5" thickBot="1">
       <c r="A49" s="91"/>
       <c r="B49" s="93"/>
       <c r="C49" s="93"/>
@@ -16397,7 +16397,7 @@
       <c r="P49" s="52"/>
       <c r="Q49" s="38"/>
     </row>
-    <row r="50" spans="1:17" ht="13.5" thickBot="1">
+    <row r="50" spans="1:19" ht="13.5" thickBot="1">
       <c r="A50" s="54"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -16416,42 +16416,85 @@
       <c r="P50" s="57"/>
       <c r="Q50" s="58"/>
     </row>
-    <row r="51" spans="1:17">
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="38"/>
+    <row r="51" spans="1:19">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:17">
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="38"/>
+    <row r="52" spans="1:19">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="38"/>
+    <row r="53" spans="1:19">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="58"/>
+    <row r="54" spans="1:19">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -17108,7 +17151,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44 N51:P53 M47:M49">
+  <conditionalFormatting sqref="J44 M47:M49">
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -17605,7 +17648,7 @@
   <dimension ref="A1:IH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
       <selection pane="bottomRight" activeCell="B24" sqref="B24:B28"/>
@@ -17899,26 +17942,26 @@
       <c r="D2" s="69"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="97" t="s">
         <v>92</v>
-      </c>
-      <c r="G2" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>94</v>
       </c>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N2" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="94" t="s">
         <v>94</v>
-      </c>
-      <c r="O2" s="94" t="s">
-        <v>96</v>
       </c>
       <c r="P2" s="94"/>
       <c r="Q2" s="38"/>
@@ -18153,7 +18196,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -19143,16 +19186,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="E7" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>101</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -19397,13 +19440,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>104</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="50"/>
@@ -19648,7 +19691,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -19893,14 +19936,14 @@
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
       <c r="D10" s="60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="49"/>
@@ -20143,15 +20186,15 @@
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
       <c r="D11" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
@@ -20159,10 +20202,10 @@
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
       <c r="N11" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="38"/>
@@ -20638,19 +20681,19 @@
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="38.25">
       <c r="A13" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>114</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -20895,13 +20938,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="71" t="s">
-        <v>104</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="50"/>
@@ -21146,7 +21189,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -21391,14 +21434,14 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="49"/>
@@ -21641,15 +21684,15 @@
       <c r="B17" s="93"/>
       <c r="C17" s="93"/>
       <c r="D17" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -21657,10 +21700,10 @@
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
       <c r="N17" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="52" t="s">
         <v>111</v>
-      </c>
-      <c r="O17" s="52" t="s">
-        <v>113</v>
       </c>
       <c r="P17" s="53"/>
       <c r="Q17" s="38"/>
@@ -22139,16 +22182,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>101</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -22393,13 +22436,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>104</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -22644,7 +22687,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -22890,7 +22933,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -22900,7 +22943,7 @@
       <c r="K22" s="50"/>
       <c r="L22" s="51"/>
       <c r="M22" s="52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
@@ -23381,16 +23424,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="50"/>
@@ -23401,7 +23444,7 @@
       <c r="L24" s="51"/>
       <c r="M24" s="52"/>
       <c r="N24" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
@@ -23637,13 +23680,13 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E25" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>104</v>
       </c>
       <c r="G25" s="72"/>
       <c r="H25" s="50"/>
@@ -23888,7 +23931,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -24133,14 +24176,14 @@
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
       <c r="D27" s="60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="49"/>
@@ -24384,12 +24427,12 @@
       <c r="C28" s="93"/>
       <c r="D28" s="48"/>
       <c r="E28" s="60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -24397,10 +24440,10 @@
       <c r="L28" s="51"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O28" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P28" s="52"/>
       <c r="Q28" s="38"/>
@@ -25331,10 +25374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A23:A53"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -25393,10 +25436,10 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
@@ -25404,10 +25447,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -25418,7 +25461,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -25505,19 +25548,19 @@
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -25537,16 +25580,16 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="49"/>
@@ -25555,7 +25598,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -25566,10 +25609,10 @@
       <c r="B9" s="93"/>
       <c r="C9" s="93"/>
       <c r="D9" s="60" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
@@ -25580,7 +25623,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="53"/>
       <c r="N9" s="52" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
@@ -25607,19 +25650,19 @@
     </row>
     <row r="11" spans="1:17" ht="86.25" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -25639,13 +25682,13 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>32</v>
@@ -25656,7 +25699,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -25703,19 +25746,19 @@
     </row>
     <row r="15" spans="1:17" ht="86.25" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -25735,16 +25778,16 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -25752,7 +25795,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -25799,25 +25842,25 @@
     </row>
     <row r="19" spans="1:17" ht="111.75" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -25835,10 +25878,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -25848,10 +25891,10 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
@@ -25895,616 +25938,8 @@
       <c r="P22" s="57"/>
       <c r="Q22" s="58"/>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="91"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="38"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="91"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="38"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="38"/>
-    </row>
-    <row r="26" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="91"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="38"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="91"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="38"/>
-    </row>
-    <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="38"/>
-    </row>
-    <row r="30" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="58"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="91"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="38"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="91"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="38"/>
-    </row>
-    <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="38"/>
-    </row>
-    <row r="34" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="58"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="91"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="91"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="38"/>
-    </row>
-    <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="38"/>
-    </row>
-    <row r="38" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="58"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="91"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="38"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="91"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="38"/>
-    </row>
-    <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="91"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="38"/>
-    </row>
-    <row r="42" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="58"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="91"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="91"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="38"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="91"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="38"/>
-    </row>
-    <row r="46" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="58"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="91"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="38"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="91"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="38"/>
-    </row>
-    <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="91"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="38"/>
-    </row>
-    <row r="50" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="58"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="91"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="38"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="91"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="38"/>
-    </row>
-    <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="91"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="38"/>
-    </row>
-    <row r="54" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="58"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="30">
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -26535,671 +25970,7 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
-  <conditionalFormatting sqref="I23:K23 G23 M25:P25 K24">
-    <cfRule type="cellIs" priority="361" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="509" priority="362" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" priority="363" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="508" priority="364" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 M23:P24">
-    <cfRule type="cellIs" priority="365" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="507" priority="366" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" priority="353" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="506" priority="354" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" priority="359" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="505" priority="360" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" priority="357" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="504" priority="358" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="349" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="503" priority="350" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" priority="347" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="502" priority="348" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25 I25:J25">
-    <cfRule type="cellIs" priority="351" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="501" priority="352" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J24 G24">
-    <cfRule type="cellIs" priority="355" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="500" priority="356" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:K27 G27 M29:P29 K28">
-    <cfRule type="cellIs" priority="341" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="499" priority="342" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" priority="343" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="498" priority="344" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 M27:P28">
-    <cfRule type="cellIs" priority="345" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="497" priority="346" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" priority="333" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="496" priority="334" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" priority="339" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="495" priority="340" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="337" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="494" priority="338" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" priority="329" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="493" priority="330" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" priority="327" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="492" priority="328" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29 I29:J29">
-    <cfRule type="cellIs" priority="331" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="491" priority="332" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28 G28">
-    <cfRule type="cellIs" priority="335" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="490" priority="336" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:K31 G31 M33:P33 K32">
-    <cfRule type="cellIs" priority="321" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="489" priority="322" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" priority="323" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="488" priority="324" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31 M31:P32">
-    <cfRule type="cellIs" priority="325" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="487" priority="326" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" priority="313" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="486" priority="314" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="319" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="485" priority="320" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" priority="317" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="484" priority="318" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" priority="309" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="483" priority="310" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" priority="307" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="482" priority="308" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33 I33:J33">
-    <cfRule type="cellIs" priority="311" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="481" priority="312" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:J32 G32">
-    <cfRule type="cellIs" priority="315" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="480" priority="316" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:K35 G35 M37:P37 K36">
-    <cfRule type="cellIs" priority="301" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="479" priority="302" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" priority="303" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="478" priority="304" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 M35:P36">
-    <cfRule type="cellIs" priority="305" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="477" priority="306" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" priority="293" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="476" priority="294" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" priority="299" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="475" priority="300" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" priority="297" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="474" priority="298" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" priority="289" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="473" priority="290" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="472" priority="288" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37 I37:J37">
-    <cfRule type="cellIs" priority="291" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="471" priority="292" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36 G36">
-    <cfRule type="cellIs" priority="295" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="470" priority="296" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:K39 G39 M41:P41 K40">
-    <cfRule type="cellIs" priority="281" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="469" priority="282" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" priority="283" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="468" priority="284" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39 M39:P40">
-    <cfRule type="cellIs" priority="285" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="467" priority="286" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" priority="273" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="466" priority="274" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" priority="279" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="465" priority="280" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" priority="277" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="464" priority="278" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" priority="269" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="463" priority="270" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" priority="267" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="462" priority="268" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41 I41:J41">
-    <cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="461" priority="272" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40 G40">
-    <cfRule type="cellIs" priority="275" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="460" priority="276" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:K43 G43 M45:P45 K44">
-    <cfRule type="cellIs" priority="261" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="459" priority="262" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" priority="263" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="458" priority="264" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43 M43:P44">
-    <cfRule type="cellIs" priority="265" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="457" priority="266" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" priority="253" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="456" priority="254" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" priority="259" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="455" priority="260" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" priority="257" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="454" priority="258" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" priority="249" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="453" priority="250" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="452" priority="248" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45 I45:J45">
-    <cfRule type="cellIs" priority="251" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="451" priority="252" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44 G44">
-    <cfRule type="cellIs" priority="255" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="450" priority="256" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K47 G47 M49:P49 K48">
-    <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="449" priority="242" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" priority="243" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="448" priority="244" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47 M47:P48">
-    <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="447" priority="246" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="446" priority="234" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" priority="239" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="445" priority="240" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" priority="237" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="444" priority="238" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" priority="229" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="443" priority="230" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="442" priority="228" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49 I49:J49">
-    <cfRule type="cellIs" priority="231" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="441" priority="232" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48:J48 G48">
-    <cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="440" priority="236" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:K51 G51 M53:P53 K52">
-    <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="439" priority="222" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="438" priority="224" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51 M51:P52">
-    <cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="437" priority="226" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="436" priority="214" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="435" priority="220" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="434" priority="218" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="433" priority="210" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="432" priority="208" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53 I53:J53">
-    <cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="431" priority="212" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:J52 G52">
-    <cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="430" priority="216" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
@@ -28025,15 +26796,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="F8:G8 F12 G16 F19:G19" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28091,7 +26865,7 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -28100,10 +26874,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -28114,7 +26888,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="127" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -28201,22 +26975,22 @@
     </row>
     <row r="7" spans="1:17" ht="78.75" customHeight="1">
       <c r="A7" s="124" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -28235,10 +27009,10 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -28248,10 +27022,10 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -28297,22 +27071,22 @@
     </row>
     <row r="11" spans="1:17" ht="81.75" customHeight="1">
       <c r="A11" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -28331,10 +27105,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -28344,10 +27118,10 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="N12" s="52" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
@@ -28391,768 +27165,8 @@
       <c r="P14" s="57"/>
       <c r="Q14" s="58"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="91"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="38"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="91"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="38"/>
-    </row>
-    <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="38"/>
-    </row>
-    <row r="18" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="91"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="38"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="91"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="38"/>
-    </row>
-    <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="38"/>
-    </row>
-    <row r="22" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="91"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="38"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="91"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="38"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="38"/>
-    </row>
-    <row r="26" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="91"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="38"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="91"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="38"/>
-    </row>
-    <row r="29" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="38"/>
-    </row>
-    <row r="30" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="58"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="91"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="38"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="91"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="38"/>
-    </row>
-    <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="38"/>
-    </row>
-    <row r="34" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="58"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="91"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="91"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="38"/>
-    </row>
-    <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="38"/>
-    </row>
-    <row r="38" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="58"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="91"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="38"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="91"/>
-      <c r="B40" s="93"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="38"/>
-    </row>
-    <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="91"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="38"/>
-    </row>
-    <row r="42" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="58"/>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="91"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="91"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="38"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="91"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="38"/>
-    </row>
-    <row r="46" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A46" s="54"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="58"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="91"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="38"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="91"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="38"/>
-    </row>
-    <row r="49" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A49" s="91"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="38"/>
-    </row>
-    <row r="50" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="58"/>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="91"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="38"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="91"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="38"/>
-    </row>
-    <row r="53" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A53" s="91"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="38"/>
-    </row>
-    <row r="54" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="58"/>
-    </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="24">
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -29177,821 +27191,7 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
-  <conditionalFormatting sqref="H15 H17">
-    <cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="326" priority="236" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:K15 G15 M17:P17 G17 K16 I17:J17">
-    <cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="325" priority="234" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 M15:P16">
-    <cfRule type="cellIs" priority="237" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="324" priority="238" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" priority="231" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="323" priority="232" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 G19 M21:P21 K20">
-    <cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="322" priority="226" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="321" priority="228" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19 M19:P20">
-    <cfRule type="cellIs" priority="229" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="320" priority="230" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="210" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:J16 G16">
-    <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="318" priority="206" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="204" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="316" priority="196" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="315" priority="202" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="314" priority="208" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="313" priority="200" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="312" priority="192" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="311" priority="190" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21 I21:J21">
-    <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="310" priority="194" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:J20 G20">
-    <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="309" priority="198" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:K23 G23 M25:P25 K24">
-    <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="308" priority="184" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="307" priority="186" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 M23:P24">
-    <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="306" priority="188" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="305" priority="176" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="304" priority="182" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="303" priority="180" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="302" priority="172" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="301" priority="170" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25 I25:J25">
-    <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="300" priority="174" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J24 G24">
-    <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="299" priority="178" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:K27 G27 M29:P29 K28">
-    <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="298" priority="164" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="297" priority="166" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 M27:P28">
-    <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="168" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="295" priority="156" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="294" priority="162" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="293" priority="160" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="292" priority="152" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="291" priority="150" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29 I29:J29">
-    <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="290" priority="154" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28 G28">
-    <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="289" priority="158" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:K31 G31 M33:P33 K32">
-    <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="288" priority="144" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="287" priority="146" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31 M31:P32">
-    <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="148" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="136" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="284" priority="142" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="283" priority="140" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="282" priority="132" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="281" priority="130" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33 I33:J33">
-    <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="280" priority="134" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:J32 G32">
-    <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="138" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:K35 G35 M37:P37 K36">
-    <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="124" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="126" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 M35:P36">
-    <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="128" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="116" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="122" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="120" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="112" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="110" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37 I37:J37">
-    <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="114" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36 G36">
-    <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="118" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:K39 G39 M41:P41 K40">
-    <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="104" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="106" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39 M39:P40">
-    <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="108" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="96" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="102" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="263" priority="100" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="92" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="90" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41 I41:J41">
-    <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="94" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40 G40">
-    <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="98" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:K43 G43 M45:P45 K44">
-    <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="84" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="86" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43 M43:P44">
-    <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="88" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="76" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="82" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="80" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="72" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="70" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45 I45:J45">
-    <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="74" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44 G44">
-    <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="78" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K47 G47 M49:P49 K48">
-    <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="248" priority="64" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="66" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47 M47:P48">
-    <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="68" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="56" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="62" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="60" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="52" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="50" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49 I49:J49">
-    <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="54" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48:J48 G48">
-    <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="58" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:K51 G51 M53:P53 K52">
-    <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="44" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="46" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51 M51:P52">
-    <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="48" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="36" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="42" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="40" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="32" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="30" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53 I53:J53">
-    <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="34" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:J52 G52">
-    <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="38" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
@@ -30112,8 +27312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -30280,13 +27480,13 @@
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="93" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>37</v>
@@ -30368,22 +27568,22 @@
     </row>
     <row r="11" spans="1:17" ht="104.25" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -30392,7 +27592,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -30458,22 +27658,22 @@
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -30482,7 +27682,7 @@
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
       <c r="M15" s="52" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
@@ -30548,22 +27748,22 @@
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -30572,7 +27772,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
       <c r="M19" s="52" t="s">
-        <v>180</v>
+        <v>287</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
@@ -30638,22 +27838,22 @@
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>159</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>161</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -30662,7 +27862,7 @@
       <c r="K23" s="50"/>
       <c r="L23" s="51"/>
       <c r="M23" s="52" t="s">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
@@ -31107,11 +28307,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:II33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -31404,7 +28604,7 @@
       <c r="D2" s="69"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -31413,19 +28613,19 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="94" t="s">
+      <c r="P2" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="94" t="s">
+      <c r="Q2" s="94" t="s">
         <v>132</v>
-      </c>
-      <c r="P2" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q2" s="94" t="s">
-        <v>134</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="1"/>
@@ -31659,7 +28859,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -32653,16 +29853,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>137</v>
-      </c>
       <c r="E7" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -32675,7 +29875,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="38"/>
@@ -32910,13 +30110,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
@@ -32926,7 +30126,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -33164,7 +30364,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -33411,7 +30611,7 @@
       <c r="C10" s="93"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -33425,7 +30625,7 @@
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="13"/>
@@ -33660,7 +30860,7 @@
       <c r="C11" s="93"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
@@ -33670,7 +30870,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -34150,19 +31350,19 @@
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="75">
       <c r="A13" s="91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -34175,7 +31375,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="52"/>
       <c r="R13" s="38"/>
@@ -34410,13 +31610,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -34426,7 +31626,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
@@ -34664,7 +31864,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -34911,7 +32111,7 @@
       <c r="C16" s="93"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -34925,7 +32125,7 @@
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="13"/>
@@ -35160,7 +32360,7 @@
       <c r="C17" s="93"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
@@ -35170,7 +32370,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -35653,16 +32853,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="73" t="s">
         <v>136</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>138</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -35675,7 +32875,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="38"/>
@@ -35910,13 +33110,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -35926,7 +33126,7 @@
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
@@ -36164,7 +33364,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -36411,7 +33611,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
@@ -36425,7 +33625,7 @@
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R22" s="38"/>
       <c r="S22" s="13"/>
@@ -36660,7 +33860,7 @@
       <c r="C23" s="93"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -36907,7 +34107,7 @@
       <c r="C24" s="93"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -37154,7 +34354,7 @@
       <c r="C25" s="93"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -37401,7 +34601,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -37413,7 +34613,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="53"/>
       <c r="O26" s="52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
@@ -37890,30 +35090,30 @@
       <c r="II27"/>
     </row>
     <row r="28" spans="1:243" s="9" customFormat="1">
-      <c r="A28" s="91">
+      <c r="A28" s="2">
         <v>4</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -38137,28 +35337,28 @@
       <c r="II28" s="13"/>
     </row>
     <row r="29" spans="1:243" s="9" customFormat="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -38382,28 +35582,28 @@
       <c r="II29" s="13"/>
     </row>
     <row r="30" spans="1:243" s="9" customFormat="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -38627,28 +35827,28 @@
       <c r="II30" s="13"/>
     </row>
     <row r="31" spans="1:243" s="9" customFormat="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -38871,29 +36071,29 @@
       <c r="IH31" s="13"/>
       <c r="II31" s="13"/>
     </row>
-    <row r="32" spans="1:243" s="9" customFormat="1" ht="74.099999999999994" customHeight="1" thickBot="1">
-      <c r="A32" s="91"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
+    <row r="32" spans="1:243" s="9" customFormat="1" ht="74.099999999999994" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -39116,29 +36316,25 @@
       <c r="IH32" s="13"/>
       <c r="II32" s="13"/>
     </row>
-    <row r="33" spans="1:243" ht="13.5" thickBot="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="58"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
+    <row r="33" spans="1:243">
+      <c r="A33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
@@ -39362,13 +36558,10 @@
       <c r="II33"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="26">
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C19:C26"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
@@ -39465,30 +36658,6 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:K28 G28 M32:O32 K31 Q32">
-    <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="102" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="104" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:Q28 M31:Q31">
-    <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="106" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
@@ -39569,22 +36738,6 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="72" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="78" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H21:H25">
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
@@ -39593,46 +36746,6 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="76" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="68" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="66" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32 I32:J32">
-    <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="70" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:J31">
-    <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="74" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M13">
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
@@ -39649,14 +36762,6 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="60" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F15 M15:Q15 M14 P14:Q14">
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
@@ -39721,14 +36826,6 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:K29 G29">
-    <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="34" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M20 P20:Q20">
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
@@ -39745,67 +36842,11 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29 M29:Q29">
-    <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="38" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="36" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30 M30:Q30">
-    <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="32" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:K30 G30">
-    <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="28" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="30" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="26" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P17">
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
     <cfRule type="expression" dxfId="122" priority="24" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32">
-    <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39901,7 +36942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -39974,10 +37015,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="87" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="115"/>
@@ -40000,7 +37041,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="118"/>
@@ -40068,23 +37109,23 @@
     </row>
     <row r="7" spans="1:17" ht="63.75">
       <c r="A7" s="133" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="134" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C7" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="F7" s="150" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="138"/>
@@ -40093,7 +37134,7 @@
       <c r="K7" s="138"/>
       <c r="L7" s="51"/>
       <c r="M7" s="139" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -40159,37 +37200,37 @@
     </row>
     <row r="11" spans="1:17" ht="76.5">
       <c r="A11" s="133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C11" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="E11" s="136" t="str">
         <f>E7</f>
         <v>O sistema informará conforme dados de saída.</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G11" s="150" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="H11" s="137" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="I11" s="137"/>
       <c r="J11" s="138"/>
       <c r="K11" s="138"/>
       <c r="L11" s="51"/>
       <c r="M11" s="139" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="N11" s="139"/>
       <c r="O11" s="139"/>
@@ -40255,10 +37296,10 @@
     </row>
     <row r="15" spans="1:17" ht="63.75">
       <c r="A15" s="149" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="141" t="str">
@@ -40266,10 +37307,10 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G15" s="137"/>
       <c r="H15" s="137"/>
@@ -40345,20 +37386,20 @@
     </row>
     <row r="19" spans="1:17" ht="216.75">
       <c r="A19" s="149" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C19" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="137"/>
@@ -40378,10 +37419,10 @@
       <c r="B20" s="140"/>
       <c r="C20" s="140"/>
       <c r="D20" s="136" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F20" s="150"/>
       <c r="G20" s="150"/>
@@ -40436,20 +37477,20 @@
     </row>
     <row r="23" spans="1:17" ht="102">
       <c r="A23" s="149" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" s="134" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C23" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F23" s="137" t="str">
         <f>F11</f>
@@ -40468,7 +37509,7 @@
       <c r="K23" s="138"/>
       <c r="L23" s="51"/>
       <c r="M23" s="139" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="N23" s="139"/>
       <c r="O23" s="139"/>
@@ -40534,10 +37575,10 @@
     </row>
     <row r="27" spans="1:17" ht="102">
       <c r="A27" s="149" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C27" s="140" t="str">
         <f>B3</f>
@@ -40552,7 +37593,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F27" s="150" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="138"/>
@@ -40561,7 +37602,7 @@
       <c r="K27" s="138"/>
       <c r="L27" s="51"/>
       <c r="M27" s="139" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="N27" s="139" t="str">
         <f>M11</f>
@@ -40630,10 +37671,10 @@
     </row>
     <row r="31" spans="1:17" ht="102">
       <c r="A31" s="149" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C31" s="140" t="str">
         <f>B3</f>
@@ -40648,10 +37689,10 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="H31" s="150"/>
       <c r="I31" s="138"/>
@@ -40659,7 +37700,7 @@
       <c r="K31" s="138"/>
       <c r="L31" s="51"/>
       <c r="M31" s="139" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="N31" s="139"/>
       <c r="O31" s="139"/>
@@ -40725,10 +37766,10 @@
     </row>
     <row r="35" spans="1:17" ht="102">
       <c r="A35" s="149" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="134" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C35" s="140" t="str">
         <f>C31</f>
@@ -40743,7 +37784,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F35" s="150" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -40752,7 +37793,7 @@
       <c r="K35" s="138"/>
       <c r="L35" s="51"/>
       <c r="M35" s="139" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="N35" s="139"/>
       <c r="O35" s="139"/>
@@ -40818,10 +37859,10 @@
     </row>
     <row r="39" spans="1:17" ht="76.5">
       <c r="A39" s="149" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B39" s="134" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C39" s="140" t="str">
         <f>C35</f>
@@ -40832,10 +37873,10 @@
         <v>Informar conforme dados de entrada.</v>
       </c>
       <c r="E39" s="136" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="F39" s="150" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="G39" s="138"/>
       <c r="H39" s="138"/>
@@ -40908,29 +37949,29 @@
     </row>
     <row r="43" spans="1:17" ht="153">
       <c r="A43" s="149" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C43" s="140" t="str">
         <f>C39</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D43" s="136" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="E43" s="136" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="F43" s="150" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="G43" s="150" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="H43" s="150" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="I43" s="138"/>
       <c r="J43" s="138"/>
@@ -41001,29 +38042,29 @@
     </row>
     <row r="47" spans="1:17" ht="140.25">
       <c r="A47" s="149" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C47" s="140" t="str">
         <f>C43</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E47" s="136" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F47" s="150" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="G47" s="150" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="H47" s="150" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="I47" s="138"/>
       <c r="J47" s="138"/>
@@ -41094,10 +38135,10 @@
     </row>
     <row r="51" spans="1:17" ht="114.75">
       <c r="A51" s="149" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C51" s="140" t="str">
         <f>C47</f>
@@ -41108,13 +38149,13 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E51" s="136" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F51" s="150" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="G51" s="150" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="H51" s="138"/>
       <c r="I51" s="138"/>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -173,6 +173,12 @@
     <t>Atualização</t>
   </si>
   <si>
+    <t>Operação Cancelada!!</t>
+  </si>
+  <si>
+    <t>Operação cancelada!!</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Efetuar login sem sucesso - </t>
     </r>
@@ -1406,6 +1412,52 @@
     <t>timeout</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Em qualquer momento o usuário pode </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[cancelar]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a operação e o sistema mostrar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"Operação Cancelada" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> caso de uso será encerrado.</t>
+    </r>
+  </si>
+  <si>
     <t>CT001</t>
   </si>
   <si>
@@ -1485,6 +1537,9 @@
     </r>
   </si>
   <si>
+    <t>sua sessão expirou, tente outra vez!!!</t>
+  </si>
+  <si>
     <t>Cancele operação durante o disparo do relógio.</t>
   </si>
   <si>
@@ -1540,6 +1595,9 @@
       </rPr>
       <t>e o caso de uso será encerrado.</t>
     </r>
+  </si>
+  <si>
+    <t>Seu tempo expirou, Operação Cancelada!!</t>
   </si>
   <si>
     <t>Usuário deve esta logado no sistema e o sistema esta logrado no Mercado de ações.</t>
@@ -2109,64 +2167,6 @@
       </rPr>
       <t>&gt;  Extrato de conta poupança</t>
     </r>
-  </si>
-  <si>
-    <t>"sua sessão expirou, tente outra vez!!!"</t>
-  </si>
-  <si>
-    <t>"Operação Cancelada!!"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Em qualquer momento o usuário pode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[cancelar]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a operação e o sistema mostrar </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">"Operação Cancelada!!" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> caso de uso será encerrado.</t>
-    </r>
-  </si>
-  <si>
-    <t>"Seu tempo expirou, Operação Cancelada!!"</t>
-  </si>
-  <si>
-    <t>"Operação cancelada!!"</t>
   </si>
 </sst>
 </file>
@@ -11718,19 +11718,19 @@
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A7" s="91" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
@@ -11978,7 +11978,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F8" s="50">
         <v>18333</v>
@@ -11996,7 +11996,7 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -12718,19 +12718,19 @@
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A11" s="91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
@@ -12975,10 +12975,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>29</v>
@@ -12996,7 +12996,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -13718,19 +13718,19 @@
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A15" s="91" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="50"/>
@@ -13975,10 +13975,10 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16" s="50">
         <v>18333</v>
@@ -13996,7 +13996,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -14718,19 +14718,19 @@
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
       <c r="A19" s="90" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
@@ -14975,10 +14975,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F20" s="50">
         <v>18333</v>
@@ -14996,7 +14996,7 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -15718,19 +15718,19 @@
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
       <c r="A23" s="90" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="50"/>
@@ -15750,10 +15750,10 @@
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
       <c r="D24" s="60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>32</v>
@@ -15771,7 +15771,7 @@
       <c r="K24" s="50"/>
       <c r="L24" s="51"/>
       <c r="M24" s="52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
@@ -15818,19 +15818,19 @@
     </row>
     <row r="27" spans="1:242" ht="63.75">
       <c r="A27" s="90" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
@@ -15853,7 +15853,7 @@
         <v>33</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="50">
         <v>18333</v>
@@ -15871,7 +15871,7 @@
       <c r="K28" s="50"/>
       <c r="L28" s="51"/>
       <c r="M28" s="52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
@@ -15918,19 +15918,19 @@
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
       <c r="A31" s="90" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50"/>
@@ -15950,10 +15950,10 @@
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
       <c r="D32" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>62</v>
       </c>
       <c r="F32" s="50">
         <v>18333</v>
@@ -15971,7 +15971,7 @@
       <c r="K32" s="50"/>
       <c r="L32" s="51"/>
       <c r="M32" s="52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N32" s="53"/>
       <c r="O32" s="53"/>
@@ -16018,19 +16018,19 @@
     </row>
     <row r="35" spans="1:17" ht="63.75">
       <c r="A35" s="90" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C35" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="50"/>
@@ -16050,10 +16050,10 @@
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
       <c r="D36" s="60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F36" s="50">
         <v>18333</v>
@@ -16071,7 +16071,7 @@
       <c r="K36" s="50"/>
       <c r="L36" s="51"/>
       <c r="M36" s="52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
@@ -16118,19 +16118,19 @@
     </row>
     <row r="39" spans="1:17" ht="63.75">
       <c r="A39" s="90" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B39" s="92" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C39" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -16150,10 +16150,10 @@
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
       <c r="D40" s="60" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F40" s="50">
         <v>18333</v>
@@ -16171,7 +16171,7 @@
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
       <c r="M40" s="52" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
@@ -16218,19 +16218,19 @@
     </row>
     <row r="43" spans="1:17" ht="63.75">
       <c r="A43" s="90" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B43" s="92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C43" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
@@ -16250,10 +16250,10 @@
       <c r="B44" s="93"/>
       <c r="C44" s="93"/>
       <c r="D44" s="60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F44" s="50">
         <v>18333</v>
@@ -16265,13 +16265,13 @@
         <v>25</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="51"/>
       <c r="M44" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
@@ -16318,19 +16318,19 @@
     </row>
     <row r="47" spans="1:17" ht="63.75">
       <c r="A47" s="90" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C47" s="93" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="50"/>
@@ -16350,16 +16350,16 @@
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
       <c r="D48" s="60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H48" s="63" t="s">
         <v>25</v>
@@ -16371,7 +16371,7 @@
       <c r="K48" s="50"/>
       <c r="L48" s="51"/>
       <c r="M48" s="52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N48" s="53"/>
       <c r="O48" s="53"/>
@@ -17942,26 +17942,26 @@
       <c r="D2" s="69"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I2" s="97"/>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O2" s="94" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P2" s="94"/>
       <c r="Q2" s="38"/>
@@ -18196,7 +18196,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -19186,16 +19186,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -19440,13 +19440,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="50"/>
@@ -19691,7 +19691,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -19936,14 +19936,14 @@
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
       <c r="D10" s="60" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="49"/>
@@ -20186,15 +20186,15 @@
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
       <c r="D11" s="60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
@@ -20202,10 +20202,10 @@
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
       <c r="N11" s="52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="38"/>
@@ -20681,19 +20681,19 @@
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="38.25">
       <c r="A13" s="91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -20938,13 +20938,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="50"/>
@@ -21189,7 +21189,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -21434,14 +21434,14 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="49"/>
@@ -21684,15 +21684,15 @@
       <c r="B17" s="93"/>
       <c r="C17" s="93"/>
       <c r="D17" s="60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -21700,10 +21700,10 @@
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
       <c r="N17" s="53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O17" s="52" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="53"/>
       <c r="Q17" s="38"/>
@@ -22182,16 +22182,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -22436,13 +22436,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -22687,7 +22687,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -22933,7 +22933,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -22943,7 +22943,7 @@
       <c r="K22" s="50"/>
       <c r="L22" s="51"/>
       <c r="M22" s="52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
@@ -23424,16 +23424,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="93" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" s="93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="50"/>
@@ -23444,7 +23444,7 @@
       <c r="L24" s="51"/>
       <c r="M24" s="52"/>
       <c r="N24" s="52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
@@ -23680,13 +23680,13 @@
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
       <c r="D25" s="60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G25" s="72"/>
       <c r="H25" s="50"/>
@@ -23931,7 +23931,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -24176,14 +24176,14 @@
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
       <c r="D27" s="60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="49"/>
@@ -24427,12 +24427,12 @@
       <c r="C28" s="93"/>
       <c r="D28" s="48"/>
       <c r="E28" s="60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -24440,10 +24440,10 @@
       <c r="L28" s="51"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O28" s="52" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P28" s="52"/>
       <c r="Q28" s="38"/>
@@ -25436,10 +25436,10 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H2" s="97"/>
       <c r="I2" s="97"/>
@@ -25447,10 +25447,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -25461,7 +25461,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -25548,19 +25548,19 @@
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -25580,16 +25580,16 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="49"/>
@@ -25598,7 +25598,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -25609,10 +25609,10 @@
       <c r="B9" s="93"/>
       <c r="C9" s="93"/>
       <c r="D9" s="60" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
@@ -25623,7 +25623,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="53"/>
       <c r="N9" s="52" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
@@ -25650,19 +25650,19 @@
     </row>
     <row r="11" spans="1:17" ht="86.25" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -25682,13 +25682,13 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>32</v>
@@ -25699,7 +25699,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -25746,19 +25746,19 @@
     </row>
     <row r="15" spans="1:17" ht="86.25" customHeight="1">
       <c r="A15" s="91" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -25778,16 +25778,16 @@
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
       <c r="D16" s="60" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -25795,7 +25795,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -25842,25 +25842,25 @@
     </row>
     <row r="19" spans="1:17" ht="111.75" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D19" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>196</v>
-      </c>
       <c r="G19" s="71" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -25878,10 +25878,10 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -25891,10 +25891,10 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
@@ -26806,7 +26806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -26865,7 +26865,7 @@
       <c r="D2" s="118"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -26874,10 +26874,10 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
@@ -26888,7 +26888,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="127" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -26975,22 +26975,22 @@
     </row>
     <row r="7" spans="1:17" ht="78.75" customHeight="1">
       <c r="A7" s="124" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -27009,10 +27009,10 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -27022,10 +27022,10 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -27071,22 +27071,22 @@
     </row>
     <row r="11" spans="1:17" ht="81.75" customHeight="1">
       <c r="A11" s="124" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -27105,10 +27105,10 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="60" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -27118,10 +27118,10 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N12" s="52" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
@@ -27312,8 +27312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -27480,13 +27480,13 @@
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B7" s="93" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>37</v>
@@ -27568,22 +27568,22 @@
     </row>
     <row r="11" spans="1:17" ht="104.25" customHeight="1">
       <c r="A11" s="91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -27592,7 +27592,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -27658,22 +27658,22 @@
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
       <c r="A15" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="71" t="s">
         <v>161</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>159</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -27682,7 +27682,7 @@
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
       <c r="M15" s="52" t="s">
-        <v>285</v>
+        <v>44</v>
       </c>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
@@ -27748,22 +27748,22 @@
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
       <c r="A19" s="91" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -27772,7 +27772,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
       <c r="M19" s="52" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
@@ -27838,22 +27838,22 @@
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -27862,7 +27862,7 @@
       <c r="K23" s="50"/>
       <c r="L23" s="51"/>
       <c r="M23" s="52" t="s">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
@@ -28604,7 +28604,7 @@
       <c r="D2" s="69"/>
       <c r="E2" s="111"/>
       <c r="F2" s="97" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2" s="97"/>
       <c r="H2" s="97"/>
@@ -28613,19 +28613,19 @@
       <c r="K2" s="97"/>
       <c r="L2" s="106"/>
       <c r="M2" s="102" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O2" s="94" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q2" s="94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="1"/>
@@ -28859,7 +28859,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C3" s="120"/>
       <c r="D3" s="121"/>
@@ -29853,16 +29853,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -29875,7 +29875,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="38"/>
@@ -30110,13 +30110,13 @@
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
       <c r="D8" s="60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
@@ -30126,7 +30126,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -30364,7 +30364,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -30611,7 +30611,7 @@
       <c r="C10" s="93"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -30625,7 +30625,7 @@
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="13"/>
@@ -30860,7 +30860,7 @@
       <c r="C11" s="93"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
@@ -30870,7 +30870,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -31350,19 +31350,19 @@
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="75">
       <c r="A13" s="91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -31375,7 +31375,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="52"/>
       <c r="R13" s="38"/>
@@ -31610,13 +31610,13 @@
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -31626,7 +31626,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
@@ -31864,7 +31864,7 @@
       <c r="C15" s="93"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -32111,7 +32111,7 @@
       <c r="C16" s="93"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -32125,7 +32125,7 @@
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="13"/>
@@ -32360,7 +32360,7 @@
       <c r="C17" s="93"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
@@ -32370,7 +32370,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -32853,16 +32853,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -32875,7 +32875,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="38"/>
@@ -33110,13 +33110,13 @@
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
       <c r="D20" s="60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -33126,7 +33126,7 @@
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
@@ -33364,7 +33364,7 @@
       <c r="C21" s="93"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -33611,7 +33611,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
@@ -33625,7 +33625,7 @@
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R22" s="38"/>
       <c r="S22" s="13"/>
@@ -33860,7 +33860,7 @@
       <c r="C23" s="93"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -34107,7 +34107,7 @@
       <c r="C24" s="93"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -34354,7 +34354,7 @@
       <c r="C25" s="93"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -34601,7 +34601,7 @@
       <c r="C26" s="93"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -34613,7 +34613,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="53"/>
       <c r="O26" s="52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
@@ -37015,10 +37015,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="87" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C3" s="114"/>
       <c r="D3" s="115"/>
@@ -37041,7 +37041,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="118"/>
@@ -37109,23 +37109,23 @@
     </row>
     <row r="7" spans="1:17" ht="63.75">
       <c r="A7" s="133" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B7" s="134" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C7" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F7" s="150" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G7" s="138"/>
       <c r="H7" s="138"/>
@@ -37134,7 +37134,7 @@
       <c r="K7" s="138"/>
       <c r="L7" s="51"/>
       <c r="M7" s="139" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N7" s="139"/>
       <c r="O7" s="139"/>
@@ -37200,37 +37200,37 @@
     </row>
     <row r="11" spans="1:17" ht="76.5">
       <c r="A11" s="133" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C11" s="135" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E11" s="136" t="str">
         <f>E7</f>
         <v>O sistema informará conforme dados de saída.</v>
       </c>
       <c r="F11" s="137" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G11" s="150" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H11" s="137" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I11" s="137"/>
       <c r="J11" s="138"/>
       <c r="K11" s="138"/>
       <c r="L11" s="51"/>
       <c r="M11" s="139" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N11" s="139"/>
       <c r="O11" s="139"/>
@@ -37296,10 +37296,10 @@
     </row>
     <row r="15" spans="1:17" ht="63.75">
       <c r="A15" s="149" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C15" s="135"/>
       <c r="D15" s="141" t="str">
@@ -37307,10 +37307,10 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E15" s="136" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F15" s="150" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G15" s="137"/>
       <c r="H15" s="137"/>
@@ -37386,20 +37386,20 @@
     </row>
     <row r="19" spans="1:17" ht="216.75">
       <c r="A19" s="149" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C19" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F19" s="137"/>
       <c r="G19" s="137"/>
@@ -37419,10 +37419,10 @@
       <c r="B20" s="140"/>
       <c r="C20" s="140"/>
       <c r="D20" s="136" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F20" s="150"/>
       <c r="G20" s="150"/>
@@ -37477,20 +37477,20 @@
     </row>
     <row r="23" spans="1:17" ht="102">
       <c r="A23" s="149" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B23" s="134" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C23" s="140" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E23" s="136" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F23" s="137" t="str">
         <f>F11</f>
@@ -37509,7 +37509,7 @@
       <c r="K23" s="138"/>
       <c r="L23" s="51"/>
       <c r="M23" s="139" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="N23" s="139"/>
       <c r="O23" s="139"/>
@@ -37575,10 +37575,10 @@
     </row>
     <row r="27" spans="1:17" ht="102">
       <c r="A27" s="149" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C27" s="140" t="str">
         <f>B3</f>
@@ -37593,7 +37593,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F27" s="150" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G27" s="138"/>
       <c r="H27" s="138"/>
@@ -37602,7 +37602,7 @@
       <c r="K27" s="138"/>
       <c r="L27" s="51"/>
       <c r="M27" s="139" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N27" s="139" t="str">
         <f>M11</f>
@@ -37671,10 +37671,10 @@
     </row>
     <row r="31" spans="1:17" ht="102">
       <c r="A31" s="149" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B31" s="134" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C31" s="140" t="str">
         <f>B3</f>
@@ -37689,10 +37689,10 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F31" s="150" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G31" s="150" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H31" s="150"/>
       <c r="I31" s="138"/>
@@ -37700,7 +37700,7 @@
       <c r="K31" s="138"/>
       <c r="L31" s="51"/>
       <c r="M31" s="139" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N31" s="139"/>
       <c r="O31" s="139"/>
@@ -37766,10 +37766,10 @@
     </row>
     <row r="35" spans="1:17" ht="102">
       <c r="A35" s="149" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B35" s="134" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C35" s="140" t="str">
         <f>C31</f>
@@ -37784,7 +37784,7 @@
         <v>o sistema informará uma mensagem Conforme dados de saída.</v>
       </c>
       <c r="F35" s="150" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -37793,7 +37793,7 @@
       <c r="K35" s="138"/>
       <c r="L35" s="51"/>
       <c r="M35" s="139" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N35" s="139"/>
       <c r="O35" s="139"/>
@@ -37859,10 +37859,10 @@
     </row>
     <row r="39" spans="1:17" ht="76.5">
       <c r="A39" s="149" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B39" s="134" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C39" s="140" t="str">
         <f>C35</f>
@@ -37873,10 +37873,10 @@
         <v>Informar conforme dados de entrada.</v>
       </c>
       <c r="E39" s="136" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F39" s="150" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G39" s="138"/>
       <c r="H39" s="138"/>
@@ -37949,29 +37949,29 @@
     </row>
     <row r="43" spans="1:17" ht="153">
       <c r="A43" s="149" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B43" s="134" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C43" s="140" t="str">
         <f>C39</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D43" s="136" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E43" s="136" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F43" s="150" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G43" s="150" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H43" s="150" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I43" s="138"/>
       <c r="J43" s="138"/>
@@ -38042,29 +38042,29 @@
     </row>
     <row r="47" spans="1:17" ht="140.25">
       <c r="A47" s="149" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C47" s="140" t="str">
         <f>C43</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E47" s="136" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F47" s="150" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G47" s="150" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H47" s="150" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I47" s="138"/>
       <c r="J47" s="138"/>
@@ -38135,10 +38135,10 @@
     </row>
     <row r="51" spans="1:17" ht="114.75">
       <c r="A51" s="149" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C51" s="140" t="str">
         <f>C47</f>
@@ -38149,13 +38149,13 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E51" s="136" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F51" s="150" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G51" s="150" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H51" s="138"/>
       <c r="I51" s="138"/>

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" activeTab="1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'UC002 - Efetuar pagamento SIB  '!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'UC006 - comprar ações '!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="299">
   <si>
     <t>CAMPO</t>
   </si>
@@ -79,15 +79,6 @@
   </si>
   <si>
     <t>versão 1.0</t>
-  </si>
-  <si>
-    <t>josimar costa monteiro</t>
-  </si>
-  <si>
-    <t>Luis carlos oliveira</t>
-  </si>
-  <si>
-    <t>Eduardo da hora lira</t>
   </si>
   <si>
     <t>SIB</t>
@@ -157,9 +148,6 @@
   </si>
   <si>
     <t>Durante a consulta das cotações das ações será cancelado.</t>
-  </si>
-  <si>
-    <t>Berguison ferreira</t>
   </si>
   <si>
     <t>Cotação</t>
@@ -2168,11 +2156,20 @@
   <si>
     <t>Validar valor e data tranferência</t>
   </si>
+  <si>
+    <t>Josimar Costa Monteiro</t>
+  </si>
+  <si>
+    <t>Luis Carlos Oliveira</t>
+  </si>
+  <si>
+    <t>Eduardo da Hora Lira</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\C\T000"/>
@@ -3164,9 +3161,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3176,53 +3170,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3260,6 +3209,57 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3283,57 +3283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3359,7 +3308,55 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7252,12 +7249,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <sheetData>
@@ -7473,7 +7468,7 @@
       <c r="D21" s="28"/>
       <c r="E21" s="33"/>
       <c r="F21" s="35" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="29"/>
@@ -7486,7 +7481,7 @@
       <c r="D22" s="28"/>
       <c r="E22" s="33"/>
       <c r="F22" s="35" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="29"/>
@@ -7499,7 +7494,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="33"/>
       <c r="F23" s="35" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="29"/>
@@ -7512,7 +7507,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="33"/>
       <c r="F24" s="35" t="s">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="G24" s="33"/>
       <c r="H24" s="29"/>
@@ -7657,7 +7652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:IH54"/>
   <sheetViews>
@@ -7665,7 +7660,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:K1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75"/>
@@ -7694,29 +7689,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="149" t="s">
+      <c r="B1" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="146" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="148"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -7948,33 +7943,33 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="194" t="s">
+      <c r="H2" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="194" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="194" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="194" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -8203,26 +8198,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="157" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+      <c r="B3" s="141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -8451,22 +8446,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -9193,20 +9188,20 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A7" s="130" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="132" t="s">
-        <v>28</v>
+      <c r="A7" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
@@ -9447,14 +9442,14 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="50">
         <v>18333</v>
@@ -9463,16 +9458,16 @@
         <v>131313</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -9705,9 +9700,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="44.1" customHeight="1" thickBot="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -10193,20 +10188,20 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A11" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="132" t="s">
-        <v>28</v>
+      <c r="A11" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="50"/>
@@ -10447,32 +10442,32 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A12" s="130"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="60" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="50">
         <v>131313</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -10705,9 +10700,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -11193,20 +11188,20 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A15" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="132" t="s">
-        <v>28</v>
+      <c r="A15" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="49"/>
       <c r="G15" s="50"/>
@@ -11447,32 +11442,32 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" s="50">
         <v>18333</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -11705,9 +11700,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -12193,20 +12188,20 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A19" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="132" t="s">
-        <v>28</v>
+      <c r="A19" s="156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
@@ -12447,14 +12442,14 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="169.5" customHeight="1">
-      <c r="A20" s="130"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="50">
         <v>18333</v>
@@ -12463,16 +12458,16 @@
         <v>131313</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -12705,9 +12700,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="74.099999999999994" customHeight="1" thickBot="1">
-      <c r="A21" s="130"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -13193,20 +13188,20 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
-      <c r="A23" s="129" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="132" t="s">
-        <v>28</v>
+      <c r="A23" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="50"/>
@@ -13222,32 +13217,32 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:242" ht="89.25">
-      <c r="A24" s="130"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
       <c r="L24" s="51"/>
       <c r="M24" s="52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N24" s="53"/>
       <c r="O24" s="53"/>
@@ -13255,9 +13250,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1">
-      <c r="A25" s="130"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -13293,20 +13288,20 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:242" ht="63.75">
-      <c r="A27" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="132" t="s">
-        <v>28</v>
+      <c r="A27" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="50"/>
@@ -13322,14 +13317,14 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:242" ht="63.75">
-      <c r="A28" s="130"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F28" s="50">
         <v>18333</v>
@@ -13338,16 +13333,16 @@
         <v>131313</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I28" s="50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="51"/>
       <c r="M28" s="52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N28" s="53"/>
       <c r="O28" s="53"/>
@@ -13355,9 +13350,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:242" ht="13.5" thickBot="1">
-      <c r="A29" s="130"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -13393,20 +13388,20 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
-      <c r="A31" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="132" t="s">
-        <v>28</v>
+      <c r="A31" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50"/>
@@ -13422,14 +13417,14 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:242" ht="63.75">
-      <c r="A32" s="130"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
+      <c r="A32" s="129"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E32" s="60" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F32" s="50">
         <v>18333</v>
@@ -13438,16 +13433,16 @@
         <v>131313</v>
       </c>
       <c r="H32" s="63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
       <c r="L32" s="51"/>
       <c r="M32" s="52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N32" s="53"/>
       <c r="O32" s="53"/>
@@ -13455,9 +13450,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="130"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
+      <c r="A33" s="129"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -13493,20 +13488,20 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="63.75">
-      <c r="A35" s="129" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="132" t="s">
-        <v>28</v>
+      <c r="A35" s="156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="50"/>
@@ -13522,14 +13517,14 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="89.25">
-      <c r="A36" s="130"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F36" s="50">
         <v>18333</v>
@@ -13538,16 +13533,16 @@
         <v>131313</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I36" s="50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
       <c r="L36" s="51"/>
       <c r="M36" s="52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
@@ -13555,9 +13550,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="130"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
+      <c r="A37" s="129"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -13593,20 +13588,20 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="63.75">
-      <c r="A39" s="129" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="131" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="132" t="s">
-        <v>28</v>
+      <c r="A39" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E39" s="60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -13622,14 +13617,14 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17" ht="178.5">
-      <c r="A40" s="130"/>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
       <c r="D40" s="60" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F40" s="50">
         <v>18333</v>
@@ -13638,16 +13633,16 @@
         <v>131313</v>
       </c>
       <c r="H40" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I40" s="50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J40" s="50"/>
       <c r="K40" s="50"/>
       <c r="L40" s="51"/>
       <c r="M40" s="52" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N40" s="53"/>
       <c r="O40" s="53"/>
@@ -13655,9 +13650,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="130"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -13693,20 +13688,20 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17" ht="63.75">
-      <c r="A43" s="129" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" s="131" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="132" t="s">
-        <v>28</v>
+      <c r="A43" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D43" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F43" s="49"/>
       <c r="G43" s="50"/>
@@ -13722,14 +13717,14 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17" ht="102">
-      <c r="A44" s="130"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
+      <c r="A44" s="129"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="131"/>
       <c r="D44" s="60" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F44" s="50">
         <v>18333</v>
@@ -13738,16 +13733,16 @@
         <v>131313</v>
       </c>
       <c r="H44" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I44" s="50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="51"/>
       <c r="M44" s="52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N44" s="53"/>
       <c r="O44" s="53"/>
@@ -13755,9 +13750,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="130"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
+      <c r="A45" s="129"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -13793,20 +13788,20 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17" ht="63.75">
-      <c r="A47" s="129" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="132" t="s">
-        <v>28</v>
+      <c r="A47" s="156" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E47" s="60" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="50"/>
@@ -13822,32 +13817,32 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17" ht="153">
-      <c r="A48" s="130"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
+      <c r="A48" s="129"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="131"/>
       <c r="D48" s="60" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H48" s="63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I48" s="50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="51"/>
       <c r="M48" s="52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N48" s="53"/>
       <c r="O48" s="53"/>
@@ -13855,9 +13850,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:19" ht="13.5" thickBot="1">
-      <c r="A49" s="130"/>
-      <c r="B49" s="132"/>
-      <c r="C49" s="132"/>
+      <c r="A49" s="129"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -13974,23 +13969,24 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
@@ -14007,24 +14003,23 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P9 F9">
@@ -15120,7 +15115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15158,28 +15153,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="149" t="s">
+      <c r="E1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="146" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="148"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -15412,34 +15407,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="136" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="153" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="153" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="157" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="141" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="133" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="133"/>
+      <c r="P2" s="157"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -15668,26 +15663,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+      <c r="B3" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -15916,22 +15911,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -16658,20 +16653,20 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A7" s="130">
+      <c r="A7" s="129">
         <v>1</v>
       </c>
-      <c r="B7" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="132" t="s">
-        <v>97</v>
+      <c r="B7" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>93</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -16912,17 +16907,17 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="50"/>
@@ -17162,12 +17157,12 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -17408,18 +17403,18 @@
       <c r="IH9" s="13"/>
     </row>
     <row r="10" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A10" s="130"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="60" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="72" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H10" s="50"/>
       <c r="I10" s="49"/>
@@ -17658,19 +17653,19 @@
       <c r="IH10" s="13"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A11" s="130"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="60" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="50"/>
@@ -17678,10 +17673,10 @@
       <c r="L11" s="51"/>
       <c r="M11" s="52"/>
       <c r="N11" s="52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="38"/>
@@ -18156,20 +18151,20 @@
       <c r="IH12"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A13" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="131" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="132" t="s">
-        <v>97</v>
+      <c r="A13" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -18410,17 +18405,17 @@
       <c r="IH13" s="13"/>
     </row>
     <row r="14" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A14" s="130"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="50"/>
@@ -18660,12 +18655,12 @@
       <c r="IH14" s="13"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -18906,18 +18901,18 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" s="49"/>
       <c r="G16" s="72" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="49"/>
@@ -19156,19 +19151,19 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="81.75" customHeight="1" thickBot="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="60" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -19176,10 +19171,10 @@
       <c r="L17" s="51"/>
       <c r="M17" s="52"/>
       <c r="N17" s="53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O17" s="52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P17" s="53"/>
       <c r="Q17" s="38"/>
@@ -19654,20 +19649,20 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A19" s="130">
+      <c r="A19" s="129">
         <v>3</v>
       </c>
-      <c r="B19" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="132" t="s">
-        <v>97</v>
+      <c r="B19" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>93</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -19908,17 +19903,17 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A20" s="130"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -20158,12 +20153,12 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A21" s="130"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="48"/>
       <c r="E21" s="60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -20404,12 +20399,12 @@
       <c r="IH21" s="13"/>
     </row>
     <row r="22" spans="1:242" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A22" s="130"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -20419,7 +20414,7 @@
       <c r="K22" s="50"/>
       <c r="L22" s="51"/>
       <c r="M22" s="52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
@@ -20896,20 +20891,20 @@
       <c r="IH23"/>
     </row>
     <row r="24" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A24" s="130">
+      <c r="A24" s="129">
         <v>4</v>
       </c>
-      <c r="B24" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="132" t="s">
-        <v>97</v>
+      <c r="B24" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>93</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="50"/>
@@ -20920,7 +20915,7 @@
       <c r="L24" s="51"/>
       <c r="M24" s="52"/>
       <c r="N24" s="52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
@@ -21152,17 +21147,17 @@
       <c r="IH24" s="13"/>
     </row>
     <row r="25" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A25" s="130"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G25" s="72"/>
       <c r="H25" s="50"/>
@@ -21402,12 +21397,12 @@
       <c r="IH25" s="13"/>
     </row>
     <row r="26" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A26" s="130"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="72"/>
@@ -21648,18 +21643,18 @@
       <c r="IH26" s="13"/>
     </row>
     <row r="27" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A27" s="130"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F27" s="49"/>
       <c r="G27" s="72" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="49"/>
@@ -21898,17 +21893,17 @@
       <c r="IH27" s="13"/>
     </row>
     <row r="28" spans="1:242" s="9" customFormat="1" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A28" s="130"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="48"/>
       <c r="E28" s="60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="72" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -21916,10 +21911,10 @@
       <c r="L28" s="51"/>
       <c r="M28" s="53"/>
       <c r="N28" s="53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O28" s="52" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P28" s="52"/>
       <c r="Q28" s="38"/>
@@ -22395,18 +22390,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -22423,6 +22406,18 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:P11">
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
@@ -22849,7 +22844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22876,102 +22871,102 @@
       <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="149" t="s">
+      <c r="B1" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="146" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="148"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="154" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="136" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="136" t="s">
-        <v>191</v>
-      </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="141" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
+      <c r="B2" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="153" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="153" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="145" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+      <c r="B3" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -23023,20 +23018,20 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1">
-      <c r="A7" s="130" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="131" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="131" t="s">
-        <v>194</v>
+      <c r="A7" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -23052,20 +23047,20 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="78" customHeight="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="49"/>
@@ -23074,21 +23069,21 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="124.5" customHeight="1" thickBot="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="60" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
@@ -23099,7 +23094,7 @@
       <c r="L9" s="51"/>
       <c r="M9" s="53"/>
       <c r="N9" s="52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
@@ -23125,20 +23120,20 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="86.25" customHeight="1">
-      <c r="A11" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="131" t="s">
-        <v>194</v>
+      <c r="A11" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -23154,20 +23149,20 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="98.25" customHeight="1">
-      <c r="A12" s="130"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="49"/>
@@ -23175,7 +23170,7 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N12" s="53"/>
       <c r="O12" s="53"/>
@@ -23183,9 +23178,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="71"/>
@@ -23221,20 +23216,20 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="86.25" customHeight="1">
-      <c r="A15" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="131" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>194</v>
+      <c r="A15" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -23250,20 +23245,20 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17" ht="97.5" customHeight="1">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E16" s="60" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -23271,7 +23266,7 @@
       <c r="K16" s="50"/>
       <c r="L16" s="51"/>
       <c r="M16" s="52" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -23279,9 +23274,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -23317,26 +23312,26 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="111.75" customHeight="1">
-      <c r="A19" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="131" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>194</v>
+      <c r="A19" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G19" s="71" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -23350,14 +23345,14 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="99" customHeight="1">
-      <c r="A20" s="130"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
@@ -23367,19 +23362,19 @@
       <c r="K20" s="50"/>
       <c r="L20" s="51"/>
       <c r="M20" s="52" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N20" s="52" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="130"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -23416,6 +23411,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -23430,22 +23441,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
@@ -24279,7 +24274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24305,100 +24300,100 @@
       <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="149" t="s">
+      <c r="B1" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="146" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="148"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="154" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="136" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="141" t="s">
-        <v>180</v>
-      </c>
-      <c r="N2" s="133" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
+      <c r="B2" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="153" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="145" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="157" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="165" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+      <c r="B3" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="41.25" customHeight="1">
-      <c r="A4" s="164"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -24450,23 +24445,23 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="78.75" customHeight="1">
-      <c r="A7" s="162" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="131" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="163" t="s">
-        <v>184</v>
+      <c r="A7" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="164" t="s">
+        <v>180</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -24481,14 +24476,14 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="91.5" customHeight="1" thickBot="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="60" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
@@ -24498,19 +24493,19 @@
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="52" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" hidden="1" thickBot="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -24546,23 +24541,23 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="81.75" customHeight="1">
-      <c r="A11" s="162" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="163" t="s">
+      <c r="A11" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="130" t="s">
         <v>184</v>
       </c>
+      <c r="C11" s="164" t="s">
+        <v>180</v>
+      </c>
       <c r="D11" s="60" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -24577,14 +24572,14 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="99.75" customHeight="1">
-      <c r="A12" s="130"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="60" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
@@ -24594,19 +24589,19 @@
       <c r="K12" s="50"/>
       <c r="L12" s="51"/>
       <c r="M12" s="52" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N12" s="52" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -24643,6 +24638,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -24657,16 +24662,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
@@ -24785,7 +24780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24812,98 +24807,98 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="151" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="149" t="s">
+      <c r="B1" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="146" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="148"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="154" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="136" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
+      <c r="B2" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="153" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="145" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="157" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+      <c r="B3" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -24955,23 +24950,23 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
-      <c r="A7" s="130" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="132" t="s">
-        <v>172</v>
+      <c r="A7" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>168</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -24986,9 +24981,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="130"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -25005,9 +25000,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -25043,23 +25038,23 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="104.25" customHeight="1">
-      <c r="A11" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="131" t="s">
+      <c r="A11" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="71" t="s">
         <v>155</v>
-      </c>
-      <c r="C11" s="132" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="71" t="s">
-        <v>159</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -25068,7 +25063,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -25076,9 +25071,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="130"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -25095,9 +25090,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -25133,23 +25128,23 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
-      <c r="A15" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="132" t="s">
+      <c r="A15" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>174</v>
-      </c>
       <c r="E15" s="60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
@@ -25158,7 +25153,7 @@
       <c r="K15" s="50"/>
       <c r="L15" s="51"/>
       <c r="M15" s="52" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
@@ -25166,9 +25161,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -25185,9 +25180,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -25223,23 +25218,23 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
-      <c r="A19" s="130" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="132" t="s">
-        <v>176</v>
+      <c r="A19" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>172</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -25248,7 +25243,7 @@
       <c r="K19" s="50"/>
       <c r="L19" s="51"/>
       <c r="M19" s="52" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
@@ -25256,9 +25251,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="130"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -25275,9 +25270,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="130"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -25313,23 +25308,23 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
-      <c r="A23" s="130" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="131" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="132" t="s">
-        <v>170</v>
+      <c r="A23" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="130" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>166</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
@@ -25338,7 +25333,7 @@
       <c r="K23" s="50"/>
       <c r="L23" s="51"/>
       <c r="M23" s="52" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N23" s="52"/>
       <c r="O23" s="52"/>
@@ -25346,9 +25341,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="130"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -25365,9 +25360,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="130"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -25404,6 +25399,25 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -25418,25 +25432,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
@@ -25780,7 +25775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:II33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25819,29 +25814,29 @@
         <v>1</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="149" t="s">
+      <c r="E1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="146" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="148"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="152"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -26074,34 +26069,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="136" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="153" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="145" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="157" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="141" t="s">
+      <c r="Q2" s="157" t="s">
         <v>128</v>
-      </c>
-      <c r="N2" s="133" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" s="133" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="133" t="s">
-        <v>132</v>
       </c>
       <c r="R2" s="38"/>
       <c r="S2" s="1"/>
@@ -26331,27 +26326,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
+      <c r="B3" s="162" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -26580,23 +26575,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -27325,20 +27320,20 @@
       <c r="II6" s="1"/>
     </row>
     <row r="7" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A7" s="130">
+      <c r="A7" s="129">
         <v>1</v>
       </c>
-      <c r="B7" s="131" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="132" t="s">
-        <v>241</v>
+      <c r="B7" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>237</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="72"/>
@@ -27351,7 +27346,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="38"/>
@@ -27582,17 +27577,17 @@
       <c r="II7" s="13"/>
     </row>
     <row r="8" spans="1:243" s="9" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
@@ -27602,7 +27597,7 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
@@ -27835,12 +27830,12 @@
       <c r="II8" s="13"/>
     </row>
     <row r="9" spans="1:243" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="72"/>
@@ -28082,12 +28077,12 @@
       <c r="II9" s="13"/>
     </row>
     <row r="10" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="72"/>
@@ -28101,7 +28096,7 @@
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="13"/>
@@ -28331,12 +28326,12 @@
       <c r="II10" s="13"/>
     </row>
     <row r="11" spans="1:243" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A11" s="130"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
@@ -28346,7 +28341,7 @@
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
       <c r="M11" s="52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -28825,20 +28820,20 @@
       <c r="II12"/>
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A13" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="132" t="s">
-        <v>241</v>
+      <c r="A13" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>237</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E13" s="73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="72"/>
@@ -28851,7 +28846,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="52"/>
       <c r="R13" s="38"/>
@@ -29082,17 +29077,17 @@
       <c r="II13" s="13"/>
     </row>
     <row r="14" spans="1:243" s="9" customFormat="1" ht="51">
-      <c r="A14" s="130"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -29102,7 +29097,7 @@
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
@@ -29335,12 +29330,12 @@
       <c r="II14" s="13"/>
     </row>
     <row r="15" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="72"/>
@@ -29582,12 +29577,12 @@
       <c r="II15" s="13"/>
     </row>
     <row r="16" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="72"/>
@@ -29601,7 +29596,7 @@
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="13"/>
@@ -29831,12 +29826,12 @@
       <c r="II16" s="13"/>
     </row>
     <row r="17" spans="1:243" s="9" customFormat="1" ht="39" thickBot="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
@@ -29846,7 +29841,7 @@
       <c r="K17" s="50"/>
       <c r="L17" s="51"/>
       <c r="M17" s="52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -30325,20 +30320,20 @@
       <c r="II18"/>
     </row>
     <row r="19" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A19" s="130">
+      <c r="A19" s="129">
         <v>3</v>
       </c>
-      <c r="B19" s="132" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="132" t="s">
-        <v>134</v>
+      <c r="B19" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>130</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E19" s="73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="50"/>
@@ -30351,7 +30346,7 @@
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="38"/>
@@ -30582,17 +30577,17 @@
       <c r="II19" s="13"/>
     </row>
     <row r="20" spans="1:243" s="9" customFormat="1" ht="51">
-      <c r="A20" s="130"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="50"/>
@@ -30602,7 +30597,7 @@
       <c r="L20" s="51"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
@@ -30835,12 +30830,12 @@
       <c r="II20" s="13"/>
     </row>
     <row r="21" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49"/>
@@ -31082,12 +31077,12 @@
       <c r="II21" s="13"/>
     </row>
     <row r="22" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
@@ -31101,7 +31096,7 @@
       <c r="O22" s="53"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R22" s="38"/>
       <c r="S22" s="13"/>
@@ -31331,12 +31326,12 @@
       <c r="II22" s="13"/>
     </row>
     <row r="23" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A23" s="130"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
@@ -31578,12 +31573,12 @@
       <c r="II23" s="13"/>
     </row>
     <row r="24" spans="1:243" s="9" customFormat="1" ht="25.5">
-      <c r="A24" s="130"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="132"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F24" s="49"/>
       <c r="G24" s="49"/>
@@ -31825,12 +31820,12 @@
       <c r="II24" s="13"/>
     </row>
     <row r="25" spans="1:243" s="9" customFormat="1" ht="25.5">
-      <c r="A25" s="130"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F25" s="49"/>
       <c r="G25" s="49"/>
@@ -32072,12 +32067,12 @@
       <c r="II25" s="13"/>
     </row>
     <row r="26" spans="1:243" s="9" customFormat="1" ht="64.5" thickBot="1">
-      <c r="A26" s="130"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -32089,7 +32084,7 @@
       <c r="M26" s="52"/>
       <c r="N26" s="53"/>
       <c r="O26" s="52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P26" s="53"/>
       <c r="Q26" s="53"/>
@@ -34035,20 +34030,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L4"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
@@ -34061,6 +34042,20 @@
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:Q6 M7:O7 Q7 M8:Q11">
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
@@ -34415,7 +34410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34445,152 +34440,152 @@
       <c r="A1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="186" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="189" t="s">
+      <c r="B1" s="170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="169" t="s">
+      <c r="F1" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="172" t="s">
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="174"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="191"/>
       <c r="X1" s="89"/>
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="191" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="175" t="s">
+      <c r="B2" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="178" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="178" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="178" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="178" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="178" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="178" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="L2" s="178" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="175" t="s">
+      <c r="M2" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="175" t="s">
+      <c r="N2" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="175" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="175" t="s">
+      <c r="O2" s="178" t="s">
+        <v>233</v>
+      </c>
+      <c r="P2" s="178" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="175" t="s">
+      <c r="Q2" s="178" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="175" t="s">
+      <c r="R2" s="178" t="s">
         <v>271</v>
       </c>
-      <c r="N2" s="175" t="s">
-        <v>272</v>
-      </c>
-      <c r="O2" s="175" t="s">
-        <v>237</v>
-      </c>
-      <c r="P2" s="175" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q2" s="175" t="s">
-        <v>274</v>
-      </c>
-      <c r="R2" s="175" t="s">
-        <v>275</v>
-      </c>
-      <c r="S2" s="170"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
       <c r="X2" s="89"/>
     </row>
     <row r="3" spans="1:24" ht="21.75" customHeight="1">
       <c r="A3" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="191" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="192"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
+        <v>206</v>
+      </c>
+      <c r="B3" s="175" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
       <c r="X3" s="89"/>
     </row>
     <row r="4" spans="1:24" ht="26.25" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="191" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="177"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
+      <c r="B4" s="175" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="176"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="194"/>
+      <c r="V4" s="194"/>
+      <c r="W4" s="194"/>
       <c r="X4" s="89"/>
     </row>
     <row r="5" spans="1:24">
@@ -34624,7 +34619,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" s="93" t="s">
         <v>9</v>
@@ -34656,24 +34651,24 @@
       <c r="X6" s="89"/>
     </row>
     <row r="7" spans="1:24" ht="51">
-      <c r="A7" s="182" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="185" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="185" t="str">
+      <c r="A7" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="184" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G7" s="98"/>
       <c r="H7" s="98"/>
@@ -34689,7 +34684,7 @@
       <c r="R7" s="98"/>
       <c r="S7" s="99"/>
       <c r="T7" s="100" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="U7" s="100"/>
       <c r="V7" s="100"/>
@@ -34697,9 +34692,9 @@
       <c r="X7" s="89"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="182"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
       <c r="D8" s="97"/>
       <c r="E8" s="97"/>
       <c r="F8" s="101"/>
@@ -34723,9 +34718,9 @@
       <c r="X8" s="89"/>
     </row>
     <row r="9" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A9" s="182"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="97"/>
       <c r="E9" s="97"/>
       <c r="F9" s="98"/>
@@ -34775,18 +34770,18 @@
       <c r="X10" s="107"/>
     </row>
     <row r="11" spans="1:24" ht="38.25">
-      <c r="A11" s="182" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="183" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="183" t="str">
+      <c r="A11" s="181" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="182" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="182" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" s="108" t="str">
         <f>E7</f>
@@ -34797,16 +34792,16 @@
       <c r="H11" s="110"/>
       <c r="I11" s="110"/>
       <c r="J11" s="117" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K11" s="110" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L11" s="110" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M11" s="110" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N11" s="111" t="str">
         <f>HYPERLINK("mailto:abc@123","abc@123")</f>
@@ -34818,7 +34813,7 @@
       <c r="R11" s="109"/>
       <c r="S11" s="112"/>
       <c r="T11" s="113" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="U11" s="113"/>
       <c r="V11" s="113"/>
@@ -34826,9 +34821,9 @@
       <c r="X11" s="114"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="182"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="184"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
       <c r="F12" s="101"/>
@@ -34852,9 +34847,9 @@
       <c r="X12" s="89"/>
     </row>
     <row r="13" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A13" s="182"/>
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="97"/>
       <c r="E13" s="97"/>
       <c r="F13" s="98"/>
@@ -34904,22 +34899,22 @@
       <c r="X14" s="107"/>
     </row>
     <row r="15" spans="1:24" ht="51">
-      <c r="A15" s="181" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="183" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="183"/>
+      <c r="A15" s="185" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="182" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="182"/>
       <c r="D15" s="108" t="str">
         <f>D11</f>
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E15" s="108" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F15" s="117" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="110"/>
@@ -34944,9 +34939,9 @@
       <c r="X15" s="114"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="182"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
+      <c r="A16" s="181"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
       <c r="F16" s="101"/>
@@ -34970,9 +34965,9 @@
       <c r="X16" s="89"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A17" s="182"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
       <c r="F17" s="98"/>
@@ -35022,21 +35017,21 @@
       <c r="X18" s="107"/>
     </row>
     <row r="19" spans="1:24" ht="102">
-      <c r="A19" s="181" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="183" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="183" t="str">
+      <c r="A19" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="182" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E19" s="108" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F19" s="109"/>
       <c r="G19" s="109"/>
@@ -35053,16 +35048,16 @@
       <c r="M19" s="110"/>
       <c r="N19" s="110"/>
       <c r="O19" s="110" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P19" s="110" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="109" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="R19" s="109" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S19" s="112"/>
       <c r="T19" s="113"/>
@@ -35072,14 +35067,14 @@
       <c r="X19" s="114"/>
     </row>
     <row r="20" spans="1:24" ht="51">
-      <c r="A20" s="182"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
+      <c r="A20" s="181"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="97" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E20" s="97" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F20" s="101"/>
       <c r="G20" s="101"/>
@@ -35096,7 +35091,7 @@
       <c r="R20" s="98"/>
       <c r="S20" s="99"/>
       <c r="T20" s="126" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="U20" s="102"/>
       <c r="V20" s="102"/>
@@ -35104,9 +35099,9 @@
       <c r="X20" s="89"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A21" s="182"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="184"/>
+      <c r="A21" s="181"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="97"/>
       <c r="E21" s="97"/>
       <c r="F21" s="98"/>
@@ -35156,21 +35151,21 @@
       <c r="X22" s="107"/>
     </row>
     <row r="23" spans="1:24" ht="63.75">
-      <c r="A23" s="181" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="183" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="183" t="str">
+      <c r="A23" s="185" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="182" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="182" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E23" s="108" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F23" s="109"/>
       <c r="G23" s="109"/>
@@ -35199,7 +35194,7 @@
       </c>
       <c r="S23" s="112"/>
       <c r="T23" s="113" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="U23" s="113"/>
       <c r="V23" s="113"/>
@@ -35207,9 +35202,9 @@
       <c r="X23" s="114"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="182"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="184"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="97"/>
       <c r="E24" s="97"/>
       <c r="F24" s="101"/>
@@ -35233,9 +35228,9 @@
       <c r="X24" s="89"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A25" s="182"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
+      <c r="A25" s="181"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
       <c r="D25" s="97"/>
       <c r="E25" s="97"/>
       <c r="F25" s="98"/>
@@ -35285,13 +35280,13 @@
       <c r="X26" s="107"/>
     </row>
     <row r="27" spans="1:24" ht="51">
-      <c r="A27" s="181" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="183" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="183" t="str">
+      <c r="A27" s="185" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="182" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -35321,7 +35316,7 @@
       <c r="R27" s="109"/>
       <c r="S27" s="112"/>
       <c r="T27" s="113" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="U27" s="113" t="str">
         <f>T11</f>
@@ -35332,9 +35327,9 @@
       <c r="X27" s="114"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="182"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
       <c r="D28" s="97"/>
       <c r="E28" s="97"/>
       <c r="F28" s="101"/>
@@ -35358,9 +35353,9 @@
       <c r="X28" s="89"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A29" s="182"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="184"/>
+      <c r="A29" s="181"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
       <c r="F29" s="98"/>
@@ -35410,13 +35405,13 @@
       <c r="X30" s="107"/>
     </row>
     <row r="31" spans="1:24" ht="63.75">
-      <c r="A31" s="181" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="183" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="183" t="str">
+      <c r="A31" s="185" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="182" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="182" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -35448,7 +35443,7 @@
       <c r="R31" s="109"/>
       <c r="S31" s="112"/>
       <c r="T31" s="113" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="U31" s="113"/>
       <c r="V31" s="113"/>
@@ -35456,9 +35451,9 @@
       <c r="X31" s="114"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="182"/>
-      <c r="B32" s="184"/>
-      <c r="C32" s="184"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
       <c r="D32" s="97"/>
       <c r="E32" s="97"/>
       <c r="F32" s="101"/>
@@ -35482,9 +35477,9 @@
       <c r="X32" s="89"/>
     </row>
     <row r="33" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A33" s="182"/>
-      <c r="B33" s="184"/>
-      <c r="C33" s="184"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="97"/>
       <c r="E33" s="97"/>
       <c r="F33" s="98"/>
@@ -35534,13 +35529,13 @@
       <c r="X34" s="107"/>
     </row>
     <row r="35" spans="1:24" ht="63.75">
-      <c r="A35" s="181" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="183" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35" s="183" t="str">
+      <c r="A35" s="185" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="182" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="182" t="str">
         <f>C31</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -35561,7 +35556,7 @@
       <c r="L35" s="110"/>
       <c r="M35" s="110"/>
       <c r="N35" s="110" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O35" s="110"/>
       <c r="P35" s="109"/>
@@ -35569,7 +35564,7 @@
       <c r="R35" s="109"/>
       <c r="S35" s="112"/>
       <c r="T35" s="113" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="U35" s="113"/>
       <c r="V35" s="113"/>
@@ -35577,9 +35572,9 @@
       <c r="X35" s="114"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="182"/>
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
+      <c r="A36" s="181"/>
+      <c r="B36" s="183"/>
+      <c r="C36" s="183"/>
       <c r="D36" s="97"/>
       <c r="E36" s="97"/>
       <c r="F36" s="101"/>
@@ -35603,9 +35598,9 @@
       <c r="X36" s="89"/>
     </row>
     <row r="37" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A37" s="182"/>
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
+      <c r="A37" s="181"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
       <c r="D37" s="97"/>
       <c r="E37" s="97"/>
       <c r="F37" s="98"/>
@@ -35655,13 +35650,13 @@
       <c r="X38" s="107"/>
     </row>
     <row r="39" spans="1:24" ht="38.25">
-      <c r="A39" s="181" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="183" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="183" t="str">
+      <c r="A39" s="185" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="182" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="182" t="str">
         <f>C35</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -35670,10 +35665,10 @@
         <v>Informar conforme dados de entrada.</v>
       </c>
       <c r="E39" s="108" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F39" s="117" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G39" s="109"/>
       <c r="H39" s="110"/>
@@ -35695,9 +35690,9 @@
       <c r="X39" s="114"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="182"/>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="97"/>
       <c r="E40" s="97"/>
       <c r="F40" s="101"/>
@@ -35721,9 +35716,9 @@
       <c r="X40" s="89"/>
     </row>
     <row r="41" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A41" s="182"/>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="183"/>
       <c r="D41" s="97"/>
       <c r="E41" s="97"/>
       <c r="F41" s="98"/>
@@ -35773,21 +35768,21 @@
       <c r="X42" s="107"/>
     </row>
     <row r="43" spans="1:24" ht="76.5">
-      <c r="A43" s="181" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="183" t="s">
-        <v>296</v>
-      </c>
-      <c r="C43" s="183" t="str">
+      <c r="A43" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="182" t="str">
         <f>C39</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D43" s="108" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E43" s="108" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F43" s="117"/>
       <c r="G43" s="109"/>
@@ -35822,9 +35817,9 @@
       <c r="X43" s="114"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="182"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="184"/>
+      <c r="A44" s="181"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
       <c r="D44" s="97"/>
       <c r="E44" s="97"/>
       <c r="F44" s="101"/>
@@ -35848,9 +35843,9 @@
       <c r="X44" s="89"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A45" s="182"/>
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
+      <c r="A45" s="181"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="97"/>
       <c r="E45" s="97"/>
       <c r="F45" s="98"/>
@@ -35900,21 +35895,21 @@
       <c r="X46" s="107"/>
     </row>
     <row r="47" spans="1:24" ht="76.5">
-      <c r="A47" s="181" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" s="183" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="183" t="str">
+      <c r="A47" s="185" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="182" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="182" t="str">
         <f>C43</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
       <c r="D47" s="108" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E47" s="108" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F47" s="117"/>
       <c r="G47" s="109"/>
@@ -35949,9 +35944,9 @@
       <c r="X47" s="114"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="182"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="184"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="183"/>
+      <c r="C48" s="183"/>
       <c r="D48" s="97"/>
       <c r="E48" s="97"/>
       <c r="F48" s="101"/>
@@ -35975,9 +35970,9 @@
       <c r="X48" s="89"/>
     </row>
     <row r="49" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A49" s="182"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="184"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="183"/>
       <c r="D49" s="97"/>
       <c r="E49" s="97"/>
       <c r="F49" s="98"/>
@@ -36027,13 +36022,13 @@
       <c r="X50" s="107"/>
     </row>
     <row r="51" spans="1:24" ht="51">
-      <c r="A51" s="181" t="s">
-        <v>239</v>
-      </c>
-      <c r="B51" s="183" t="s">
-        <v>299</v>
-      </c>
-      <c r="C51" s="183" t="str">
+      <c r="A51" s="185" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="182" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="182" t="str">
         <f>C47</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -36042,7 +36037,7 @@
         <v>Sistema informará Conforme dados de entrada.</v>
       </c>
       <c r="E51" s="108" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F51" s="117"/>
       <c r="G51" s="109"/>
@@ -36071,9 +36066,9 @@
       <c r="X51" s="114"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="182"/>
-      <c r="B52" s="184"/>
-      <c r="C52" s="184"/>
+      <c r="A52" s="181"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="183"/>
       <c r="D52" s="97"/>
       <c r="E52" s="97"/>
       <c r="F52" s="101"/>
@@ -36097,9 +36092,9 @@
       <c r="X52" s="89"/>
     </row>
     <row r="53" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A53" s="182"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="184"/>
+      <c r="A53" s="181"/>
+      <c r="B53" s="183"/>
+      <c r="C53" s="183"/>
       <c r="D53" s="97"/>
       <c r="E53" s="97"/>
       <c r="F53" s="98"/>
@@ -36143,54 +36138,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F1:R1"/>
     <mergeCell ref="S1:S4"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="L2:L4"/>
@@ -36204,6 +36151,54 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 M6:P9 M19:P21 M23:P25 F7:K9 M27:P29 F27:K29 M31:P33 F35:K37 M39:P41 F39:K41 M43:P45 F43:K45 M47:P49 M51:P53 F51:K53 F19:K21 F31:K33 M35:P37 F47:K49 F23:K25 F15:K17 M15:P17 F11:K13 M11:P13">
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">

--- a/Requisitos/Template_Projeto.xlsx
+++ b/Requisitos/Template_Projeto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="1215" yWindow="60" windowWidth="19440" windowHeight="11700" tabRatio="601" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'UC002 - Efetuar pagamento SIB  '!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'UC006 - comprar ações '!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2169,7 +2169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\C\T000"/>
@@ -3161,6 +3161,9 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3170,8 +3173,56 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3209,57 +3260,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3283,6 +3283,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3308,56 +3356,8 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7249,7 +7249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7652,11 +7652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:IH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
@@ -7689,29 +7689,29 @@
       <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="133" t="s">
+      <c r="C1" s="153"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="149"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -7943,33 +7943,33 @@
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="132" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="145" t="s">
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -8198,26 +8198,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -8446,22 +8446,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -9188,13 +9188,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="61" t="s">
@@ -9442,9 +9442,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="62" t="s">
         <v>24</v>
       </c>
@@ -9700,9 +9700,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="44.1" customHeight="1" thickBot="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -10188,13 +10188,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="60" t="s">
@@ -10442,9 +10442,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A12" s="129"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="60" t="s">
         <v>77</v>
       </c>
@@ -10700,9 +10700,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -11188,13 +11188,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="60" t="s">
@@ -11442,9 +11442,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A16" s="129"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="60" t="s">
         <v>73</v>
       </c>
@@ -11700,9 +11700,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -12188,13 +12188,13 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -12442,9 +12442,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="169.5" customHeight="1">
-      <c r="A20" s="129"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="60" t="s">
         <v>70</v>
       </c>
@@ -12700,9 +12700,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="74.099999999999994" customHeight="1" thickBot="1">
-      <c r="A21" s="129"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -13188,13 +13188,13 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" ht="60" customHeight="1">
-      <c r="A23" s="156" t="s">
+      <c r="A23" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="60" t="s">
@@ -13217,9 +13217,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:242" ht="89.25">
-      <c r="A24" s="129"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="60" t="s">
         <v>66</v>
       </c>
@@ -13250,9 +13250,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1">
-      <c r="A25" s="129"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -13288,13 +13288,13 @@
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:242" ht="63.75">
-      <c r="A27" s="156" t="s">
+      <c r="A27" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="131" t="s">
+      <c r="C27" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="60" t="s">
@@ -13317,9 +13317,9 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:242" ht="63.75">
-      <c r="A28" s="129"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="48" t="s">
         <v>30</v>
       </c>
@@ -13350,9 +13350,9 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:242" ht="13.5" thickBot="1">
-      <c r="A29" s="129"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="50"/>
@@ -13388,13 +13388,13 @@
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:242" ht="60.75" customHeight="1">
-      <c r="A31" s="156" t="s">
+      <c r="A31" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="60" t="s">
@@ -13417,9 +13417,9 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="1:242" ht="63.75">
-      <c r="A32" s="129"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="60" t="s">
         <v>60</v>
       </c>
@@ -13450,9 +13450,9 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A33" s="129"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="131"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="50"/>
@@ -13488,13 +13488,13 @@
       <c r="Q34" s="58"/>
     </row>
     <row r="35" spans="1:17" ht="63.75">
-      <c r="A35" s="156" t="s">
+      <c r="A35" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="131" t="s">
+      <c r="C35" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="60" t="s">
@@ -13517,9 +13517,9 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="1:17" ht="89.25">
-      <c r="A36" s="129"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="131"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
       <c r="D36" s="60" t="s">
         <v>54</v>
       </c>
@@ -13550,9 +13550,9 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A37" s="129"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="50"/>
@@ -13588,13 +13588,13 @@
       <c r="Q38" s="58"/>
     </row>
     <row r="39" spans="1:17" ht="63.75">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="60" t="s">
@@ -13617,9 +13617,9 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:17" ht="178.5">
-      <c r="A40" s="129"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
       <c r="D40" s="60" t="s">
         <v>202</v>
       </c>
@@ -13650,9 +13650,9 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A41" s="129"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
       <c r="F41" s="50"/>
@@ -13688,13 +13688,13 @@
       <c r="Q42" s="58"/>
     </row>
     <row r="43" spans="1:17" ht="63.75">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="131" t="s">
+      <c r="C43" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="60" t="s">
@@ -13717,9 +13717,9 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="1:17" ht="102">
-      <c r="A44" s="129"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="A44" s="130"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="132"/>
       <c r="D44" s="60" t="s">
         <v>49</v>
       </c>
@@ -13750,9 +13750,9 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A45" s="129"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
+      <c r="A45" s="130"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
       <c r="F45" s="50"/>
@@ -13788,13 +13788,13 @@
       <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="1:17" ht="63.75">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="131" t="s">
+      <c r="C47" s="132" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="60" t="s">
@@ -13817,9 +13817,9 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="1:17" ht="153">
-      <c r="A48" s="129"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
       <c r="D48" s="60" t="s">
         <v>205</v>
       </c>
@@ -13850,9 +13850,9 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="1:19" ht="13.5" thickBot="1">
-      <c r="A49" s="129"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
+      <c r="A49" s="130"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="132"/>
       <c r="D49" s="48"/>
       <c r="E49" s="48"/>
       <c r="F49" s="50"/>
@@ -13969,24 +13969,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="J2:J4"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
@@ -14003,23 +14002,24 @@
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P9 F9">
@@ -15115,7 +15115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15157,24 +15157,24 @@
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="149"/>
       <c r="Q1" s="38"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -15411,30 +15411,30 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="153" t="s">
+      <c r="E2" s="150"/>
+      <c r="F2" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="153" t="s">
+      <c r="G2" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="153" t="s">
+      <c r="H2" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="145" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="157" t="s">
+      <c r="N2" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="157" t="s">
+      <c r="O2" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="157"/>
+      <c r="P2" s="133"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -15663,26 +15663,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -15911,22 +15911,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -16653,13 +16653,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A7" s="129">
+      <c r="A7" s="130">
         <v>1</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="132" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="60" t="s">
@@ -16907,9 +16907,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="60" t="s">
         <v>96</v>
       </c>
@@ -17157,9 +17157,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60" t="s">
         <v>99</v>
@@ -17403,9 +17403,9 @@
       <c r="IH9" s="13"/>
     </row>
     <row r="10" spans="1:242" s="9" customFormat="1" ht="63.75">
-      <c r="A10" s="129"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="60" t="s">
         <v>100</v>
       </c>
@@ -17653,9 +17653,9 @@
       <c r="IH10" s="13"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A11" s="129"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="60" t="s">
         <v>103</v>
       </c>
@@ -18151,13 +18151,13 @@
       <c r="IH12"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="132" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="60" t="s">
@@ -18405,9 +18405,9 @@
       <c r="IH13" s="13"/>
     </row>
     <row r="14" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A14" s="129"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="60" t="s">
         <v>96</v>
       </c>
@@ -18655,9 +18655,9 @@
       <c r="IH14" s="13"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60" t="s">
         <v>99</v>
@@ -18901,9 +18901,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="60" t="s">
         <v>111</v>
       </c>
@@ -19151,9 +19151,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="81.75" customHeight="1" thickBot="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="60" t="s">
         <v>103</v>
       </c>
@@ -19649,13 +19649,13 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A19" s="129">
+      <c r="A19" s="130">
         <v>3</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="132" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -19903,9 +19903,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A20" s="129"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="60" t="s">
         <v>96</v>
       </c>
@@ -20153,9 +20153,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A21" s="129"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="48"/>
       <c r="E21" s="60" t="s">
         <v>116</v>
@@ -20399,9 +20399,9 @@
       <c r="IH21" s="13"/>
     </row>
     <row r="22" spans="1:242" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A22" s="129"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
         <v>117</v>
@@ -20891,13 +20891,13 @@
       <c r="IH23"/>
     </row>
     <row r="24" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A24" s="129">
+      <c r="A24" s="130">
         <v>4</v>
       </c>
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="132" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="60" t="s">
@@ -21147,9 +21147,9 @@
       <c r="IH24" s="13"/>
     </row>
     <row r="25" spans="1:242" s="9" customFormat="1" ht="25.5">
-      <c r="A25" s="129"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="60" t="s">
         <v>96</v>
       </c>
@@ -21397,9 +21397,9 @@
       <c r="IH25" s="13"/>
     </row>
     <row r="26" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A26" s="129"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60" t="s">
         <v>99</v>
@@ -21643,9 +21643,9 @@
       <c r="IH26" s="13"/>
     </row>
     <row r="27" spans="1:242" s="9" customFormat="1" ht="38.25">
-      <c r="A27" s="129"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="60" t="s">
         <v>111</v>
       </c>
@@ -21893,9 +21893,9 @@
       <c r="IH27" s="13"/>
     </row>
     <row r="28" spans="1:242" s="9" customFormat="1" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A28" s="129"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="48"/>
       <c r="E28" s="60" t="s">
         <v>122</v>
@@ -22390,6 +22390,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -22406,18 +22418,6 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:P11">
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
@@ -22844,7 +22844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22871,102 +22871,102 @@
       <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="133" t="s">
+      <c r="C1" s="153"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="149"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="27.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="153" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="153" t="s">
+      <c r="G2" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="145" t="s">
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="157" t="s">
+      <c r="N2" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -23018,13 +23018,13 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="131" t="s">
         <v>190</v>
       </c>
       <c r="D7" s="60" t="s">
@@ -23047,9 +23047,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="78" customHeight="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="60" t="s">
         <v>250</v>
       </c>
@@ -23076,9 +23076,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="124.5" customHeight="1" thickBot="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="60" t="s">
         <v>195</v>
       </c>
@@ -23120,13 +23120,13 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="86.25" customHeight="1">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="131" t="s">
         <v>190</v>
       </c>
       <c r="D11" s="60" t="s">
@@ -23149,9 +23149,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="98.25" customHeight="1">
-      <c r="A12" s="129"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="60" t="s">
         <v>250</v>
       </c>
@@ -23178,9 +23178,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="71"/>
@@ -23216,13 +23216,13 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="86.25" customHeight="1">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="131" t="s">
         <v>190</v>
       </c>
       <c r="D15" s="60" t="s">
@@ -23245,9 +23245,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17" ht="97.5" customHeight="1">
-      <c r="A16" s="129"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="60" t="s">
         <v>250</v>
       </c>
@@ -23274,9 +23274,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -23312,13 +23312,13 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="111.75" customHeight="1">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="131" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="131" t="s">
         <v>190</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -23345,9 +23345,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="99" customHeight="1">
-      <c r="A20" s="129"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="60" t="s">
         <v>250</v>
       </c>
@@ -23372,9 +23372,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="129"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -23411,22 +23411,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -23441,6 +23425,22 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
@@ -24274,7 +24274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24300,81 +24300,81 @@
       <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="133" t="s">
+      <c r="C1" s="153"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="149"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="153" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="145" t="s">
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="N2" s="157" t="s">
+      <c r="N2" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="166" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="41.25" customHeight="1">
@@ -24382,18 +24382,18 @@
       <c r="B4" s="167"/>
       <c r="C4" s="168"/>
       <c r="D4" s="169"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -24448,7 +24448,7 @@
       <c r="A7" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="164" t="s">
@@ -24476,9 +24476,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="91.5" customHeight="1" thickBot="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="60" t="s">
         <v>254</v>
       </c>
@@ -24503,9 +24503,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" hidden="1" thickBot="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -24544,7 +24544,7 @@
       <c r="A11" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="131" t="s">
         <v>184</v>
       </c>
       <c r="C11" s="164" t="s">
@@ -24572,9 +24572,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="99.75" customHeight="1">
-      <c r="A12" s="129"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="60" t="s">
         <v>254</v>
       </c>
@@ -24599,9 +24599,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -24638,16 +24638,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -24662,6 +24652,16 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
@@ -24780,7 +24780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24807,98 +24807,98 @@
       <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="133" t="s">
+      <c r="C1" s="153"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="149"/>
       <c r="Q1" s="38"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="153" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="145" t="s">
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
       <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
       <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
       <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
@@ -24950,13 +24950,13 @@
       <c r="Q6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="89.25" customHeight="1">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="132" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="48" t="s">
@@ -24981,9 +24981,9 @@
       <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49"/>
@@ -25000,9 +25000,9 @@
       <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="50"/>
@@ -25038,13 +25038,13 @@
       <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="104.25" customHeight="1">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="132" t="s">
         <v>166</v>
       </c>
       <c r="D11" s="48" t="s">
@@ -25071,9 +25071,9 @@
       <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
@@ -25090,9 +25090,9 @@
       <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A13" s="129"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="50"/>
@@ -25128,13 +25128,13 @@
       <c r="Q14" s="58"/>
     </row>
     <row r="15" spans="1:17" ht="66" customHeight="1">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="132" t="s">
         <v>166</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -25161,9 +25161,9 @@
       <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="129"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="49"/>
@@ -25180,9 +25180,9 @@
       <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="48"/>
       <c r="E17" s="48"/>
       <c r="F17" s="50"/>
@@ -25218,13 +25218,13 @@
       <c r="Q18" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="91.5" customHeight="1">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="132" t="s">
         <v>172</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -25251,9 +25251,9 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="129"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
       <c r="F20" s="49"/>
@@ -25270,9 +25270,9 @@
       <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A21" s="129"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
       <c r="F21" s="50"/>
@@ -25308,13 +25308,13 @@
       <c r="Q22" s="58"/>
     </row>
     <row r="23" spans="1:17" ht="51" customHeight="1">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="132" t="s">
         <v>166</v>
       </c>
       <c r="D23" s="60" t="s">
@@ -25341,9 +25341,9 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="129"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="49"/>
@@ -25360,9 +25360,9 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" thickBot="1">
-      <c r="A25" s="129"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="50"/>
@@ -25399,25 +25399,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -25432,6 +25413,25 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
@@ -25775,7 +25775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:II33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25818,25 +25818,25 @@
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="152"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="149"/>
       <c r="R1" s="38"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -26073,29 +26073,29 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="153" t="s">
+      <c r="E2" s="150"/>
+      <c r="F2" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="145" t="s">
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="157" t="s">
+      <c r="N2" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="157" t="s">
+      <c r="O2" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="157" t="s">
+      <c r="P2" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="157" t="s">
+      <c r="Q2" s="133" t="s">
         <v>128</v>
       </c>
       <c r="R2" s="38"/>
@@ -26326,27 +26326,27 @@
       <c r="II2" s="1"/>
     </row>
     <row r="3" spans="1:243" s="6" customFormat="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="162" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -26575,23 +26575,23 @@
       <c r="II3" s="1"/>
     </row>
     <row r="4" spans="1:243" s="6" customFormat="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
       <c r="R4" s="38"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -27320,13 +27320,13 @@
       <c r="II6" s="1"/>
     </row>
     <row r="7" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A7" s="129">
+      <c r="A7" s="130">
         <v>1</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="132" t="s">
         <v>237</v>
       </c>
       <c r="D7" s="60" t="s">
@@ -27577,9 +27577,9 @@
       <c r="II7" s="13"/>
     </row>
     <row r="8" spans="1:243" s="9" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="60" t="s">
         <v>134</v>
       </c>
@@ -27830,9 +27830,9 @@
       <c r="II8" s="13"/>
     </row>
     <row r="9" spans="1:243" s="9" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A9" s="129"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="60"/>
       <c r="E9" s="75" t="s">
         <v>137</v>
@@ -28077,9 +28077,9 @@
       <c r="II9" s="13"/>
     </row>
     <row r="10" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A10" s="129"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="60"/>
       <c r="E10" s="60" t="s">
         <v>138</v>
@@ -28326,9 +28326,9 @@
       <c r="II10" s="13"/>
     </row>
     <row r="11" spans="1:243" s="9" customFormat="1" ht="77.25" thickBot="1">
-      <c r="A11" s="129"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="60"/>
       <c r="E11" s="75" t="s">
         <v>140</v>
@@ -28820,13 +28820,13 @@
       <c r="II12"/>
     </row>
     <row r="13" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="132" t="s">
         <v>237</v>
       </c>
       <c r="D13" s="60" t="s">
@@ -29077,9 +29077,9 @@
       <c r="II13" s="13"/>
     </row>
     <row r="14" spans="1:243" s="9" customFormat="1" ht="51">
-      <c r="A14" s="129"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="60" t="s">
         <v>134</v>
       </c>
@@ -29330,9 +29330,9 @@
       <c r="II14" s="13"/>
     </row>
     <row r="15" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="60"/>
       <c r="E15" s="75" t="s">
         <v>137</v>
@@ -29577,9 +29577,9 @@
       <c r="II15" s="13"/>
     </row>
     <row r="16" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60" t="s">
         <v>138</v>
@@ -29826,9 +29826,9 @@
       <c r="II16" s="13"/>
     </row>
     <row r="17" spans="1:243" s="9" customFormat="1" ht="39" thickBot="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="60"/>
       <c r="E17" s="60" t="s">
         <v>144</v>
@@ -30320,13 +30320,13 @@
       <c r="II18"/>
     </row>
     <row r="19" spans="1:243" s="9" customFormat="1" ht="75">
-      <c r="A19" s="129">
+      <c r="A19" s="130">
         <v>3</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="132" t="s">
         <v>130</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -30577,9 +30577,9 @@
       <c r="II19" s="13"/>
     </row>
     <row r="20" spans="1:243" s="9" customFormat="1" ht="51">
-      <c r="A20" s="129"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="131"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
       <c r="D20" s="60" t="s">
         <v>134</v>
       </c>
@@ -30830,9 +30830,9 @@
       <c r="II20" s="13"/>
     </row>
     <row r="21" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="131"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="48"/>
       <c r="E21" s="75" t="s">
         <v>137</v>
@@ -31077,9 +31077,9 @@
       <c r="II21" s="13"/>
     </row>
     <row r="22" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A22" s="129"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="131"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
       <c r="D22" s="48"/>
       <c r="E22" s="60" t="s">
         <v>138</v>
@@ -31326,9 +31326,9 @@
       <c r="II22" s="13"/>
     </row>
     <row r="23" spans="1:243" s="9" customFormat="1" ht="38.25">
-      <c r="A23" s="129"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="48"/>
       <c r="E23" s="60" t="s">
         <v>144</v>
@@ -31573,9 +31573,9 @@
       <c r="II23" s="13"/>
     </row>
     <row r="24" spans="1:243" s="9" customFormat="1" ht="25.5">
-      <c r="A24" s="129"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="48"/>
       <c r="E24" s="60" t="s">
         <v>147</v>
@@ -31820,9 +31820,9 @@
       <c r="II24" s="13"/>
     </row>
     <row r="25" spans="1:243" s="9" customFormat="1" ht="25.5">
-      <c r="A25" s="129"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="131"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="48"/>
       <c r="E25" s="60" t="s">
         <v>148</v>
@@ -32067,9 +32067,9 @@
       <c r="II25" s="13"/>
     </row>
     <row r="26" spans="1:243" s="9" customFormat="1" ht="64.5" thickBot="1">
-      <c r="A26" s="129"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
       <c r="D26" s="48"/>
       <c r="E26" s="60" t="s">
         <v>149</v>
@@ -34030,6 +34030,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="C19:C26"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
@@ -34042,20 +34056,6 @@
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="C19:C26"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 F7:F11 M6:Q6 M7:O7 Q7 M8:Q11">
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
@@ -34410,11 +34410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34440,152 +34440,152 @@
       <c r="A1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="173" t="s">
+      <c r="C1" s="187"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="186" t="s">
+      <c r="F1" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="189" t="s">
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="191"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="174"/>
       <c r="X1" s="89"/>
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="178" t="s">
+      <c r="C2" s="192"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="175" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="175" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="175" t="s">
         <v>264</v>
       </c>
-      <c r="J2" s="178" t="s">
+      <c r="J2" s="175" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="178" t="s">
+      <c r="K2" s="175" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="178" t="s">
+      <c r="L2" s="175" t="s">
         <v>266</v>
       </c>
-      <c r="M2" s="178" t="s">
+      <c r="M2" s="175" t="s">
         <v>267</v>
       </c>
-      <c r="N2" s="178" t="s">
+      <c r="N2" s="175" t="s">
         <v>268</v>
       </c>
-      <c r="O2" s="178" t="s">
+      <c r="O2" s="175" t="s">
         <v>233</v>
       </c>
-      <c r="P2" s="178" t="s">
+      <c r="P2" s="175" t="s">
         <v>269</v>
       </c>
-      <c r="Q2" s="178" t="s">
+      <c r="Q2" s="175" t="s">
         <v>270</v>
       </c>
-      <c r="R2" s="178" t="s">
+      <c r="R2" s="175" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="187"/>
-      <c r="T2" s="192"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="192"/>
-      <c r="W2" s="192"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
       <c r="X2" s="89"/>
     </row>
     <row r="3" spans="1:24" ht="21.75" customHeight="1">
       <c r="A3" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="191" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
       <c r="X3" s="89"/>
     </row>
     <row r="4" spans="1:24" ht="26.25" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="191" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="180"/>
-      <c r="R4" s="180"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="194"/>
-      <c r="U4" s="194"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
+      <c r="M4" s="177"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="177"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
       <c r="X4" s="89"/>
     </row>
     <row r="5" spans="1:24">
@@ -34651,13 +34651,13 @@
       <c r="X6" s="89"/>
     </row>
     <row r="7" spans="1:24" ht="51">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="185" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="184" t="str">
+      <c r="C7" s="185" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -34692,9 +34692,9 @@
       <c r="X7" s="89"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="181"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
       <c r="D8" s="97"/>
       <c r="E8" s="97"/>
       <c r="F8" s="101"/>
@@ -34718,9 +34718,9 @@
       <c r="X8" s="89"/>
     </row>
     <row r="9" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A9" s="181"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
       <c r="D9" s="97"/>
       <c r="E9" s="97"/>
       <c r="F9" s="98"/>
@@ -34770,13 +34770,13 @@
       <c r="X10" s="107"/>
     </row>
     <row r="11" spans="1:24" ht="38.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="182" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="183" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="182" t="str">
+      <c r="C11" s="183" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -34821,9 +34821,9 @@
       <c r="X11" s="114"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="181"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
       <c r="F12" s="101"/>
@@ -34847,9 +34847,9 @@
       <c r="X12" s="89"/>
     </row>
     <row r="13" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A13" s="181"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="97"/>
       <c r="E13" s="97"/>
       <c r="F13" s="98"/>
@@ -34899,13 +34899,16 @@
       <c r="X14" s="107"/>
     </row>
     <row r="15" spans="1:24" ht="51">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="183" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="183" t="str">
+        <f>B3</f>
+        <v>Usuário Conectado ao sistema (Efetuado Login)</v>
+      </c>
       <c r="D15" s="108" t="str">
         <f>D11</f>
         <v>Sistema informará Conforme dados de entrada.</v>
@@ -34939,9 +34942,9 @@
       <c r="X15" s="114"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="181"/>
-      <c r="B16" s="183"/>
-      <c r="C16" s="183"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
       <c r="F16" s="101"/>
@@ -34965,9 +34968,9 @@
       <c r="X16" s="89"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A17" s="181"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="183"/>
+      <c r="A17" s="182"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
       <c r="F17" s="98"/>
@@ -35017,13 +35020,13 @@
       <c r="X18" s="107"/>
     </row>
     <row r="19" spans="1:24" ht="102">
-      <c r="A19" s="185" t="s">
+      <c r="A19" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="182" t="s">
+      <c r="B19" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="182" t="str">
+      <c r="C19" s="183" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -35067,9 +35070,9 @@
       <c r="X19" s="114"/>
     </row>
     <row r="20" spans="1:24" ht="51">
-      <c r="A20" s="181"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
       <c r="D20" s="97" t="s">
         <v>218</v>
       </c>
@@ -35099,9 +35102,9 @@
       <c r="X20" s="89"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A21" s="181"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
+      <c r="A21" s="182"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
       <c r="D21" s="97"/>
       <c r="E21" s="97"/>
       <c r="F21" s="98"/>
@@ -35151,13 +35154,13 @@
       <c r="X22" s="107"/>
     </row>
     <row r="23" spans="1:24" ht="63.75">
-      <c r="A23" s="185" t="s">
+      <c r="A23" s="181" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="C23" s="182" t="str">
+      <c r="C23" s="183" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -35202,9 +35205,9 @@
       <c r="X23" s="114"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="181"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="183"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
       <c r="D24" s="97"/>
       <c r="E24" s="97"/>
       <c r="F24" s="101"/>
@@ -35228,9 +35231,9 @@
       <c r="X24" s="89"/>
     </row>
     <row r="25" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A25" s="181"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="184"/>
       <c r="D25" s="97"/>
       <c r="E25" s="97"/>
       <c r="F25" s="98"/>
@@ -35280,13 +35283,13 @@
       <c r="X26" s="107"/>
     </row>
     <row r="27" spans="1:24" ht="51">
-      <c r="A27" s="185" t="s">
+      <c r="A27" s="181" t="s">
         <v>160</v>
       </c>
-      <c r="B27" s="182" t="s">
+      <c r="B27" s="183" t="s">
         <v>222</v>
       </c>
-      <c r="C27" s="182" t="str">
+      <c r="C27" s="183" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -35327,9 +35330,9 @@
       <c r="X27" s="114"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="181"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
+      <c r="A28" s="182"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
       <c r="D28" s="97"/>
       <c r="E28" s="97"/>
       <c r="F28" s="101"/>
@@ -35353,9 +35356,9 @@
       <c r="X28" s="89"/>
     </row>
     <row r="29" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A29" s="181"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
+      <c r="A29" s="182"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
       <c r="F29" s="98"/>
@@ -35405,13 +35408,13 @@
       <c r="X30" s="107"/>
     </row>
     <row r="31" spans="1:24" ht="63.75">
-      <c r="A31" s="185" t="s">
+      <c r="A31" s="181" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="182" t="s">
+      <c r="B31" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="182" t="str">
+      <c r="C31" s="183" t="str">
         <f>B3</f>
         <v>Usuário Conectado ao sistema (Efetuado Login)</v>
       </c>
@@ -35451,9 +35454,9 @@
       <c r="X31" s="114"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="181"/>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="184"/>
       <c r="D32" s="97"/>
       <c r="E32" s="97"/>
       <c r="F32" s="101"/>
@@ -35477,9 +35480,9 @@
       <c r="X32" s="89"/>
     </row>
     <row r="33" spans="1:24" ht="13.5" 